--- a/02 - config/example_small/agents.xlsx
+++ b/02 - config/example_small/agents.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="297">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -456,366 +456,375 @@
     <t>meter/prob_missing</t>
   </si>
   <si>
-    <t>QveFhCPMjUCLHLg</t>
-  </si>
-  <si>
-    <t>sxaUGNMrvcigHeL</t>
-  </si>
-  <si>
-    <t>Cy95LEFFXIqQoxd</t>
-  </si>
-  <si>
-    <t>FI4GHcNuYMGvnFE</t>
-  </si>
-  <si>
-    <t>Ol3ZbzNKoYXzo14</t>
-  </si>
-  <si>
-    <t>TUYOkj7s4CwdhnT</t>
-  </si>
-  <si>
-    <t>FYqAQIwbaleIAD4</t>
-  </si>
-  <si>
-    <t>Eu9PJTCFX7DzRtd</t>
-  </si>
-  <si>
-    <t>CdI3uCq5HvQ6HkJ</t>
-  </si>
-  <si>
-    <t>6iMNz4QpWagXXJm</t>
+    <t>WKaDlzVqwb0qILK</t>
+  </si>
+  <si>
+    <t>mcnuVftQ2oeXVK6</t>
+  </si>
+  <si>
+    <t>sBE7lqgjreHlQGx</t>
+  </si>
+  <si>
+    <t>Ykkp2llyiKROWVf</t>
+  </si>
+  <si>
+    <t>maIjQWr9vjk0Uni</t>
+  </si>
+  <si>
+    <t>kizSgfHv1LkxSkV</t>
+  </si>
+  <si>
+    <t>TLeFhLumgkw1SdF</t>
+  </si>
+  <si>
+    <t>QToR2KzakBC9DB3</t>
+  </si>
+  <si>
+    <t>3MIheuHptB4Wuoo</t>
+  </si>
+  <si>
+    <t>wrHtoob8tnX3WC2</t>
+  </si>
+  <si>
+    <t>hh_3648_0.csv</t>
+  </si>
+  <si>
+    <t>hh_5527_0.csv</t>
+  </si>
+  <si>
+    <t>hh_2532_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3863_0.csv</t>
+  </si>
+  <si>
+    <t>hh_2959_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3125_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3564_0.csv</t>
+  </si>
+  <si>
+    <t>naive_average</t>
+  </si>
+  <si>
+    <t>[2, 0, 2, 2, 0, 0, 96, 2, 0, 0, 672]</t>
+  </si>
+  <si>
+    <t>heat_3648_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_4_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_2532_0.csv</t>
+  </si>
+  <si>
+    <t>heat_3863_0.csv</t>
+  </si>
+  <si>
+    <t>heat_2959_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_0_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_3564_0.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_0_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_2_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_3_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_6_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_4_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_5_pu.csv</t>
+  </si>
+  <si>
+    <t>pv_config.json</t>
+  </si>
+  <si>
+    <t>smoothed</t>
+  </si>
+  <si>
+    <t>green_local</t>
+  </si>
+  <si>
+    <t>wind_Enercon_E-53-800_800000_53.json</t>
+  </si>
+  <si>
+    <t>wind_Nordex_MM92_3300000_131.json</t>
+  </si>
+  <si>
+    <t>wind_Siemens_SWT-3.6-130_3600000_130.json</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>ev_fulltime_41.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_48.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_49.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_45.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_47.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_90.csv</t>
+  </si>
+  <si>
+    <t>price_sensitive</t>
+  </si>
+  <si>
+    <t>ev_close</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>naive</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>general/sub_id</t>
+  </si>
+  <si>
+    <t>general/parameters/apartments_independent</t>
+  </si>
+  <si>
+    <t>general/parameters/apartments</t>
+  </si>
+  <si>
+    <t>okrkLU7dEv9zBJu</t>
+  </si>
+  <si>
+    <t>5u20qBHjWa2Ic0d</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>MORBhkg1gGsYALg</t>
+  </si>
+  <si>
+    <t>Bl3ZuCYrEkpnyDK</t>
+  </si>
+  <si>
+    <t>ae2InbMZR1Q3ylz</t>
+  </si>
+  <si>
+    <t>AMSglV9XMfUDQdc</t>
+  </si>
+  <si>
+    <t>bgMVEHxHOCD2ZHP</t>
+  </si>
+  <si>
+    <t>ZySixt5otl0xAbX</t>
+  </si>
+  <si>
+    <t>w3eCmzQpkDLZgPU</t>
+  </si>
+  <si>
+    <t>G1YXjrOhuOF8r1k</t>
+  </si>
+  <si>
+    <t>PcDKRpWO6qmoz0Z</t>
+  </si>
+  <si>
+    <t>0qnUQ37A1spIXrY</t>
+  </si>
+  <si>
+    <t>lUalunDMN7lpPO6</t>
+  </si>
+  <si>
+    <t>k3O9vOHMtRq1jRm</t>
+  </si>
+  <si>
+    <t>BurM61AIDtzgbMX</t>
+  </si>
+  <si>
+    <t>HRcyEZSSEcK9HhM</t>
+  </si>
+  <si>
+    <t>hh_1158_4.csv</t>
+  </si>
+  <si>
+    <t>hh_1546_2.csv</t>
+  </si>
+  <si>
+    <t>hh_3296_0.csv</t>
+  </si>
+  <si>
+    <t>hh_1720_0.csv</t>
+  </si>
+  <si>
+    <t>hh_1266_0.csv</t>
   </si>
   <si>
     <t>hh_2012_3.csv</t>
   </si>
   <si>
-    <t>hh_3125_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3863_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3648_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3296_0.csv</t>
-  </si>
-  <si>
-    <t>hh_5527_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3564_0.csv</t>
-  </si>
-  <si>
-    <t>naive_average</t>
-  </si>
-  <si>
-    <t>[2, 0, 2, 2, 0, 0, 96, 2, 0, 0, 672]</t>
-  </si>
-  <si>
-    <t>heat_2012_3.csv</t>
+    <t>hh_2455_0.csv</t>
+  </si>
+  <si>
+    <t>hh_2262_0.csv</t>
+  </si>
+  <si>
+    <t>hh_1009_1.csv</t>
+  </si>
+  <si>
+    <t>hh_2687_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_5_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_3_pu.csv</t>
   </si>
   <si>
     <t>heat_gen_1_pu.csv</t>
   </si>
   <si>
-    <t>heat_3863_0.csv</t>
-  </si>
-  <si>
-    <t>heat_3648_0.csv</t>
-  </si>
-  <si>
-    <t>heat_3296_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_0_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_3564_0.csv</t>
+    <t>heat_gen_2_pu.csv</t>
   </si>
   <si>
     <t>dhw_gen_1_pu.csv</t>
   </si>
   <si>
-    <t>dhw_gen_2_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_6_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_4_pu.csv</t>
-  </si>
-  <si>
-    <t>pv_config.json</t>
-  </si>
-  <si>
-    <t>smoothed</t>
-  </si>
-  <si>
-    <t>green_local</t>
+    <t>pv_1_pu.csv</t>
+  </si>
+  <si>
+    <t>pv_2_pu.csv</t>
   </si>
   <si>
     <t>wind_Vestas_V117-3.3-MW_3300000_117.json</t>
   </si>
   <si>
-    <t>wind_Senvion-REpower_3.2M122_3200000_122.json</t>
-  </si>
-  <si>
-    <t>wind_Nordex_MM92_3300000_131.json</t>
-  </si>
-  <si>
-    <t>wind_Enercon_E-53-800_800000_53.json</t>
-  </si>
-  <si>
-    <t>weather</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>ev_fulltime_41.csv</t>
+    <t>fixed_gen_1_pu.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_1.csv</t>
   </si>
   <si>
     <t>ev_freetime_2.csv</t>
   </si>
   <si>
-    <t>ev_fulltime_46.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_45.csv</t>
-  </si>
-  <si>
-    <t>price_sensitive</t>
-  </si>
-  <si>
-    <t>ev_close</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>naive</t>
-  </si>
-  <si>
-    <t>linear</t>
-  </si>
-  <si>
-    <t>general/sub_id</t>
-  </si>
-  <si>
-    <t>general/parameters/apartments_independent</t>
-  </si>
-  <si>
-    <t>general/parameters/apartments</t>
-  </si>
-  <si>
-    <t>47wQFyvSiM02uLB</t>
-  </si>
-  <si>
-    <t>d8fP0ZjbiN9H9VV</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>G4K9OKE5m27JRhW</t>
-  </si>
-  <si>
-    <t>BWU2Vr1jAMJ82As</t>
-  </si>
-  <si>
-    <t>ABxrYFYX5tmJDCu</t>
-  </si>
-  <si>
-    <t>E7PlPJjGQccD0i5</t>
-  </si>
-  <si>
-    <t>X2xDxgacQVpUWjt</t>
-  </si>
-  <si>
-    <t>fmyMzLatzH7jpiG</t>
-  </si>
-  <si>
-    <t>VYWhifA3RxS3HvK</t>
-  </si>
-  <si>
-    <t>6AYvmQ3NeIHXISz</t>
-  </si>
-  <si>
-    <t>oNmhF60ij6EtEGy</t>
-  </si>
-  <si>
-    <t>ltt1IlUN95h3yPZ</t>
-  </si>
-  <si>
-    <t>xxnKv6Z26k2TU3A</t>
-  </si>
-  <si>
-    <t>UiLLRzk5TIJXHPt</t>
-  </si>
-  <si>
-    <t>SzpfMeEwouFu93O</t>
-  </si>
-  <si>
-    <t>zX0PWEvaOjvo9BN</t>
-  </si>
-  <si>
-    <t>hh_2455_0.csv</t>
-  </si>
-  <si>
-    <t>hh_1416_1.csv</t>
-  </si>
-  <si>
-    <t>hh_2262_0.csv</t>
-  </si>
-  <si>
-    <t>hh_1720_0.csv</t>
-  </si>
-  <si>
-    <t>hh_1266_0.csv</t>
-  </si>
-  <si>
-    <t>hh_1546_2.csv</t>
-  </si>
-  <si>
-    <t>hh_1158_4.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_3_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_2_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_5_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_4_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_3_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_0_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_5_pu.csv</t>
-  </si>
-  <si>
-    <t>pv_2_pu.csv</t>
-  </si>
-  <si>
-    <t>pv_1_pu.csv</t>
-  </si>
-  <si>
-    <t>fixed_gen_1_pu.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_49.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_3.csv</t>
+    <t>i</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
   <si>
     <t>c</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>general/parameters/type</t>
   </si>
   <si>
     <t>general/fcast_retraining_frequency</t>
   </si>
   <si>
-    <t>gOO7Px7u3dP0ifU</t>
-  </si>
-  <si>
-    <t>LruijZ1H3pGygC0</t>
-  </si>
-  <si>
-    <t>rc4zjcSLiKI9Z7N</t>
-  </si>
-  <si>
-    <t>kx5vPgAm2vhA9Jh</t>
+    <t>ECGOnSW8WADYhYT</t>
+  </si>
+  <si>
+    <t>JLZ2nNizqi9Z6WL</t>
+  </si>
+  <si>
+    <t>pWrRQ5sGDp5e59p</t>
+  </si>
+  <si>
+    <t>grRgMFsDz987rgG</t>
+  </si>
+  <si>
+    <t>office</t>
   </si>
   <si>
     <t>retail</t>
   </si>
   <si>
-    <t>office</t>
+    <t>office_pu_0.csv</t>
   </si>
   <si>
     <t>retail_pu_0.csv</t>
   </si>
   <si>
-    <t>office_pu_0.csv</t>
+    <t>YrM2KlV24c6EpVK</t>
+  </si>
+  <si>
+    <t>GOw1Mue80BXXDwc</t>
+  </si>
+  <si>
+    <t>tobacco</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>tobacco_pu_0.csv</t>
+  </si>
+  <si>
+    <t>food_pu_0.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_89.csv</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>znibXFFKBylRUZR</t>
+  </si>
+  <si>
+    <t>xwTKTPT383KkdQE</t>
+  </si>
+  <si>
+    <t>TWCV1vstf48hPvT</t>
+  </si>
+  <si>
+    <t>eux7LCBDYu36BPy</t>
+  </si>
+  <si>
+    <t>SmWE7XCDFO7t9eu</t>
+  </si>
+  <si>
+    <t>tPulIZT1ZhxrczV</t>
   </si>
   <si>
     <t>pv_3_pu.csv</t>
   </si>
   <si>
-    <t>ev_fulltime_48.csv</t>
-  </si>
-  <si>
-    <t>ev_parttime_88.csv</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>62Kc0VERqR0AViZ</t>
-  </si>
-  <si>
-    <t>DYRVv1IXiZECbsT</t>
-  </si>
-  <si>
-    <t>tobacco</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>tobacco_pu_0.csv</t>
-  </si>
-  <si>
-    <t>food_pu_0.csv</t>
-  </si>
-  <si>
-    <t>dwdwJ90KYzu88zn</t>
-  </si>
-  <si>
-    <t>WDozTlqMW8mnegx</t>
-  </si>
-  <si>
-    <t>nzvEsB7smt6eGaf</t>
-  </si>
-  <si>
-    <t>QW9r9ivXNRmHQT6</t>
-  </si>
-  <si>
-    <t>aqMm8nn525pQlUo</t>
-  </si>
-  <si>
-    <t>vqTkP3bmds0tZkw</t>
-  </si>
-  <si>
     <t>psh/owner</t>
   </si>
   <si>
@@ -876,31 +885,31 @@
     <t>hydrogen/quality</t>
   </si>
   <si>
-    <t>mIDgenjenPoYVW0</t>
-  </si>
-  <si>
-    <t>hst3WNS5Vyf0S3Y</t>
-  </si>
-  <si>
-    <t>kCvXco84lz3fzGO</t>
-  </si>
-  <si>
-    <t>0RoMk48e0rVZe5s</t>
-  </si>
-  <si>
-    <t>EvCak41CmYwAfwv</t>
-  </si>
-  <si>
-    <t>UHHXG6AdzwCBK8x</t>
-  </si>
-  <si>
-    <t>AucNr33l1Ep7CYk</t>
-  </si>
-  <si>
-    <t>2EtLkweFWcfRNq3</t>
-  </si>
-  <si>
-    <t>JcsuDo2QAU6981P</t>
+    <t>IrDk0suEMJe1Jrq</t>
+  </si>
+  <si>
+    <t>ca7DXvsRif58Ywi</t>
+  </si>
+  <si>
+    <t>UYHS8KkFEgWdMat</t>
+  </si>
+  <si>
+    <t>53DJ8459GxzasDU</t>
+  </si>
+  <si>
+    <t>wUdW9MWYe3v90V7</t>
+  </si>
+  <si>
+    <t>wjruqoUV91OXGae</t>
+  </si>
+  <si>
+    <t>bBt3I255Zgyiiu6</t>
+  </si>
+  <si>
+    <t>3KsTujBHlQ7RVF0</t>
+  </si>
+  <si>
+    <t>kqCfqR3JvHUAq71</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>2012000</v>
+        <v>3648000</v>
       </c>
       <c r="P2" t="s">
         <v>155</v>
@@ -1793,7 +1802,7 @@
         <v>164</v>
       </c>
       <c r="AJ2">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AK2" t="s">
         <v>162</v>
@@ -1820,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="AS2">
-        <v>1800000</v>
+        <v>2100000</v>
       </c>
       <c r="AT2" t="s">
         <v>171</v>
@@ -1853,10 +1862,10 @@
         <v>1</v>
       </c>
       <c r="BD2">
-        <v>3300</v>
+        <v>5900</v>
       </c>
       <c r="BE2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BF2">
         <v>0</v>
@@ -1868,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="BI2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BJ2">
         <v>2</v>
@@ -1877,7 +1886,7 @@
         <v>9</v>
       </c>
       <c r="BL2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BM2">
         <v>1</v>
@@ -1889,38 +1898,38 @@
         <v>1</v>
       </c>
       <c r="BP2">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="BQ2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BR2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BT2">
+        <v>2</v>
+      </c>
+      <c r="BU2">
+        <v>9</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="s">
         <v>178</v>
       </c>
-      <c r="BR2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>182</v>
-      </c>
-      <c r="BT2">
-        <v>2</v>
-      </c>
-      <c r="BU2">
-        <v>9</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>177</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>176</v>
-      </c>
       <c r="CD2">
         <v>2</v>
       </c>
@@ -1928,7 +1937,7 @@
         <v>9</v>
       </c>
       <c r="CF2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CG2">
         <v>0</v>
@@ -1940,49 +1949,19 @@
         <v>1</v>
       </c>
       <c r="CL2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO2" t="b">
         <v>1</v>
       </c>
-      <c r="CP2" t="s">
-        <v>184</v>
-      </c>
-      <c r="CQ2">
-        <v>75000</v>
-      </c>
-      <c r="CR2">
-        <v>20000</v>
-      </c>
-      <c r="CS2">
-        <v>7200</v>
-      </c>
-      <c r="CT2">
-        <v>11000</v>
-      </c>
-      <c r="CU2">
-        <v>100000</v>
-      </c>
-      <c r="CV2">
-        <v>0.9</v>
-      </c>
-      <c r="CW2">
-        <v>0.8</v>
-      </c>
-      <c r="CX2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY2" t="b">
-        <v>0</v>
-      </c>
       <c r="DJ2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="DK2">
         <v>0.05</v>
@@ -1997,40 +1976,22 @@
         <v>8.5</v>
       </c>
       <c r="DO2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DP2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>190</v>
-      </c>
-      <c r="DT2">
-        <v>2000</v>
-      </c>
-      <c r="DU2">
-        <v>2000</v>
-      </c>
-      <c r="DV2">
-        <v>0.95</v>
-      </c>
-      <c r="DW2">
-        <v>0.1</v>
-      </c>
-      <c r="DX2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DY2" t="b">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="DZ2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EA2">
         <v>0</v>
@@ -2039,28 +2000,28 @@
         <v>0</v>
       </c>
       <c r="EC2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="EG2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EH2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EI2">
         <v>96</v>
       </c>
       <c r="EJ2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EK2">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="EL2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EM2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="EN2">
         <v>0</v>
@@ -2080,10 +2041,10 @@
         <v>146</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2092,7 +2053,7 @@
         <v>2.6</v>
       </c>
       <c r="J3">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -2107,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>3125000</v>
+        <v>5527000</v>
       </c>
       <c r="P3" t="s">
         <v>156</v>
@@ -2158,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="AH3">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="AI3" t="s">
         <v>165</v>
@@ -2191,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="AS3">
-        <v>2400000</v>
+        <v>3200000</v>
       </c>
       <c r="AT3" t="s">
         <v>172</v>
@@ -2215,16 +2176,31 @@
         <v>90</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3" t="b">
         <v>1</v>
       </c>
+      <c r="BD3">
+        <v>7200</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>40</v>
+      </c>
+      <c r="BH3" t="b">
+        <v>1</v>
+      </c>
       <c r="BI3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BJ3">
         <v>2</v>
@@ -2233,38 +2209,29 @@
         <v>9</v>
       </c>
       <c r="BL3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="b">
         <v>1</v>
       </c>
-      <c r="BP3">
-        <v>2500</v>
-      </c>
-      <c r="BQ3" t="s">
+      <c r="BS3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BT3">
+        <v>2</v>
+      </c>
+      <c r="BU3">
+        <v>9</v>
+      </c>
+      <c r="BV3" t="s">
         <v>179</v>
       </c>
-      <c r="BR3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>182</v>
-      </c>
-      <c r="BT3">
-        <v>2</v>
-      </c>
-      <c r="BU3">
-        <v>9</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>177</v>
-      </c>
       <c r="BW3">
         <v>0</v>
       </c>
@@ -2275,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="CC3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CD3">
         <v>2</v>
@@ -2284,7 +2251,7 @@
         <v>9</v>
       </c>
       <c r="CF3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CG3">
         <v>0</v>
@@ -2296,49 +2263,19 @@
         <v>1</v>
       </c>
       <c r="CL3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO3" t="b">
         <v>1</v>
       </c>
-      <c r="CP3" t="s">
-        <v>185</v>
-      </c>
-      <c r="CQ3">
-        <v>75000</v>
-      </c>
-      <c r="CR3">
-        <v>20000</v>
-      </c>
-      <c r="CS3">
-        <v>7200</v>
-      </c>
-      <c r="CT3">
-        <v>11000</v>
-      </c>
-      <c r="CU3">
-        <v>100000</v>
-      </c>
-      <c r="CV3">
-        <v>0.9</v>
-      </c>
-      <c r="CW3">
-        <v>0.8</v>
-      </c>
-      <c r="CX3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY3" t="b">
-        <v>0</v>
-      </c>
       <c r="DJ3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="DK3">
         <v>0.05</v>
@@ -2353,22 +2290,40 @@
         <v>8.5</v>
       </c>
       <c r="DO3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DP3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS3" t="s">
-        <v>190</v>
+        <v>193</v>
+      </c>
+      <c r="DT3">
+        <v>5500</v>
+      </c>
+      <c r="DU3">
+        <v>5500</v>
+      </c>
+      <c r="DV3">
+        <v>0.95</v>
+      </c>
+      <c r="DW3">
+        <v>0.1</v>
+      </c>
+      <c r="DX3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY3" t="b">
+        <v>0</v>
       </c>
       <c r="DZ3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EA3">
         <v>0</v>
@@ -2377,25 +2332,25 @@
         <v>0</v>
       </c>
       <c r="EC3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="EG3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EH3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EI3">
         <v>96</v>
       </c>
       <c r="EJ3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EK3">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="EL3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EM3">
         <v>0</v>
@@ -2445,10 +2400,10 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>2012000</v>
+        <v>2532000</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q4" t="s">
         <v>162</v>
@@ -2499,7 +2454,7 @@
         <v>5500000</v>
       </c>
       <c r="AI4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AJ4">
         <v>55</v>
@@ -2529,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="AS4">
-        <v>2100000</v>
+        <v>1800000</v>
       </c>
       <c r="AT4" t="s">
         <v>173</v>
@@ -2562,10 +2517,10 @@
         <v>1</v>
       </c>
       <c r="BD4">
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="BE4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -2577,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="BI4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BJ4">
         <v>2</v>
@@ -2586,7 +2541,7 @@
         <v>9</v>
       </c>
       <c r="BL4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BM4">
         <v>1</v>
@@ -2598,16 +2553,16 @@
         <v>1</v>
       </c>
       <c r="BP4">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="BQ4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BR4" t="b">
         <v>1</v>
       </c>
       <c r="BS4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BT4">
         <v>2</v>
@@ -2616,7 +2571,7 @@
         <v>9</v>
       </c>
       <c r="BV4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BW4">
         <v>0</v>
@@ -2628,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="CC4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CD4">
         <v>2</v>
@@ -2637,7 +2592,7 @@
         <v>9</v>
       </c>
       <c r="CF4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CG4">
         <v>0</v>
@@ -2649,49 +2604,19 @@
         <v>1</v>
       </c>
       <c r="CL4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO4" t="b">
         <v>1</v>
       </c>
-      <c r="CP4" t="s">
-        <v>186</v>
-      </c>
-      <c r="CQ4">
-        <v>50000</v>
-      </c>
-      <c r="CR4">
-        <v>15000</v>
-      </c>
-      <c r="CS4">
-        <v>7200</v>
-      </c>
-      <c r="CT4">
-        <v>7200</v>
-      </c>
-      <c r="CU4">
-        <v>50000</v>
-      </c>
-      <c r="CV4">
-        <v>0.9</v>
-      </c>
-      <c r="CW4">
-        <v>0.8</v>
-      </c>
-      <c r="CX4" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY4" t="b">
-        <v>0</v>
-      </c>
       <c r="DJ4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="DK4">
         <v>0.05</v>
@@ -2706,10 +2631,10 @@
         <v>8.5</v>
       </c>
       <c r="DO4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DP4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DQ4">
         <v>1</v>
@@ -2718,13 +2643,13 @@
         <v>1</v>
       </c>
       <c r="DS4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="DT4">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="DU4">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="DV4">
         <v>0.95</v>
@@ -2739,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="DZ4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EA4">
         <v>0</v>
@@ -2748,28 +2673,28 @@
         <v>0</v>
       </c>
       <c r="EC4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="EG4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EH4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EI4">
         <v>96</v>
       </c>
       <c r="EJ4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EK4">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="EL4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EM4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="EN4">
         <v>0</v>
@@ -2819,7 +2744,7 @@
         <v>3863000</v>
       </c>
       <c r="P5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q5" t="s">
         <v>162</v>
@@ -2870,10 +2795,10 @@
         <v>19500000</v>
       </c>
       <c r="AI5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AJ5">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AK5" t="s">
         <v>162</v>
@@ -2900,10 +2825,10 @@
         <v>1</v>
       </c>
       <c r="AS5">
-        <v>2800000</v>
+        <v>2400000</v>
       </c>
       <c r="AT5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AU5">
         <v>55</v>
@@ -2924,16 +2849,31 @@
         <v>90</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" t="b">
         <v>1</v>
       </c>
+      <c r="BD5">
+        <v>4900</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>40</v>
+      </c>
+      <c r="BH5" t="b">
+        <v>1</v>
+      </c>
       <c r="BI5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BJ5">
         <v>2</v>
@@ -2942,7 +2882,7 @@
         <v>9</v>
       </c>
       <c r="BL5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BM5">
         <v>1</v>
@@ -2954,16 +2894,16 @@
         <v>1</v>
       </c>
       <c r="BP5">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="BQ5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BR5" t="b">
         <v>1</v>
       </c>
       <c r="BS5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BT5">
         <v>2</v>
@@ -2972,7 +2912,7 @@
         <v>9</v>
       </c>
       <c r="BV5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -2984,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="CC5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CD5">
         <v>2</v>
@@ -2993,7 +2933,7 @@
         <v>9</v>
       </c>
       <c r="CF5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CG5">
         <v>0</v>
@@ -3005,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="CL5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM5">
         <v>1</v>
@@ -3017,22 +2957,22 @@
         <v>1</v>
       </c>
       <c r="CP5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CQ5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="CR5">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="CS5">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="CT5">
-        <v>22000</v>
+        <v>7200</v>
       </c>
       <c r="CU5">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="CV5">
         <v>0.9</v>
@@ -3047,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="DJ5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="DK5">
         <v>0.05</v>
@@ -3062,22 +3002,40 @@
         <v>8.5</v>
       </c>
       <c r="DO5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DP5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS5" t="s">
-        <v>190</v>
+        <v>193</v>
+      </c>
+      <c r="DT5">
+        <v>3900</v>
+      </c>
+      <c r="DU5">
+        <v>3900</v>
+      </c>
+      <c r="DV5">
+        <v>0.95</v>
+      </c>
+      <c r="DW5">
+        <v>0.1</v>
+      </c>
+      <c r="DX5" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY5" t="b">
+        <v>0</v>
       </c>
       <c r="DZ5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EA5">
         <v>0</v>
@@ -3086,28 +3044,28 @@
         <v>0</v>
       </c>
       <c r="EC5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="EG5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EH5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EI5">
         <v>96</v>
       </c>
       <c r="EJ5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EK5">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="EL5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EM5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="EN5">
         <v>0</v>
@@ -3127,10 +3085,10 @@
         <v>149</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -3139,7 +3097,7 @@
         <v>2.6</v>
       </c>
       <c r="J6">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3154,10 +3112,10 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>3648000</v>
+        <v>2959000</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q6" t="s">
         <v>162</v>
@@ -3205,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="AH6">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="AI6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AJ6">
         <v>35</v>
@@ -3238,10 +3196,10 @@
         <v>1</v>
       </c>
       <c r="AS6">
-        <v>3200000</v>
+        <v>2100000</v>
       </c>
       <c r="AT6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AU6">
         <v>55</v>
@@ -3271,10 +3229,10 @@
         <v>1</v>
       </c>
       <c r="BD6">
-        <v>6000</v>
+        <v>3700</v>
       </c>
       <c r="BE6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BF6">
         <v>-20</v>
@@ -3286,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="BI6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BJ6">
         <v>2</v>
@@ -3295,7 +3253,7 @@
         <v>9</v>
       </c>
       <c r="BL6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BM6">
         <v>0</v>
@@ -3307,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="BS6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BT6">
         <v>2</v>
@@ -3316,7 +3274,7 @@
         <v>9</v>
       </c>
       <c r="BV6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -3328,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="CC6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CD6">
         <v>2</v>
@@ -3337,7 +3295,7 @@
         <v>9</v>
       </c>
       <c r="CF6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CG6">
         <v>0</v>
@@ -3349,19 +3307,49 @@
         <v>1</v>
       </c>
       <c r="CL6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO6" t="b">
         <v>1</v>
       </c>
+      <c r="CP6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CQ6">
+        <v>75000</v>
+      </c>
+      <c r="CR6">
+        <v>20000</v>
+      </c>
+      <c r="CS6">
+        <v>7200</v>
+      </c>
+      <c r="CT6">
+        <v>11000</v>
+      </c>
+      <c r="CU6">
+        <v>100000</v>
+      </c>
+      <c r="CV6">
+        <v>0.9</v>
+      </c>
+      <c r="CW6">
+        <v>0.8</v>
+      </c>
+      <c r="CX6" t="b">
+        <v>0</v>
+      </c>
+      <c r="CY6" t="b">
+        <v>0</v>
+      </c>
       <c r="DJ6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="DK6">
         <v>0.05</v>
@@ -3376,40 +3364,22 @@
         <v>8.5</v>
       </c>
       <c r="DO6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DP6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>190</v>
-      </c>
-      <c r="DT6">
-        <v>3600</v>
-      </c>
-      <c r="DU6">
-        <v>3600</v>
-      </c>
-      <c r="DV6">
-        <v>0.95</v>
-      </c>
-      <c r="DW6">
-        <v>0.1</v>
-      </c>
-      <c r="DX6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DY6" t="b">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="DZ6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EA6">
         <v>0</v>
@@ -3418,28 +3388,28 @@
         <v>0</v>
       </c>
       <c r="EC6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="EG6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EH6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EI6">
         <v>96</v>
       </c>
       <c r="EJ6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EK6">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="EL6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EM6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="EN6">
         <v>0</v>
@@ -3459,10 +3429,10 @@
         <v>150</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -3471,7 +3441,7 @@
         <v>2.6</v>
       </c>
       <c r="J7">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -3486,10 +3456,10 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>3296000</v>
+        <v>3125000</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q7" t="s">
         <v>162</v>
@@ -3537,10 +3507,10 @@
         <v>1</v>
       </c>
       <c r="AH7">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="AI7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AJ7">
         <v>55</v>
@@ -3570,10 +3540,10 @@
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>2400000</v>
+        <v>1800000</v>
       </c>
       <c r="AT7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AU7">
         <v>55</v>
@@ -3603,10 +3573,10 @@
         <v>1</v>
       </c>
       <c r="BD7">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="BE7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BF7">
         <v>-20</v>
@@ -3618,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="BI7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BJ7">
         <v>2</v>
@@ -3627,7 +3597,7 @@
         <v>9</v>
       </c>
       <c r="BL7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BM7">
         <v>0</v>
@@ -3639,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="BS7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BT7">
         <v>2</v>
@@ -3648,7 +3618,7 @@
         <v>9</v>
       </c>
       <c r="BV7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -3660,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="CC7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CD7">
         <v>2</v>
@@ -3669,7 +3639,7 @@
         <v>9</v>
       </c>
       <c r="CF7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CG7">
         <v>0</v>
@@ -3681,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="CL7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM7">
         <v>0</v>
@@ -3693,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="DJ7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="DK7">
         <v>0.05</v>
@@ -3708,10 +3678,10 @@
         <v>8.5</v>
       </c>
       <c r="DO7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DP7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DQ7">
         <v>1</v>
@@ -3720,13 +3690,13 @@
         <v>1</v>
       </c>
       <c r="DS7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="DT7">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="DU7">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="DV7">
         <v>0.95</v>
@@ -3741,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="DZ7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EA7">
         <v>0</v>
@@ -3750,28 +3720,28 @@
         <v>0</v>
       </c>
       <c r="EC7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="EG7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EH7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EI7">
         <v>96</v>
       </c>
       <c r="EJ7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EK7">
         <v>48</v>
       </c>
       <c r="EL7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EM7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="EN7">
         <v>0</v>
@@ -3791,10 +3761,10 @@
         <v>151</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -3803,7 +3773,7 @@
         <v>2.6</v>
       </c>
       <c r="J8">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -3818,10 +3788,10 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>5527000</v>
+        <v>3564000</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8" t="s">
         <v>162</v>
@@ -3869,10 +3839,10 @@
         <v>1</v>
       </c>
       <c r="AH8">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="AI8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AJ8">
         <v>55</v>
@@ -3902,7 +3872,7 @@
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>2100000</v>
+        <v>2800000</v>
       </c>
       <c r="AT8" t="s">
         <v>174</v>
@@ -3935,10 +3905,10 @@
         <v>1</v>
       </c>
       <c r="BD8">
-        <v>9800</v>
+        <v>5300</v>
       </c>
       <c r="BE8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BF8">
         <v>0</v>
@@ -3950,7 +3920,7 @@
         <v>1</v>
       </c>
       <c r="BI8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BJ8">
         <v>2</v>
@@ -3959,7 +3929,7 @@
         <v>9</v>
       </c>
       <c r="BL8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BM8">
         <v>0</v>
@@ -3971,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="BS8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BT8">
         <v>2</v>
@@ -3980,7 +3950,7 @@
         <v>9</v>
       </c>
       <c r="BV8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -3992,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="CC8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CD8">
         <v>2</v>
@@ -4001,7 +3971,7 @@
         <v>9</v>
       </c>
       <c r="CF8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CG8">
         <v>0</v>
@@ -4013,19 +3983,79 @@
         <v>1</v>
       </c>
       <c r="CL8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CO8" t="b">
         <v>1</v>
       </c>
+      <c r="CP8" t="s">
+        <v>187</v>
+      </c>
+      <c r="CQ8">
+        <v>100000</v>
+      </c>
+      <c r="CR8">
+        <v>25000</v>
+      </c>
+      <c r="CS8">
+        <v>11000</v>
+      </c>
+      <c r="CT8">
+        <v>22000</v>
+      </c>
+      <c r="CU8">
+        <v>200000</v>
+      </c>
+      <c r="CV8">
+        <v>0.9</v>
+      </c>
+      <c r="CW8">
+        <v>0.8</v>
+      </c>
+      <c r="CX8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>190</v>
+      </c>
+      <c r="DA8">
+        <v>75000</v>
+      </c>
+      <c r="DB8">
+        <v>20000</v>
+      </c>
+      <c r="DC8">
+        <v>7200</v>
+      </c>
+      <c r="DD8">
+        <v>11000</v>
+      </c>
+      <c r="DE8">
+        <v>100000</v>
+      </c>
+      <c r="DF8">
+        <v>0.9</v>
+      </c>
+      <c r="DG8">
+        <v>0.8</v>
+      </c>
+      <c r="DH8" t="b">
+        <v>0</v>
+      </c>
+      <c r="DI8" t="b">
+        <v>0</v>
+      </c>
       <c r="DJ8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="DK8">
         <v>0.05</v>
@@ -4040,10 +4070,10 @@
         <v>8.5</v>
       </c>
       <c r="DO8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DP8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DQ8">
         <v>1</v>
@@ -4052,13 +4082,13 @@
         <v>1</v>
       </c>
       <c r="DS8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="DT8">
-        <v>5500</v>
+        <v>3600</v>
       </c>
       <c r="DU8">
-        <v>5500</v>
+        <v>3600</v>
       </c>
       <c r="DV8">
         <v>0.95</v>
@@ -4073,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="DZ8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EA8">
         <v>0</v>
@@ -4082,28 +4112,28 @@
         <v>0</v>
       </c>
       <c r="EC8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="EG8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EH8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EI8">
         <v>96</v>
       </c>
       <c r="EJ8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EK8">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="EL8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EM8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="EN8">
         <v>0</v>
@@ -4150,10 +4180,10 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>5527000</v>
+        <v>3863000</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q9" t="s">
         <v>162</v>
@@ -4204,7 +4234,7 @@
         <v>19500000</v>
       </c>
       <c r="AI9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AJ9">
         <v>55</v>
@@ -4237,7 +4267,7 @@
         <v>3200000</v>
       </c>
       <c r="AT9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AU9">
         <v>55</v>
@@ -4267,10 +4297,10 @@
         <v>1</v>
       </c>
       <c r="BD9">
-        <v>8700</v>
+        <v>4700</v>
       </c>
       <c r="BE9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BF9">
         <v>0</v>
@@ -4282,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="BI9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BJ9">
         <v>2</v>
@@ -4291,19 +4321,28 @@
         <v>9</v>
       </c>
       <c r="BL9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BM9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO9" t="b">
         <v>1</v>
       </c>
+      <c r="BP9">
+        <v>2800</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR9" t="b">
+        <v>1</v>
+      </c>
       <c r="BS9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BT9">
         <v>2</v>
@@ -4312,7 +4351,7 @@
         <v>9</v>
       </c>
       <c r="BV9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BW9">
         <v>0</v>
@@ -4324,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="CC9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CD9">
         <v>2</v>
@@ -4333,7 +4372,7 @@
         <v>9</v>
       </c>
       <c r="CF9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CG9">
         <v>0</v>
@@ -4345,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="CL9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM9">
         <v>1</v>
@@ -4357,22 +4396,22 @@
         <v>1</v>
       </c>
       <c r="CP9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CQ9">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="CR9">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="CS9">
         <v>7200</v>
       </c>
       <c r="CT9">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="CU9">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="CV9">
         <v>0.9</v>
@@ -4387,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="DJ9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="DK9">
         <v>0.05</v>
@@ -4402,10 +4441,10 @@
         <v>8.5</v>
       </c>
       <c r="DO9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DP9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DQ9">
         <v>1</v>
@@ -4414,13 +4453,13 @@
         <v>1</v>
       </c>
       <c r="DS9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="DT9">
-        <v>5500</v>
+        <v>3900</v>
       </c>
       <c r="DU9">
-        <v>5500</v>
+        <v>3900</v>
       </c>
       <c r="DV9">
         <v>0.95</v>
@@ -4435,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="DZ9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EA9">
         <v>0</v>
@@ -4444,28 +4483,28 @@
         <v>0</v>
       </c>
       <c r="EC9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="EG9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EH9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EI9">
         <v>96</v>
       </c>
       <c r="EJ9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EK9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="EL9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EM9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="EN9">
         <v>0</v>
@@ -4569,7 +4608,7 @@
         <v>170</v>
       </c>
       <c r="AJ10">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="s">
         <v>162</v>
@@ -4599,7 +4638,7 @@
         <v>2800000</v>
       </c>
       <c r="AT10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AU10">
         <v>55</v>
@@ -4620,31 +4659,16 @@
         <v>90</v>
       </c>
       <c r="BA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10" t="b">
         <v>1</v>
       </c>
-      <c r="BD10">
-        <v>5400</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>175</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>40</v>
-      </c>
-      <c r="BH10" t="b">
-        <v>1</v>
-      </c>
       <c r="BI10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BJ10">
         <v>2</v>
@@ -4653,7 +4677,7 @@
         <v>9</v>
       </c>
       <c r="BL10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BM10">
         <v>0</v>
@@ -4665,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="BS10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BT10">
         <v>2</v>
@@ -4674,7 +4698,7 @@
         <v>9</v>
       </c>
       <c r="BV10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -4686,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="CC10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CD10">
         <v>2</v>
@@ -4695,7 +4719,7 @@
         <v>9</v>
       </c>
       <c r="CF10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CG10">
         <v>0</v>
@@ -4707,19 +4731,49 @@
         <v>1</v>
       </c>
       <c r="CL10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO10" t="b">
         <v>1</v>
       </c>
+      <c r="CP10" t="s">
+        <v>189</v>
+      </c>
+      <c r="CQ10">
+        <v>50000</v>
+      </c>
+      <c r="CR10">
+        <v>15000</v>
+      </c>
+      <c r="CS10">
+        <v>7200</v>
+      </c>
+      <c r="CT10">
+        <v>7200</v>
+      </c>
+      <c r="CU10">
+        <v>50000</v>
+      </c>
+      <c r="CV10">
+        <v>0.9</v>
+      </c>
+      <c r="CW10">
+        <v>0.8</v>
+      </c>
+      <c r="CX10" t="b">
+        <v>0</v>
+      </c>
+      <c r="CY10" t="b">
+        <v>0</v>
+      </c>
       <c r="DJ10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="DK10">
         <v>0.05</v>
@@ -4734,10 +4788,10 @@
         <v>8.5</v>
       </c>
       <c r="DO10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DP10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DQ10">
         <v>0</v>
@@ -4746,10 +4800,10 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="DZ10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EA10">
         <v>0</v>
@@ -4758,28 +4812,28 @@
         <v>0</v>
       </c>
       <c r="EC10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="EG10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EH10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EI10">
         <v>96</v>
       </c>
       <c r="EJ10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EK10">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="EL10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EM10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="EN10">
         <v>0</v>
@@ -4826,10 +4880,10 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>3648000</v>
+        <v>5527000</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q11" t="s">
         <v>162</v>
@@ -4880,10 +4934,10 @@
         <v>5500000</v>
       </c>
       <c r="AI11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AJ11">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="s">
         <v>162</v>
@@ -4910,10 +4964,10 @@
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>1800000</v>
+        <v>2400000</v>
       </c>
       <c r="AT11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AU11">
         <v>55</v>
@@ -4934,31 +4988,16 @@
         <v>90</v>
       </c>
       <c r="BA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="b">
         <v>1</v>
       </c>
-      <c r="BD11">
-        <v>4800</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>175</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11">
-        <v>40</v>
-      </c>
-      <c r="BH11" t="b">
-        <v>1</v>
-      </c>
       <c r="BI11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BJ11">
         <v>2</v>
@@ -4967,7 +5006,7 @@
         <v>9</v>
       </c>
       <c r="BL11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BM11">
         <v>1</v>
@@ -4979,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="BP11">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="BQ11" t="s">
         <v>181</v>
@@ -4988,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="BS11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BT11">
         <v>2</v>
@@ -4997,7 +5036,7 @@
         <v>9</v>
       </c>
       <c r="BV11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BW11">
         <v>0</v>
@@ -5009,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="CC11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CD11">
         <v>2</v>
@@ -5018,7 +5057,7 @@
         <v>9</v>
       </c>
       <c r="CF11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CG11">
         <v>0</v>
@@ -5030,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="CL11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM11">
         <v>0</v>
@@ -5042,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="DJ11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="DK11">
         <v>0.05</v>
@@ -5057,10 +5096,10 @@
         <v>8.5</v>
       </c>
       <c r="DO11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DP11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DQ11">
         <v>0</v>
@@ -5069,10 +5108,10 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="DZ11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EA11">
         <v>0</v>
@@ -5081,28 +5120,28 @@
         <v>0</v>
       </c>
       <c r="EC11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="EG11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EH11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EI11">
         <v>96</v>
       </c>
       <c r="EJ11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EK11">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="EL11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EM11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="EN11">
         <v>0</v>
@@ -5141,13 +5180,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -5578,10 +5617,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -5617,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <v>16882000</v>
+        <v>15173000</v>
       </c>
       <c r="T2" t="s">
         <v>162</v>
@@ -5716,10 +5755,10 @@
         <v>1</v>
       </c>
       <c r="BG2">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="BH2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -5731,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="BL2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM2">
         <v>2</v>
@@ -5740,7 +5779,7 @@
         <v>9</v>
       </c>
       <c r="BO2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BP2">
         <v>1</v>
@@ -5752,47 +5791,47 @@
         <v>1</v>
       </c>
       <c r="BS2">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="BT2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BW2">
+        <v>2</v>
+      </c>
+      <c r="BX2">
+        <v>9</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1800</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>234</v>
+      </c>
+      <c r="CE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="s">
         <v>178</v>
       </c>
-      <c r="BU2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>182</v>
-      </c>
-      <c r="BW2">
-        <v>2</v>
-      </c>
-      <c r="BX2">
-        <v>9</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ2">
-        <v>1</v>
-      </c>
-      <c r="CA2">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC2">
-        <v>1900</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>229</v>
-      </c>
-      <c r="CE2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>176</v>
-      </c>
       <c r="CG2">
         <v>2</v>
       </c>
@@ -5800,7 +5839,7 @@
         <v>9</v>
       </c>
       <c r="CI2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CJ2">
         <v>0</v>
@@ -5812,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="CO2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CP2">
         <v>0</v>
@@ -5824,10 +5863,10 @@
         <v>1</v>
       </c>
       <c r="DR2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DS2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DT2">
         <v>1</v>
@@ -5839,10 +5878,10 @@
         <v>1</v>
       </c>
       <c r="DW2">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="DX2">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="DY2">
         <v>0.95</v>
@@ -5857,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="EC2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="ED2">
         <v>1</v>
@@ -5878,25 +5917,25 @@
         <v>0.1</v>
       </c>
       <c r="EJ2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EK2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EL2">
         <v>96</v>
       </c>
       <c r="EM2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EN2">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="EO2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EP2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="EQ2">
         <v>0</v>
@@ -5913,10 +5952,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -5952,10 +5991,10 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <v>2455000</v>
+        <v>1158000</v>
       </c>
       <c r="S3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="T3" t="s">
         <v>162</v>
@@ -6003,7 +6042,7 @@
         <v>15000000</v>
       </c>
       <c r="AL3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AM3">
         <v>55</v>
@@ -6033,10 +6072,10 @@
         <v>1</v>
       </c>
       <c r="AV3">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="AW3" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="AX3">
         <v>55</v>
@@ -6066,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="BL3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM3">
         <v>2</v>
@@ -6075,7 +6114,7 @@
         <v>9</v>
       </c>
       <c r="BO3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -6087,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="BV3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW3">
         <v>2</v>
@@ -6096,7 +6135,7 @@
         <v>9</v>
       </c>
       <c r="BY3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BZ3">
         <v>0</v>
@@ -6108,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="CF3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CG3">
         <v>2</v>
@@ -6117,7 +6156,7 @@
         <v>9</v>
       </c>
       <c r="CI3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CJ3">
         <v>0</v>
@@ -6129,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="CO3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CP3">
         <v>0</v>
@@ -6141,7 +6180,7 @@
         <v>1</v>
       </c>
       <c r="DM3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="DN3">
         <v>0.05</v>
@@ -6156,10 +6195,10 @@
         <v>8</v>
       </c>
       <c r="DR3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DS3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DT3">
         <v>0</v>
@@ -6171,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="EC3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="ED3">
         <v>0</v>
@@ -6183,25 +6222,25 @@
         <v>1</v>
       </c>
       <c r="EJ3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EK3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EL3">
         <v>96</v>
       </c>
       <c r="EM3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EN3">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="EO3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EP3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="EQ3">
         <v>0</v>
@@ -6218,10 +6257,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -6257,10 +6296,10 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>2012000</v>
+        <v>1546000</v>
       </c>
       <c r="S4" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="T4" t="s">
         <v>162</v>
@@ -6308,10 +6347,10 @@
         <v>15000000</v>
       </c>
       <c r="AL4" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="AM4">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN4" t="s">
         <v>162</v>
@@ -6338,10 +6377,10 @@
         <v>1</v>
       </c>
       <c r="AV4">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="AX4">
         <v>55</v>
@@ -6371,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="BL4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM4">
         <v>2</v>
@@ -6380,7 +6419,7 @@
         <v>9</v>
       </c>
       <c r="BO4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -6392,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="BV4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW4">
         <v>2</v>
@@ -6401,7 +6440,7 @@
         <v>9</v>
       </c>
       <c r="BY4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BZ4">
         <v>0</v>
@@ -6413,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="CF4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CG4">
         <v>2</v>
@@ -6422,7 +6461,7 @@
         <v>9</v>
       </c>
       <c r="CI4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CJ4">
         <v>0</v>
@@ -6434,19 +6473,49 @@
         <v>1</v>
       </c>
       <c r="CO4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR4" t="b">
         <v>1</v>
       </c>
+      <c r="CS4" t="s">
+        <v>190</v>
+      </c>
+      <c r="CT4">
+        <v>50000</v>
+      </c>
+      <c r="CU4">
+        <v>15000</v>
+      </c>
+      <c r="CV4">
+        <v>7200</v>
+      </c>
+      <c r="CW4">
+        <v>7200</v>
+      </c>
+      <c r="CX4">
+        <v>50000</v>
+      </c>
+      <c r="CY4">
+        <v>0.9</v>
+      </c>
+      <c r="CZ4">
+        <v>0.8</v>
+      </c>
+      <c r="DA4" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB4" t="b">
+        <v>0</v>
+      </c>
       <c r="DM4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="DN4">
         <v>0.05</v>
@@ -6461,10 +6530,10 @@
         <v>8</v>
       </c>
       <c r="DR4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DS4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DT4">
         <v>0</v>
@@ -6476,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="EC4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="ED4">
         <v>0</v>
@@ -6488,25 +6557,25 @@
         <v>1</v>
       </c>
       <c r="EJ4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EK4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EL4">
         <v>96</v>
       </c>
       <c r="EM4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EN4">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="EO4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EP4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
         <v>0</v>
@@ -6523,10 +6592,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -6565,7 +6634,7 @@
         <v>3296000</v>
       </c>
       <c r="S5" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="T5" t="s">
         <v>162</v>
@@ -6613,10 +6682,10 @@
         <v>15000000</v>
       </c>
       <c r="AL5" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AM5">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="s">
         <v>162</v>
@@ -6646,7 +6715,7 @@
         <v>2800</v>
       </c>
       <c r="AW5" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="AX5">
         <v>55</v>
@@ -6676,7 +6745,7 @@
         <v>1</v>
       </c>
       <c r="BL5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM5">
         <v>2</v>
@@ -6685,7 +6754,7 @@
         <v>9</v>
       </c>
       <c r="BO5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -6697,7 +6766,7 @@
         <v>1</v>
       </c>
       <c r="BV5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW5">
         <v>2</v>
@@ -6706,7 +6775,7 @@
         <v>9</v>
       </c>
       <c r="BY5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BZ5">
         <v>0</v>
@@ -6718,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="CF5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CG5">
         <v>2</v>
@@ -6727,7 +6796,7 @@
         <v>9</v>
       </c>
       <c r="CI5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CJ5">
         <v>0</v>
@@ -6739,49 +6808,19 @@
         <v>1</v>
       </c>
       <c r="CO5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CP5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR5" t="b">
         <v>1</v>
       </c>
-      <c r="CS5" t="s">
-        <v>185</v>
-      </c>
-      <c r="CT5">
-        <v>50000</v>
-      </c>
-      <c r="CU5">
-        <v>15000</v>
-      </c>
-      <c r="CV5">
-        <v>7200</v>
-      </c>
-      <c r="CW5">
-        <v>7200</v>
-      </c>
-      <c r="CX5">
-        <v>50000</v>
-      </c>
-      <c r="CY5">
-        <v>0.9</v>
-      </c>
-      <c r="CZ5">
-        <v>0.8</v>
-      </c>
-      <c r="DA5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB5" t="b">
-        <v>0</v>
-      </c>
       <c r="DM5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="DN5">
         <v>0.05</v>
@@ -6796,10 +6835,10 @@
         <v>8</v>
       </c>
       <c r="DR5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DS5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DT5">
         <v>0</v>
@@ -6811,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="EC5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="ED5">
         <v>0</v>
@@ -6823,25 +6862,25 @@
         <v>1</v>
       </c>
       <c r="EJ5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EK5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EL5">
         <v>96</v>
       </c>
       <c r="EM5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EN5">
         <v>24</v>
       </c>
       <c r="EO5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EP5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
         <v>0</v>
@@ -6858,10 +6897,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -6897,10 +6936,10 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>2455000</v>
+        <v>1720000</v>
       </c>
       <c r="S6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="T6" t="s">
         <v>162</v>
@@ -6948,7 +6987,7 @@
         <v>15000000</v>
       </c>
       <c r="AL6" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AM6">
         <v>55</v>
@@ -6978,10 +7017,10 @@
         <v>1</v>
       </c>
       <c r="AV6">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="AW6" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AX6">
         <v>55</v>
@@ -7011,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="BL6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM6">
         <v>2</v>
@@ -7020,7 +7059,7 @@
         <v>9</v>
       </c>
       <c r="BO6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BP6">
         <v>0</v>
@@ -7032,7 +7071,7 @@
         <v>1</v>
       </c>
       <c r="BV6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW6">
         <v>2</v>
@@ -7041,7 +7080,7 @@
         <v>9</v>
       </c>
       <c r="BY6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BZ6">
         <v>0</v>
@@ -7053,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="CF6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CG6">
         <v>2</v>
@@ -7062,7 +7101,7 @@
         <v>9</v>
       </c>
       <c r="CI6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CJ6">
         <v>0</v>
@@ -7074,7 +7113,7 @@
         <v>1</v>
       </c>
       <c r="CO6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CP6">
         <v>0</v>
@@ -7086,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="DM6" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="DN6">
         <v>0.05</v>
@@ -7101,10 +7140,10 @@
         <v>8</v>
       </c>
       <c r="DR6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DS6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DT6">
         <v>0</v>
@@ -7116,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="EC6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="ED6">
         <v>0</v>
@@ -7128,25 +7167,25 @@
         <v>1</v>
       </c>
       <c r="EJ6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EK6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EL6">
         <v>96</v>
       </c>
       <c r="EM6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EN6">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="EO6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EP6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="EQ6">
         <v>0</v>
@@ -7163,10 +7202,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -7202,10 +7241,10 @@
         <v>1</v>
       </c>
       <c r="R7">
-        <v>1416000</v>
+        <v>1266000</v>
       </c>
       <c r="S7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="T7" t="s">
         <v>162</v>
@@ -7253,7 +7292,7 @@
         <v>15000000</v>
       </c>
       <c r="AL7" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="AM7">
         <v>55</v>
@@ -7286,7 +7325,7 @@
         <v>3200</v>
       </c>
       <c r="AW7" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="AX7">
         <v>55</v>
@@ -7316,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="BL7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM7">
         <v>2</v>
@@ -7325,7 +7364,7 @@
         <v>9</v>
       </c>
       <c r="BO7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -7337,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="BV7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW7">
         <v>2</v>
@@ -7346,7 +7385,7 @@
         <v>9</v>
       </c>
       <c r="BY7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BZ7">
         <v>0</v>
@@ -7358,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="CF7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CG7">
         <v>2</v>
@@ -7367,7 +7406,7 @@
         <v>9</v>
       </c>
       <c r="CI7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CJ7">
         <v>0</v>
@@ -7379,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="CO7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CP7">
         <v>0</v>
@@ -7391,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="DM7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="DN7">
         <v>0.05</v>
@@ -7406,10 +7445,10 @@
         <v>8</v>
       </c>
       <c r="DR7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DS7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DT7">
         <v>0</v>
@@ -7421,7 +7460,7 @@
         <v>1</v>
       </c>
       <c r="EC7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="ED7">
         <v>0</v>
@@ -7433,22 +7472,22 @@
         <v>1</v>
       </c>
       <c r="EJ7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EK7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EL7">
         <v>96</v>
       </c>
       <c r="EM7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EN7">
         <v>48</v>
       </c>
       <c r="EO7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EP7">
         <v>0</v>
@@ -7468,10 +7507,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -7507,10 +7546,10 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>2262000</v>
+        <v>2012000</v>
       </c>
       <c r="S8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="T8" t="s">
         <v>162</v>
@@ -7558,7 +7597,7 @@
         <v>15000000</v>
       </c>
       <c r="AL8" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="AM8">
         <v>55</v>
@@ -7591,7 +7630,7 @@
         <v>2400</v>
       </c>
       <c r="AW8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AX8">
         <v>55</v>
@@ -7621,7 +7660,7 @@
         <v>1</v>
       </c>
       <c r="BL8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM8">
         <v>2</v>
@@ -7630,7 +7669,7 @@
         <v>9</v>
       </c>
       <c r="BO8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BP8">
         <v>0</v>
@@ -7642,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="BV8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW8">
         <v>2</v>
@@ -7651,7 +7690,7 @@
         <v>9</v>
       </c>
       <c r="BY8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BZ8">
         <v>0</v>
@@ -7663,7 +7702,7 @@
         <v>1</v>
       </c>
       <c r="CF8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CG8">
         <v>2</v>
@@ -7672,7 +7711,7 @@
         <v>9</v>
       </c>
       <c r="CI8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CJ8">
         <v>0</v>
@@ -7684,49 +7723,19 @@
         <v>1</v>
       </c>
       <c r="CO8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CP8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR8" t="b">
         <v>1</v>
       </c>
-      <c r="CS8" t="s">
-        <v>230</v>
-      </c>
-      <c r="CT8">
-        <v>75000</v>
-      </c>
-      <c r="CU8">
-        <v>20000</v>
-      </c>
-      <c r="CV8">
-        <v>7200</v>
-      </c>
-      <c r="CW8">
-        <v>11000</v>
-      </c>
-      <c r="CX8">
-        <v>100000</v>
-      </c>
-      <c r="CY8">
-        <v>0.9</v>
-      </c>
-      <c r="CZ8">
-        <v>0.8</v>
-      </c>
-      <c r="DA8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB8" t="b">
-        <v>0</v>
-      </c>
       <c r="DM8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="DN8">
         <v>0.05</v>
@@ -7741,10 +7750,10 @@
         <v>8</v>
       </c>
       <c r="DR8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DS8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DT8">
         <v>0</v>
@@ -7756,7 +7765,7 @@
         <v>1</v>
       </c>
       <c r="EC8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="ED8">
         <v>0</v>
@@ -7768,25 +7777,25 @@
         <v>1</v>
       </c>
       <c r="EJ8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EK8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EL8">
         <v>96</v>
       </c>
       <c r="EM8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EN8">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="EO8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EP8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="EQ8">
         <v>0</v>
@@ -7803,10 +7812,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F9" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -7842,10 +7851,10 @@
         <v>1</v>
       </c>
       <c r="R9">
-        <v>1720000</v>
+        <v>2455000</v>
       </c>
       <c r="S9" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="T9" t="s">
         <v>162</v>
@@ -7893,7 +7902,7 @@
         <v>15000000</v>
       </c>
       <c r="AL9" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AM9">
         <v>35</v>
@@ -7923,10 +7932,10 @@
         <v>1</v>
       </c>
       <c r="AV9">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="AW9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX9">
         <v>55</v>
@@ -7956,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="BL9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM9">
         <v>2</v>
@@ -7965,7 +7974,7 @@
         <v>9</v>
       </c>
       <c r="BO9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -7977,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="BV9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW9">
         <v>2</v>
@@ -7986,7 +7995,7 @@
         <v>9</v>
       </c>
       <c r="BY9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BZ9">
         <v>0</v>
@@ -7998,7 +8007,7 @@
         <v>1</v>
       </c>
       <c r="CF9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CG9">
         <v>2</v>
@@ -8007,7 +8016,7 @@
         <v>9</v>
       </c>
       <c r="CI9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CJ9">
         <v>0</v>
@@ -8019,19 +8028,49 @@
         <v>1</v>
       </c>
       <c r="CO9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CP9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR9" t="b">
         <v>1</v>
       </c>
+      <c r="CS9" t="s">
+        <v>186</v>
+      </c>
+      <c r="CT9">
+        <v>75000</v>
+      </c>
+      <c r="CU9">
+        <v>20000</v>
+      </c>
+      <c r="CV9">
+        <v>7200</v>
+      </c>
+      <c r="CW9">
+        <v>11000</v>
+      </c>
+      <c r="CX9">
+        <v>100000</v>
+      </c>
+      <c r="CY9">
+        <v>0.9</v>
+      </c>
+      <c r="CZ9">
+        <v>0.8</v>
+      </c>
+      <c r="DA9" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB9" t="b">
+        <v>0</v>
+      </c>
       <c r="DM9" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="DN9">
         <v>0.05</v>
@@ -8046,10 +8085,10 @@
         <v>8</v>
       </c>
       <c r="DR9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DS9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DT9">
         <v>0</v>
@@ -8061,7 +8100,7 @@
         <v>1</v>
       </c>
       <c r="EC9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="ED9">
         <v>0</v>
@@ -8073,25 +8112,25 @@
         <v>1</v>
       </c>
       <c r="EJ9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EK9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EL9">
         <v>96</v>
       </c>
       <c r="EM9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EN9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="EO9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EP9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="EQ9">
         <v>0</v>
@@ -8108,10 +8147,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F10" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -8147,10 +8186,10 @@
         <v>1</v>
       </c>
       <c r="R10">
-        <v>1266000</v>
+        <v>1720000</v>
       </c>
       <c r="S10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="T10" t="s">
         <v>162</v>
@@ -8198,10 +8237,10 @@
         <v>15000000</v>
       </c>
       <c r="AL10" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="AM10">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AN10" t="s">
         <v>162</v>
@@ -8231,7 +8270,7 @@
         <v>2800</v>
       </c>
       <c r="AW10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AX10">
         <v>55</v>
@@ -8261,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="BL10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM10">
         <v>2</v>
@@ -8270,7 +8309,7 @@
         <v>9</v>
       </c>
       <c r="BO10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BP10">
         <v>0</v>
@@ -8282,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="BV10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW10">
         <v>2</v>
@@ -8291,7 +8330,7 @@
         <v>9</v>
       </c>
       <c r="BY10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BZ10">
         <v>0</v>
@@ -8303,7 +8342,7 @@
         <v>1</v>
       </c>
       <c r="CF10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CG10">
         <v>2</v>
@@ -8312,7 +8351,7 @@
         <v>9</v>
       </c>
       <c r="CI10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CJ10">
         <v>0</v>
@@ -8324,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="CO10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CP10">
         <v>0</v>
@@ -8336,7 +8375,7 @@
         <v>1</v>
       </c>
       <c r="DM10" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="DN10">
         <v>0.05</v>
@@ -8351,10 +8390,10 @@
         <v>8</v>
       </c>
       <c r="DR10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DS10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DT10">
         <v>0</v>
@@ -8366,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="EC10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="ED10">
         <v>0</v>
@@ -8378,25 +8417,25 @@
         <v>1</v>
       </c>
       <c r="EJ10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EK10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EL10">
         <v>96</v>
       </c>
       <c r="EM10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EN10">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="EO10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EP10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="EQ10">
         <v>0</v>
@@ -8413,10 +8452,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -8452,7 +8491,7 @@
         <v>1</v>
       </c>
       <c r="R11">
-        <v>11278000</v>
+        <v>12880000</v>
       </c>
       <c r="T11" t="s">
         <v>162</v>
@@ -8551,10 +8590,10 @@
         <v>1</v>
       </c>
       <c r="BG11">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="BH11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="BI11">
         <v>0</v>
@@ -8566,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="BL11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM11">
         <v>2</v>
@@ -8575,7 +8614,7 @@
         <v>9</v>
       </c>
       <c r="BO11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BP11">
         <v>0</v>
@@ -8587,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="BV11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW11">
         <v>2</v>
@@ -8596,7 +8635,7 @@
         <v>9</v>
       </c>
       <c r="BY11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BZ11">
         <v>1</v>
@@ -8608,16 +8647,16 @@
         <v>1</v>
       </c>
       <c r="CC11">
-        <v>940</v>
+        <v>2800</v>
       </c>
       <c r="CD11" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="CE11" t="b">
         <v>0</v>
       </c>
       <c r="CF11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CG11">
         <v>2</v>
@@ -8626,7 +8665,7 @@
         <v>9</v>
       </c>
       <c r="CI11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CJ11">
         <v>0</v>
@@ -8638,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="CO11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CP11">
         <v>0</v>
@@ -8650,10 +8689,10 @@
         <v>1</v>
       </c>
       <c r="DR11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DS11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DT11">
         <v>1</v>
@@ -8665,10 +8704,10 @@
         <v>1</v>
       </c>
       <c r="DW11">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="DX11">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="DY11">
         <v>0.95</v>
@@ -8683,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="EC11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="ED11">
         <v>1</v>
@@ -8704,25 +8743,25 @@
         <v>0.1</v>
       </c>
       <c r="EJ11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EK11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EL11">
         <v>96</v>
       </c>
       <c r="EM11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EN11">
         <v>48</v>
       </c>
       <c r="EO11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EP11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="EQ11">
         <v>0</v>
@@ -8739,10 +8778,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -8778,10 +8817,10 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <v>3296000</v>
+        <v>2262000</v>
       </c>
       <c r="S12" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="T12" t="s">
         <v>162</v>
@@ -8862,7 +8901,7 @@
         <v>2100</v>
       </c>
       <c r="AW12" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="AX12">
         <v>55</v>
@@ -8892,7 +8931,7 @@
         <v>1</v>
       </c>
       <c r="BL12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM12">
         <v>2</v>
@@ -8901,7 +8940,7 @@
         <v>9</v>
       </c>
       <c r="BO12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BP12">
         <v>0</v>
@@ -8913,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="BV12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW12">
         <v>2</v>
@@ -8922,7 +8961,7 @@
         <v>9</v>
       </c>
       <c r="BY12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BZ12">
         <v>0</v>
@@ -8934,7 +8973,7 @@
         <v>1</v>
       </c>
       <c r="CF12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CG12">
         <v>2</v>
@@ -8943,7 +8982,7 @@
         <v>9</v>
       </c>
       <c r="CI12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CJ12">
         <v>0</v>
@@ -8955,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="CO12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CP12">
         <v>0</v>
@@ -8982,10 +9021,10 @@
         <v>8</v>
       </c>
       <c r="DR12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DS12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DT12">
         <v>0</v>
@@ -8997,7 +9036,7 @@
         <v>1</v>
       </c>
       <c r="EC12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="ED12">
         <v>0</v>
@@ -9009,25 +9048,25 @@
         <v>1</v>
       </c>
       <c r="EJ12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EK12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EL12">
         <v>96</v>
       </c>
       <c r="EM12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EN12">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="EO12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EP12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="EQ12">
         <v>0</v>
@@ -9044,10 +9083,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F13" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -9083,10 +9122,10 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <v>1546000</v>
+        <v>2012000</v>
       </c>
       <c r="S13" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="T13" t="s">
         <v>162</v>
@@ -9134,10 +9173,10 @@
         <v>3850000</v>
       </c>
       <c r="AL13" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="AM13">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN13" t="s">
         <v>162</v>
@@ -9167,7 +9206,7 @@
         <v>2400</v>
       </c>
       <c r="AW13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AX13">
         <v>55</v>
@@ -9197,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="BL13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM13">
         <v>2</v>
@@ -9206,7 +9245,7 @@
         <v>9</v>
       </c>
       <c r="BO13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BP13">
         <v>0</v>
@@ -9218,7 +9257,7 @@
         <v>1</v>
       </c>
       <c r="BV13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW13">
         <v>2</v>
@@ -9227,7 +9266,7 @@
         <v>9</v>
       </c>
       <c r="BY13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BZ13">
         <v>0</v>
@@ -9239,7 +9278,7 @@
         <v>1</v>
       </c>
       <c r="CF13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CG13">
         <v>2</v>
@@ -9248,7 +9287,7 @@
         <v>9</v>
       </c>
       <c r="CI13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CJ13">
         <v>0</v>
@@ -9260,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="CO13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CP13">
         <v>0</v>
@@ -9272,7 +9311,7 @@
         <v>1</v>
       </c>
       <c r="DM13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="DN13">
         <v>0.05</v>
@@ -9287,10 +9326,10 @@
         <v>8</v>
       </c>
       <c r="DR13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DS13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DT13">
         <v>0</v>
@@ -9302,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="EC13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="ED13">
         <v>0</v>
@@ -9314,22 +9353,22 @@
         <v>1</v>
       </c>
       <c r="EJ13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EK13" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EL13">
         <v>96</v>
       </c>
       <c r="EM13" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EN13">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="EO13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EP13">
         <v>20</v>
@@ -9349,10 +9388,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F14" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -9388,10 +9427,10 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>1546000</v>
+        <v>1009000</v>
       </c>
       <c r="S14" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="T14" t="s">
         <v>162</v>
@@ -9439,10 +9478,10 @@
         <v>3850000</v>
       </c>
       <c r="AL14" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AM14">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN14" t="s">
         <v>162</v>
@@ -9469,10 +9508,10 @@
         <v>1</v>
       </c>
       <c r="AV14">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="AW14" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="AX14">
         <v>55</v>
@@ -9502,7 +9541,7 @@
         <v>1</v>
       </c>
       <c r="BL14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM14">
         <v>2</v>
@@ -9511,7 +9550,7 @@
         <v>9</v>
       </c>
       <c r="BO14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BP14">
         <v>0</v>
@@ -9523,7 +9562,7 @@
         <v>1</v>
       </c>
       <c r="BV14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW14">
         <v>2</v>
@@ -9532,7 +9571,7 @@
         <v>9</v>
       </c>
       <c r="BY14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BZ14">
         <v>0</v>
@@ -9544,7 +9583,7 @@
         <v>1</v>
       </c>
       <c r="CF14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CG14">
         <v>2</v>
@@ -9553,7 +9592,7 @@
         <v>9</v>
       </c>
       <c r="CI14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CJ14">
         <v>0</v>
@@ -9565,79 +9604,19 @@
         <v>1</v>
       </c>
       <c r="CO14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CP14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CR14" t="b">
         <v>1</v>
       </c>
-      <c r="CS14" t="s">
-        <v>231</v>
-      </c>
-      <c r="CT14">
-        <v>100000</v>
-      </c>
-      <c r="CU14">
-        <v>25000</v>
-      </c>
-      <c r="CV14">
-        <v>11000</v>
-      </c>
-      <c r="CW14">
-        <v>22000</v>
-      </c>
-      <c r="CX14">
-        <v>200000</v>
-      </c>
-      <c r="CY14">
-        <v>0.9</v>
-      </c>
-      <c r="CZ14">
-        <v>0.8</v>
-      </c>
-      <c r="DA14" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB14" t="b">
-        <v>0</v>
-      </c>
-      <c r="DC14" t="s">
-        <v>186</v>
-      </c>
-      <c r="DD14">
-        <v>100000</v>
-      </c>
-      <c r="DE14">
-        <v>25000</v>
-      </c>
-      <c r="DF14">
-        <v>11000</v>
-      </c>
-      <c r="DG14">
-        <v>22000</v>
-      </c>
-      <c r="DH14">
-        <v>200000</v>
-      </c>
-      <c r="DI14">
-        <v>0.9</v>
-      </c>
-      <c r="DJ14">
-        <v>0.8</v>
-      </c>
-      <c r="DK14" t="b">
-        <v>0</v>
-      </c>
-      <c r="DL14" t="b">
-        <v>0</v>
-      </c>
       <c r="DM14" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="DN14">
         <v>0.05</v>
@@ -9652,10 +9631,10 @@
         <v>8</v>
       </c>
       <c r="DR14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DS14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DT14">
         <v>0</v>
@@ -9667,7 +9646,7 @@
         <v>1</v>
       </c>
       <c r="EC14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="ED14">
         <v>0</v>
@@ -9679,25 +9658,25 @@
         <v>1</v>
       </c>
       <c r="EJ14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EK14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EL14">
         <v>96</v>
       </c>
       <c r="EM14" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EN14">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="EO14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EP14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="EQ14">
         <v>0</v>
@@ -9714,10 +9693,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -9753,10 +9732,10 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>1720000</v>
+        <v>2455000</v>
       </c>
       <c r="S15" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="T15" t="s">
         <v>162</v>
@@ -9804,10 +9783,10 @@
         <v>3850000</v>
       </c>
       <c r="AL15" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AM15">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AN15" t="s">
         <v>162</v>
@@ -9837,7 +9816,7 @@
         <v>2100</v>
       </c>
       <c r="AW15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AX15">
         <v>55</v>
@@ -9867,7 +9846,7 @@
         <v>1</v>
       </c>
       <c r="BL15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM15">
         <v>2</v>
@@ -9876,7 +9855,7 @@
         <v>9</v>
       </c>
       <c r="BO15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BP15">
         <v>0</v>
@@ -9888,7 +9867,7 @@
         <v>1</v>
       </c>
       <c r="BV15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW15">
         <v>2</v>
@@ -9897,7 +9876,7 @@
         <v>9</v>
       </c>
       <c r="BY15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BZ15">
         <v>0</v>
@@ -9909,7 +9888,7 @@
         <v>1</v>
       </c>
       <c r="CF15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CG15">
         <v>2</v>
@@ -9918,7 +9897,7 @@
         <v>9</v>
       </c>
       <c r="CI15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CJ15">
         <v>0</v>
@@ -9930,19 +9909,49 @@
         <v>1</v>
       </c>
       <c r="CO15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CP15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR15" t="b">
         <v>1</v>
       </c>
+      <c r="CS15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CT15">
+        <v>50000</v>
+      </c>
+      <c r="CU15">
+        <v>15000</v>
+      </c>
+      <c r="CV15">
+        <v>7200</v>
+      </c>
+      <c r="CW15">
+        <v>7200</v>
+      </c>
+      <c r="CX15">
+        <v>50000</v>
+      </c>
+      <c r="CY15">
+        <v>0.9</v>
+      </c>
+      <c r="CZ15">
+        <v>0.8</v>
+      </c>
+      <c r="DA15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB15" t="b">
+        <v>0</v>
+      </c>
       <c r="DM15" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="DN15">
         <v>0.05</v>
@@ -9957,10 +9966,10 @@
         <v>8</v>
       </c>
       <c r="DR15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DS15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DT15">
         <v>0</v>
@@ -9972,7 +9981,7 @@
         <v>1</v>
       </c>
       <c r="EC15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="ED15">
         <v>0</v>
@@ -9984,22 +9993,22 @@
         <v>1</v>
       </c>
       <c r="EJ15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EK15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EL15">
         <v>96</v>
       </c>
       <c r="EM15" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EN15">
         <v>12</v>
       </c>
       <c r="EO15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EP15">
         <v>0</v>
@@ -10019,10 +10028,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -10058,10 +10067,10 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <v>2012000</v>
+        <v>2455000</v>
       </c>
       <c r="S16" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="T16" t="s">
         <v>162</v>
@@ -10109,10 +10118,10 @@
         <v>3850000</v>
       </c>
       <c r="AL16" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AM16">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AN16" t="s">
         <v>162</v>
@@ -10142,7 +10151,7 @@
         <v>1800</v>
       </c>
       <c r="AW16" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="AX16">
         <v>55</v>
@@ -10172,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="BL16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM16">
         <v>2</v>
@@ -10181,7 +10190,7 @@
         <v>9</v>
       </c>
       <c r="BO16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BP16">
         <v>0</v>
@@ -10193,7 +10202,7 @@
         <v>1</v>
       </c>
       <c r="BV16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW16">
         <v>2</v>
@@ -10202,7 +10211,7 @@
         <v>9</v>
       </c>
       <c r="BY16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BZ16">
         <v>0</v>
@@ -10214,7 +10223,7 @@
         <v>1</v>
       </c>
       <c r="CF16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CG16">
         <v>2</v>
@@ -10223,7 +10232,7 @@
         <v>9</v>
       </c>
       <c r="CI16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CJ16">
         <v>0</v>
@@ -10235,19 +10244,49 @@
         <v>1</v>
       </c>
       <c r="CO16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CP16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR16" t="b">
         <v>1</v>
       </c>
+      <c r="CS16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CT16">
+        <v>75000</v>
+      </c>
+      <c r="CU16">
+        <v>20000</v>
+      </c>
+      <c r="CV16">
+        <v>7200</v>
+      </c>
+      <c r="CW16">
+        <v>11000</v>
+      </c>
+      <c r="CX16">
+        <v>100000</v>
+      </c>
+      <c r="CY16">
+        <v>0.9</v>
+      </c>
+      <c r="CZ16">
+        <v>0.8</v>
+      </c>
+      <c r="DA16" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB16" t="b">
+        <v>0</v>
+      </c>
       <c r="DM16" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="DN16">
         <v>0.05</v>
@@ -10262,10 +10301,10 @@
         <v>8</v>
       </c>
       <c r="DR16" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DS16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DT16">
         <v>0</v>
@@ -10277,7 +10316,7 @@
         <v>1</v>
       </c>
       <c r="EC16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="ED16">
         <v>0</v>
@@ -10289,25 +10328,25 @@
         <v>1</v>
       </c>
       <c r="EJ16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EK16" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EL16">
         <v>96</v>
       </c>
       <c r="EM16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EN16">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="EO16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EP16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="EQ16">
         <v>0</v>
@@ -10324,10 +10363,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F17" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -10363,10 +10402,10 @@
         <v>1</v>
       </c>
       <c r="R17">
-        <v>1158000</v>
+        <v>2687000</v>
       </c>
       <c r="S17" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="T17" t="s">
         <v>162</v>
@@ -10414,7 +10453,7 @@
         <v>3850000</v>
       </c>
       <c r="AL17" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="AM17">
         <v>55</v>
@@ -10444,10 +10483,10 @@
         <v>1</v>
       </c>
       <c r="AV17">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="AW17" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="AX17">
         <v>55</v>
@@ -10477,7 +10516,7 @@
         <v>1</v>
       </c>
       <c r="BL17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM17">
         <v>2</v>
@@ -10486,7 +10525,7 @@
         <v>9</v>
       </c>
       <c r="BO17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BP17">
         <v>0</v>
@@ -10498,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="BV17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW17">
         <v>2</v>
@@ -10507,7 +10546,7 @@
         <v>9</v>
       </c>
       <c r="BY17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BZ17">
         <v>0</v>
@@ -10519,7 +10558,7 @@
         <v>1</v>
       </c>
       <c r="CF17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CG17">
         <v>2</v>
@@ -10528,7 +10567,7 @@
         <v>9</v>
       </c>
       <c r="CI17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CJ17">
         <v>0</v>
@@ -10540,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="CO17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CP17">
         <v>0</v>
@@ -10552,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="DM17" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="DN17">
         <v>0.05</v>
@@ -10567,10 +10606,10 @@
         <v>8</v>
       </c>
       <c r="DR17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DS17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DT17">
         <v>0</v>
@@ -10582,7 +10621,7 @@
         <v>1</v>
       </c>
       <c r="EC17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="ED17">
         <v>0</v>
@@ -10594,25 +10633,25 @@
         <v>1</v>
       </c>
       <c r="EJ17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EK17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="EL17">
         <v>96</v>
       </c>
       <c r="EM17" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="EN17">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="EO17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="EP17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="EQ17">
         <v>0</v>
@@ -10651,13 +10690,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -10938,13 +10977,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G2">
-        <v>481</v>
+        <v>194</v>
       </c>
       <c r="H2">
         <v>96</v>
@@ -10962,10 +11001,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14200000</v>
+        <v>7270000</v>
       </c>
       <c r="N2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O2" t="s">
         <v>162</v>
@@ -10989,7 +11028,7 @@
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Y2" t="s">
         <v>162</v>
@@ -11004,16 +11043,31 @@
         <v>163</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="b">
         <v>1</v>
       </c>
+      <c r="AF2">
+        <v>3450000</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH2">
+        <v>-20</v>
+      </c>
+      <c r="AI2">
+        <v>50</v>
+      </c>
+      <c r="AJ2" t="b">
+        <v>1</v>
+      </c>
       <c r="AK2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL2">
         <v>2</v>
@@ -11022,7 +11076,7 @@
         <v>9</v>
       </c>
       <c r="AN2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -11034,7 +11088,7 @@
         <v>1</v>
       </c>
       <c r="AU2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AV2">
         <v>2</v>
@@ -11043,7 +11097,7 @@
         <v>9</v>
       </c>
       <c r="AX2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AY2">
         <v>0</v>
@@ -11055,7 +11109,7 @@
         <v>1</v>
       </c>
       <c r="BE2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BF2">
         <v>2</v>
@@ -11064,7 +11118,7 @@
         <v>9</v>
       </c>
       <c r="BH2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -11076,37 +11130,55 @@
         <v>1</v>
       </c>
       <c r="CA2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="CB2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE2" t="s">
-        <v>190</v>
+        <v>193</v>
+      </c>
+      <c r="CF2">
+        <v>7300</v>
+      </c>
+      <c r="CG2">
+        <v>15000</v>
+      </c>
+      <c r="CH2">
+        <v>0.95</v>
+      </c>
+      <c r="CI2">
+        <v>0.1</v>
+      </c>
+      <c r="CJ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CK2" t="b">
+        <v>0</v>
       </c>
       <c r="CL2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="CN2">
         <v>96</v>
       </c>
       <c r="CO2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="CP2">
         <v>60</v>
       </c>
       <c r="CQ2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="CR2">
         <v>0</v>
@@ -11126,13 +11198,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G3">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="H3">
         <v>96</v>
@@ -11150,10 +11222,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7140000</v>
+        <v>8040000</v>
       </c>
       <c r="N3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O3" t="s">
         <v>162</v>
@@ -11177,7 +11249,7 @@
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Y3" t="s">
         <v>162</v>
@@ -11192,31 +11264,16 @@
         <v>163</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>1</v>
       </c>
-      <c r="AF3">
-        <v>2900000</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH3">
-        <v>-20</v>
-      </c>
-      <c r="AI3">
-        <v>50</v>
-      </c>
-      <c r="AJ3" t="b">
-        <v>1</v>
-      </c>
       <c r="AK3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL3">
         <v>2</v>
@@ -11225,7 +11282,7 @@
         <v>9</v>
       </c>
       <c r="AN3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -11237,7 +11294,7 @@
         <v>1</v>
       </c>
       <c r="AU3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AV3">
         <v>2</v>
@@ -11246,7 +11303,7 @@
         <v>9</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AY3">
         <v>0</v>
@@ -11258,7 +11315,7 @@
         <v>1</v>
       </c>
       <c r="BE3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BF3">
         <v>2</v>
@@ -11267,70 +11324,97 @@
         <v>9</v>
       </c>
       <c r="BH3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3" t="b">
         <v>1</v>
       </c>
+      <c r="BL3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM3">
+        <v>75000</v>
+      </c>
+      <c r="BN3">
+        <v>25000</v>
+      </c>
+      <c r="BO3">
+        <v>11000</v>
+      </c>
+      <c r="BP3">
+        <v>22000</v>
+      </c>
+      <c r="BQ3">
+        <v>200000</v>
+      </c>
+      <c r="BR3">
+        <v>0.9</v>
+      </c>
+      <c r="BS3">
+        <v>0.8</v>
+      </c>
+      <c r="BT3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BW3">
+        <v>0.05</v>
+      </c>
+      <c r="BX3">
+        <v>0.5</v>
+      </c>
+      <c r="BY3">
+        <v>0.8</v>
+      </c>
+      <c r="BZ3">
+        <v>8</v>
+      </c>
       <c r="CA3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="CB3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE3" t="s">
-        <v>190</v>
-      </c>
-      <c r="CF3">
-        <v>7100</v>
-      </c>
-      <c r="CG3">
-        <v>14000</v>
-      </c>
-      <c r="CH3">
-        <v>0.95</v>
-      </c>
-      <c r="CI3">
-        <v>0.1</v>
-      </c>
-      <c r="CJ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="b">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="CL3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="CN3">
         <v>96</v>
       </c>
       <c r="CO3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="CP3">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="CQ3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="CR3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="CS3">
         <v>0</v>
@@ -11347,13 +11431,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G4">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H4">
         <v>96</v>
@@ -11371,10 +11455,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14810000</v>
+        <v>16300000</v>
       </c>
       <c r="N4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="O4" t="s">
         <v>162</v>
@@ -11398,7 +11482,7 @@
         <v>1</v>
       </c>
       <c r="W4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Y4" t="s">
         <v>162</v>
@@ -11422,10 +11506,10 @@
         <v>1</v>
       </c>
       <c r="AF4">
-        <v>7510000</v>
+        <v>6660000</v>
       </c>
       <c r="AG4" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -11437,7 +11521,7 @@
         <v>1</v>
       </c>
       <c r="AK4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL4">
         <v>2</v>
@@ -11446,7 +11530,7 @@
         <v>9</v>
       </c>
       <c r="AN4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -11458,7 +11542,7 @@
         <v>1</v>
       </c>
       <c r="AU4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AV4">
         <v>2</v>
@@ -11467,7 +11551,7 @@
         <v>9</v>
       </c>
       <c r="AX4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AY4">
         <v>0</v>
@@ -11479,7 +11563,7 @@
         <v>1</v>
       </c>
       <c r="BE4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BF4">
         <v>2</v>
@@ -11488,67 +11572,22 @@
         <v>9</v>
       </c>
       <c r="BH4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK4" t="b">
         <v>1</v>
       </c>
-      <c r="BL4" t="s">
-        <v>250</v>
-      </c>
-      <c r="BM4">
-        <v>50000</v>
-      </c>
-      <c r="BN4">
-        <v>20000</v>
-      </c>
-      <c r="BO4">
-        <v>7200</v>
-      </c>
-      <c r="BP4">
-        <v>11000</v>
-      </c>
-      <c r="BQ4">
-        <v>100000</v>
-      </c>
-      <c r="BR4">
-        <v>0.9</v>
-      </c>
-      <c r="BS4">
-        <v>0.8</v>
-      </c>
-      <c r="BT4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>252</v>
-      </c>
-      <c r="BW4">
-        <v>0.05</v>
-      </c>
-      <c r="BX4">
-        <v>0.5</v>
-      </c>
-      <c r="BY4">
-        <v>0.8</v>
-      </c>
-      <c r="BZ4">
-        <v>8</v>
-      </c>
       <c r="CA4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="CB4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CC4">
         <v>1</v>
@@ -11557,13 +11596,13 @@
         <v>1</v>
       </c>
       <c r="CE4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="CF4">
-        <v>14800</v>
+        <v>16300</v>
       </c>
       <c r="CG4">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="CH4">
         <v>0.95</v>
@@ -11578,22 +11617,22 @@
         <v>0</v>
       </c>
       <c r="CL4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="CN4">
         <v>96</v>
       </c>
       <c r="CO4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="CP4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="CQ4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="CR4">
         <v>0</v>
@@ -11613,13 +11652,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G5">
-        <v>178</v>
+        <v>507</v>
       </c>
       <c r="H5">
         <v>96</v>
@@ -11637,10 +11676,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6420000</v>
+        <v>14620000</v>
       </c>
       <c r="N5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O5" t="s">
         <v>162</v>
@@ -11664,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="W5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Y5" t="s">
         <v>162</v>
@@ -11679,31 +11718,16 @@
         <v>163</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>1</v>
       </c>
-      <c r="AF5">
-        <v>2970000</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH5">
-        <v>-20</v>
-      </c>
-      <c r="AI5">
-        <v>50</v>
-      </c>
-      <c r="AJ5" t="b">
-        <v>1</v>
-      </c>
       <c r="AK5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL5">
         <v>2</v>
@@ -11712,7 +11736,7 @@
         <v>9</v>
       </c>
       <c r="AN5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -11724,7 +11748,7 @@
         <v>1</v>
       </c>
       <c r="AU5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AV5">
         <v>2</v>
@@ -11733,7 +11757,7 @@
         <v>9</v>
       </c>
       <c r="AX5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AY5">
         <v>0</v>
@@ -11745,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="BE5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BF5">
         <v>2</v>
@@ -11754,115 +11778,52 @@
         <v>9</v>
       </c>
       <c r="BH5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="b">
         <v>1</v>
       </c>
-      <c r="BL5" t="s">
-        <v>251</v>
-      </c>
-      <c r="BM5">
-        <v>75000</v>
-      </c>
-      <c r="BN5">
-        <v>25000</v>
-      </c>
-      <c r="BO5">
-        <v>11000</v>
-      </c>
-      <c r="BP5">
-        <v>22000</v>
-      </c>
-      <c r="BQ5">
-        <v>200000</v>
-      </c>
-      <c r="BR5">
-        <v>0.9</v>
-      </c>
-      <c r="BS5">
-        <v>0.8</v>
-      </c>
-      <c r="BT5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>188</v>
-      </c>
-      <c r="BW5">
-        <v>0.05</v>
-      </c>
-      <c r="BX5">
-        <v>0.5</v>
-      </c>
-      <c r="BY5">
-        <v>0.8</v>
-      </c>
-      <c r="BZ5">
-        <v>8</v>
-      </c>
       <c r="CA5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="CB5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="s">
-        <v>190</v>
-      </c>
-      <c r="CF5">
-        <v>6400</v>
-      </c>
-      <c r="CG5">
-        <v>13000</v>
-      </c>
-      <c r="CH5">
-        <v>0.95</v>
-      </c>
-      <c r="CI5">
-        <v>0.1</v>
-      </c>
-      <c r="CJ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CK5" t="b">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="CL5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="CN5">
         <v>96</v>
       </c>
       <c r="CO5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="CP5">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="CQ5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="CR5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="CS5">
         <v>0</v>
@@ -11901,13 +11862,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -12224,7 +12185,7 @@
         <v>255</v>
       </c>
       <c r="G2">
-        <v>1602</v>
+        <v>1728</v>
       </c>
       <c r="H2">
         <v>96</v>
@@ -12242,7 +12203,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>537500000</v>
+        <v>668800000</v>
       </c>
       <c r="N2" t="s">
         <v>257</v>
@@ -12284,31 +12245,16 @@
         <v>163</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>1</v>
       </c>
-      <c r="AF2">
-        <v>714500000</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH2">
-        <v>-20</v>
-      </c>
-      <c r="AI2">
-        <v>50</v>
-      </c>
-      <c r="AJ2" t="b">
-        <v>1</v>
-      </c>
       <c r="AK2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL2">
         <v>2</v>
@@ -12317,7 +12263,7 @@
         <v>9</v>
       </c>
       <c r="AN2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -12329,7 +12275,7 @@
         <v>1</v>
       </c>
       <c r="AU2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AV2">
         <v>2</v>
@@ -12338,7 +12284,7 @@
         <v>9</v>
       </c>
       <c r="AX2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AY2">
         <v>0</v>
@@ -12350,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="BE2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BF2">
         <v>2</v>
@@ -12359,7 +12305,7 @@
         <v>9</v>
       </c>
       <c r="BH2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -12371,10 +12317,10 @@
         <v>1</v>
       </c>
       <c r="CK2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="CL2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM2">
         <v>0</v>
@@ -12383,25 +12329,25 @@
         <v>0</v>
       </c>
       <c r="CO2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="CV2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CW2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="CX2">
         <v>96</v>
       </c>
       <c r="CY2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="CZ2">
         <v>36</v>
       </c>
       <c r="DA2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="DB2">
         <v>30</v>
@@ -12427,7 +12373,7 @@
         <v>256</v>
       </c>
       <c r="G3">
-        <v>5490</v>
+        <v>4962</v>
       </c>
       <c r="H3">
         <v>96</v>
@@ -12445,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1359300000</v>
+        <v>1130100000</v>
       </c>
       <c r="N3" t="s">
         <v>258</v>
@@ -12487,16 +12433,31 @@
         <v>163</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="b">
         <v>1</v>
       </c>
+      <c r="AF3">
+        <v>1418000000</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>40</v>
+      </c>
+      <c r="AJ3" t="b">
+        <v>1</v>
+      </c>
       <c r="AK3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL3">
         <v>2</v>
@@ -12505,7 +12466,7 @@
         <v>9</v>
       </c>
       <c r="AN3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -12517,7 +12478,7 @@
         <v>1</v>
       </c>
       <c r="AU3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AV3">
         <v>2</v>
@@ -12526,7 +12487,7 @@
         <v>9</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AY3">
         <v>0</v>
@@ -12538,7 +12499,7 @@
         <v>1</v>
       </c>
       <c r="BE3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BF3">
         <v>2</v>
@@ -12547,22 +12508,67 @@
         <v>9</v>
       </c>
       <c r="BH3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3" t="b">
         <v>1</v>
       </c>
+      <c r="BL3" t="s">
+        <v>259</v>
+      </c>
+      <c r="BM3">
+        <v>500000</v>
+      </c>
+      <c r="BN3">
+        <v>20000</v>
+      </c>
+      <c r="BO3">
+        <v>7200</v>
+      </c>
+      <c r="BP3">
+        <v>11000</v>
+      </c>
+      <c r="BQ3">
+        <v>100000</v>
+      </c>
+      <c r="BR3">
+        <v>0.9</v>
+      </c>
+      <c r="BS3">
+        <v>0.8</v>
+      </c>
+      <c r="BT3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>260</v>
+      </c>
+      <c r="CG3">
+        <v>0.05</v>
+      </c>
+      <c r="CH3">
+        <v>0.5</v>
+      </c>
+      <c r="CI3">
+        <v>0.8</v>
+      </c>
+      <c r="CJ3">
+        <v>8</v>
+      </c>
       <c r="CK3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="CL3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM3">
         <v>0</v>
@@ -12571,28 +12577,28 @@
         <v>0</v>
       </c>
       <c r="CO3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="CV3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CW3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="CX3">
         <v>96</v>
       </c>
       <c r="CY3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="CZ3">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="DA3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="DB3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DC3">
         <v>0</v>
@@ -12631,7 +12637,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -12789,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F2">
         <v>96</v>
@@ -12807,10 +12813,10 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>63500000</v>
+        <v>70900000</v>
       </c>
       <c r="L2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M2">
         <v>20</v>
@@ -12822,7 +12828,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -12831,7 +12837,7 @@
         <v>9</v>
       </c>
       <c r="S2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AN2">
         <v>1</v>
@@ -12843,10 +12849,10 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>31750000</v>
+        <v>35450000</v>
       </c>
       <c r="AR2">
-        <v>63500000</v>
+        <v>70900000</v>
       </c>
       <c r="AS2">
         <v>0.95</v>
@@ -12861,19 +12867,19 @@
         <v>1</v>
       </c>
       <c r="AW2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AX2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AY2">
         <v>96</v>
       </c>
       <c r="AZ2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BA2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="BB2">
         <v>0</v>
@@ -12890,7 +12896,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F3">
         <v>96</v>
@@ -12908,22 +12914,22 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>13300000</v>
+        <v>39800000</v>
       </c>
       <c r="L3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="N3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -12932,7 +12938,7 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -12944,10 +12950,10 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>6650000</v>
+        <v>19900000</v>
       </c>
       <c r="AR3">
-        <v>13300000</v>
+        <v>39800000</v>
       </c>
       <c r="AS3">
         <v>0.95</v>
@@ -12962,16 +12968,16 @@
         <v>1</v>
       </c>
       <c r="AW3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AX3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AY3">
         <v>96</v>
       </c>
       <c r="AZ3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BA3">
         <v>48</v>
@@ -12991,7 +12997,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F4">
         <v>96</v>
@@ -13009,10 +13015,10 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>16800000</v>
+        <v>15400000</v>
       </c>
       <c r="L4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -13024,7 +13030,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -13033,7 +13039,7 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AN4">
         <v>1</v>
@@ -13045,10 +13051,10 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>8400000</v>
+        <v>7700000</v>
       </c>
       <c r="AR4">
-        <v>16800000</v>
+        <v>15400000</v>
       </c>
       <c r="AS4">
         <v>0.95</v>
@@ -13063,19 +13069,19 @@
         <v>1</v>
       </c>
       <c r="AW4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AX4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AY4">
         <v>96</v>
       </c>
       <c r="AZ4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BA4">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="BB4">
         <v>0</v>
@@ -13092,7 +13098,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F5">
         <v>96</v>
@@ -13110,22 +13116,22 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>33300000</v>
+        <v>14300000</v>
       </c>
       <c r="L5" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="M5">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -13134,7 +13140,7 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AN5">
         <v>1</v>
@@ -13146,10 +13152,10 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>16650000</v>
+        <v>7150000</v>
       </c>
       <c r="AR5">
-        <v>33300000</v>
+        <v>14300000</v>
       </c>
       <c r="AS5">
         <v>0.95</v>
@@ -13164,19 +13170,19 @@
         <v>1</v>
       </c>
       <c r="AW5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AX5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AY5">
         <v>96</v>
       </c>
       <c r="AZ5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BA5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -13193,7 +13199,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F6">
         <v>96</v>
@@ -13211,16 +13217,16 @@
         <v>1</v>
       </c>
       <c r="AG6">
-        <v>20000</v>
+        <v>38500</v>
       </c>
       <c r="AH6" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AI6" t="b">
         <v>1</v>
       </c>
       <c r="AJ6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AK6">
         <v>2</v>
@@ -13229,7 +13235,7 @@
         <v>9</v>
       </c>
       <c r="AM6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -13241,19 +13247,19 @@
         <v>1</v>
       </c>
       <c r="AW6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AX6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AY6">
         <v>96</v>
       </c>
       <c r="AZ6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BA6">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -13270,7 +13276,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F7">
         <v>96</v>
@@ -13288,16 +13294,16 @@
         <v>1</v>
       </c>
       <c r="AG7">
-        <v>38200</v>
+        <v>20000</v>
       </c>
       <c r="AH7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AI7" t="b">
         <v>1</v>
       </c>
       <c r="AJ7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AK7">
         <v>2</v>
@@ -13306,28 +13312,46 @@
         <v>9</v>
       </c>
       <c r="AM7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" t="b">
         <v>1</v>
       </c>
+      <c r="AQ7">
+        <v>6000</v>
+      </c>
+      <c r="AR7">
+        <v>20000</v>
+      </c>
+      <c r="AS7">
+        <v>0.95</v>
+      </c>
+      <c r="AT7">
+        <v>0.1</v>
+      </c>
+      <c r="AU7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="b">
+        <v>1</v>
+      </c>
       <c r="AW7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AX7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AY7">
         <v>96</v>
       </c>
       <c r="AZ7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BA7">
         <v>60</v>
@@ -13369,7 +13393,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -13405,64 +13429,64 @@
         <v>128</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>136</v>
@@ -13491,7 +13515,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F2">
         <v>96</v>
@@ -13509,10 +13533,10 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2169000</v>
+        <v>1050000</v>
       </c>
       <c r="L2">
-        <v>8820000</v>
+        <v>5840000</v>
       </c>
       <c r="M2">
         <v>0.95</v>
@@ -13527,19 +13551,19 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AM2">
         <v>96</v>
       </c>
       <c r="AN2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AO2">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -13556,7 +13580,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F3">
         <v>96</v>
@@ -13574,10 +13598,10 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>933000</v>
+        <v>1080000</v>
       </c>
       <c r="L3">
-        <v>5370000</v>
+        <v>5770000</v>
       </c>
       <c r="M3">
         <v>0.95</v>
@@ -13592,19 +13616,19 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AM3">
         <v>96</v>
       </c>
       <c r="AN3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AO3">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -13621,7 +13645,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F4">
         <v>96</v>
@@ -13639,10 +13663,10 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1036000</v>
+        <v>1900000</v>
       </c>
       <c r="L4">
-        <v>5630000</v>
+        <v>6030000</v>
       </c>
       <c r="M4">
         <v>0.95</v>
@@ -13657,19 +13681,19 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AM4">
         <v>96</v>
       </c>
       <c r="AN4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AO4">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -13686,7 +13710,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F5">
         <v>96</v>
@@ -13704,10 +13728,10 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <v>1050000000</v>
+        <v>844000000</v>
       </c>
       <c r="V5">
-        <v>5850000000</v>
+        <v>4680000000</v>
       </c>
       <c r="W5">
         <v>0.95</v>
@@ -13722,16 +13746,16 @@
         <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AM5">
         <v>96</v>
       </c>
       <c r="AN5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AO5">
         <v>36</v>
@@ -13751,7 +13775,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F6">
         <v>96</v>
@@ -13769,10 +13793,10 @@
         <v>1</v>
       </c>
       <c r="U6">
-        <v>1180000000</v>
+        <v>1135000000</v>
       </c>
       <c r="V6">
-        <v>4380000000</v>
+        <v>4340000000</v>
       </c>
       <c r="W6">
         <v>0.95</v>
@@ -13787,19 +13811,19 @@
         <v>1</v>
       </c>
       <c r="AA6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AM6">
         <v>96</v>
       </c>
       <c r="AN6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AO6">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -13816,7 +13840,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F7">
         <v>96</v>
@@ -13834,10 +13858,10 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>2110000000</v>
+        <v>2280000000</v>
       </c>
       <c r="V7">
-        <v>7830000000</v>
+        <v>9980000000</v>
       </c>
       <c r="W7">
         <v>0.95</v>
@@ -13852,19 +13876,19 @@
         <v>1</v>
       </c>
       <c r="AA7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AM7">
         <v>96</v>
       </c>
       <c r="AN7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AO7">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -13881,7 +13905,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F8">
         <v>96</v>
@@ -13899,10 +13923,10 @@
         <v>1</v>
       </c>
       <c r="AE8">
-        <v>249000000</v>
+        <v>107900000</v>
       </c>
       <c r="AF8">
-        <v>721000000</v>
+        <v>429000000</v>
       </c>
       <c r="AG8">
         <v>0.95</v>
@@ -13917,19 +13941,19 @@
         <v>1</v>
       </c>
       <c r="AK8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AM8">
         <v>96</v>
       </c>
       <c r="AN8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AO8">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AP8">
         <v>0</v>
@@ -13946,7 +13970,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F9">
         <v>96</v>
@@ -13964,10 +13988,10 @@
         <v>1</v>
       </c>
       <c r="AE9">
-        <v>118000000</v>
+        <v>99800000</v>
       </c>
       <c r="AF9">
-        <v>542000000</v>
+        <v>458000000</v>
       </c>
       <c r="AG9">
         <v>0.95</v>
@@ -13982,19 +14006,19 @@
         <v>1</v>
       </c>
       <c r="AK9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AM9">
         <v>96</v>
       </c>
       <c r="AN9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AO9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -14011,7 +14035,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F10">
         <v>96</v>
@@ -14029,10 +14053,10 @@
         <v>1</v>
       </c>
       <c r="AE10">
-        <v>101000000</v>
+        <v>216300000</v>
       </c>
       <c r="AF10">
-        <v>496000000</v>
+        <v>890000000</v>
       </c>
       <c r="AG10">
         <v>0.95</v>
@@ -14047,19 +14071,19 @@
         <v>1</v>
       </c>
       <c r="AK10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AM10">
         <v>96</v>
       </c>
       <c r="AN10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AO10">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AP10">
         <v>0</v>

--- a/02 - config/example_small/agents.xlsx
+++ b/02 - config/example_small/agents.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="296">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -417,6 +417,9 @@
     <t>heat_storage/has_submeter</t>
   </si>
   <si>
+    <t>heat_storage/sizing/power_0</t>
+  </si>
+  <si>
     <t>heat_storage/sizing/capacity_0</t>
   </si>
   <si>
@@ -456,373 +459,367 @@
     <t>meter/prob_missing</t>
   </si>
   <si>
-    <t>WKaDlzVqwb0qILK</t>
-  </si>
-  <si>
-    <t>mcnuVftQ2oeXVK6</t>
-  </si>
-  <si>
-    <t>sBE7lqgjreHlQGx</t>
-  </si>
-  <si>
-    <t>Ykkp2llyiKROWVf</t>
-  </si>
-  <si>
-    <t>maIjQWr9vjk0Uni</t>
-  </si>
-  <si>
-    <t>kizSgfHv1LkxSkV</t>
-  </si>
-  <si>
-    <t>TLeFhLumgkw1SdF</t>
-  </si>
-  <si>
-    <t>QToR2KzakBC9DB3</t>
-  </si>
-  <si>
-    <t>3MIheuHptB4Wuoo</t>
-  </si>
-  <si>
-    <t>wrHtoob8tnX3WC2</t>
-  </si>
-  <si>
-    <t>hh_3648_0.csv</t>
+    <t>V5KFY2321qM3VZG</t>
+  </si>
+  <si>
+    <t>GrFzIeAgXZFAHHx</t>
+  </si>
+  <si>
+    <t>wtMLbqxg2EnaMSp</t>
+  </si>
+  <si>
+    <t>M6RPWURRQ23Ha6d</t>
+  </si>
+  <si>
+    <t>uso8702Jqd9QNZz</t>
+  </si>
+  <si>
+    <t>ax2EN2iegGVBmLq</t>
+  </si>
+  <si>
+    <t>0GWSi4uvigfpQWL</t>
+  </si>
+  <si>
+    <t>94bZMCRbbj78CHT</t>
+  </si>
+  <si>
+    <t>eEA3TbFVsVJdLxh</t>
+  </si>
+  <si>
+    <t>8qY95cPfYKVYUKF</t>
+  </si>
+  <si>
+    <t>hh_3296_0.csv</t>
   </si>
   <si>
     <t>hh_5527_0.csv</t>
   </si>
   <si>
+    <t>hh_2687_0.csv</t>
+  </si>
+  <si>
+    <t>hh_4536_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3125_0.csv</t>
+  </si>
+  <si>
+    <t>hh_2262_0.csv</t>
+  </si>
+  <si>
+    <t>naive_average</t>
+  </si>
+  <si>
+    <t>[2, 0, 2, 2, 0, 0, 96, 2, 0, 0, 672]</t>
+  </si>
+  <si>
+    <t>heat_gen_5_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_5527_0.csv</t>
+  </si>
+  <si>
+    <t>heat_2687_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_4_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_3125_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_1_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_3296_0.csv</t>
+  </si>
+  <si>
+    <t>heat_2262_0.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_6_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_2_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_5_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_3_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_4_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_0_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_1_pu.csv</t>
+  </si>
+  <si>
+    <t>pv_config.json</t>
+  </si>
+  <si>
+    <t>smoothed</t>
+  </si>
+  <si>
+    <t>green_local</t>
+  </si>
+  <si>
+    <t>wind_Enercon_E-53-800_800000_53.json</t>
+  </si>
+  <si>
+    <t>wind_Senvion-REpower_3.2M122_3200000_122.json</t>
+  </si>
+  <si>
+    <t>wind_Enercon_E-101-3500-E2_3500000_101.json</t>
+  </si>
+  <si>
+    <t>wind_Nordex_MM92_3300000_131.json</t>
+  </si>
+  <si>
+    <t>wind_Siemens_SWT-3.6-130_3600000_130.json</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>ev_fulltime_43.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_41.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_90.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_2.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_1.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_46.csv</t>
+  </si>
+  <si>
+    <t>price_sensitive</t>
+  </si>
+  <si>
+    <t>ev_close</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>naive</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>general/sub_id</t>
+  </si>
+  <si>
+    <t>general/parameters/apartments_independent</t>
+  </si>
+  <si>
+    <t>general/parameters/apartments</t>
+  </si>
+  <si>
+    <t>DW7k2owqrV3NCQC</t>
+  </si>
+  <si>
+    <t>1Q1wCaZm6YRbzOY</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>slz9YgZktGoUbmQ</t>
+  </si>
+  <si>
+    <t>MEnfm9Keeh38L8X</t>
+  </si>
+  <si>
+    <t>GntlF1sWiCumwcY</t>
+  </si>
+  <si>
+    <t>2mMddLCIcebKcJp</t>
+  </si>
+  <si>
+    <t>T5vbszYX8mT0mtH</t>
+  </si>
+  <si>
+    <t>Cg0jUR3qwRmt9lX</t>
+  </si>
+  <si>
+    <t>2xoLDML8xk428Ql</t>
+  </si>
+  <si>
+    <t>UUCC3Ym6kLK11jA</t>
+  </si>
+  <si>
+    <t>U3Plf49wjni0xI2</t>
+  </si>
+  <si>
+    <t>hXV0y8Jk6QUcDV3</t>
+  </si>
+  <si>
+    <t>TBUu3u8cndaO5MJ</t>
+  </si>
+  <si>
+    <t>Kj1mxqv2VWSkMAF</t>
+  </si>
+  <si>
+    <t>zGm1oIGs3IJsQXh</t>
+  </si>
+  <si>
+    <t>SwPoQ6mtv3eeO2v</t>
+  </si>
+  <si>
+    <t>hh_1158_4.csv</t>
+  </si>
+  <si>
+    <t>hh_2455_0.csv</t>
+  </si>
+  <si>
+    <t>hh_1546_2.csv</t>
+  </si>
+  <si>
     <t>hh_2532_0.csv</t>
   </si>
   <si>
-    <t>hh_3863_0.csv</t>
+    <t>hh_1416_1.csv</t>
   </si>
   <si>
     <t>hh_2959_0.csv</t>
   </si>
   <si>
-    <t>hh_3125_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3564_0.csv</t>
-  </si>
-  <si>
-    <t>naive_average</t>
-  </si>
-  <si>
-    <t>[2, 0, 2, 2, 0, 0, 96, 2, 0, 0, 672]</t>
-  </si>
-  <si>
-    <t>heat_3648_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_4_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_2532_0.csv</t>
-  </si>
-  <si>
-    <t>heat_3863_0.csv</t>
-  </si>
-  <si>
-    <t>heat_2959_0.csv</t>
+    <t>hh_1266_0.csv</t>
+  </si>
+  <si>
+    <t>hh_1720_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_3_pu.csv</t>
   </si>
   <si>
     <t>heat_gen_0_pu.csv</t>
   </si>
   <si>
-    <t>heat_3564_0.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_0_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_2_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_3_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_6_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_4_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_5_pu.csv</t>
-  </si>
-  <si>
-    <t>pv_config.json</t>
-  </si>
-  <si>
-    <t>smoothed</t>
-  </si>
-  <si>
-    <t>green_local</t>
-  </si>
-  <si>
-    <t>wind_Enercon_E-53-800_800000_53.json</t>
-  </si>
-  <si>
-    <t>wind_Nordex_MM92_3300000_131.json</t>
-  </si>
-  <si>
-    <t>wind_Siemens_SWT-3.6-130_3600000_130.json</t>
-  </si>
-  <si>
-    <t>weather</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>ev_fulltime_41.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_48.csv</t>
+    <t>heat_gen_2_pu.csv</t>
+  </si>
+  <si>
+    <t>pv_1_pu.csv</t>
+  </si>
+  <si>
+    <t>pv_2_pu.csv</t>
+  </si>
+  <si>
+    <t>fixed_gen_1_pu.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_88.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_3.csv</t>
   </si>
   <si>
     <t>ev_fulltime_49.csv</t>
   </si>
   <si>
-    <t>ev_fulltime_45.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_47.csv</t>
-  </si>
-  <si>
-    <t>ev_parttime_90.csv</t>
-  </si>
-  <si>
-    <t>price_sensitive</t>
-  </si>
-  <si>
-    <t>ev_close</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>naive</t>
-  </si>
-  <si>
-    <t>linear</t>
-  </si>
-  <si>
-    <t>general/sub_id</t>
-  </si>
-  <si>
-    <t>general/parameters/apartments_independent</t>
-  </si>
-  <si>
-    <t>general/parameters/apartments</t>
-  </si>
-  <si>
-    <t>okrkLU7dEv9zBJu</t>
-  </si>
-  <si>
-    <t>5u20qBHjWa2Ic0d</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>MORBhkg1gGsYALg</t>
-  </si>
-  <si>
-    <t>Bl3ZuCYrEkpnyDK</t>
-  </si>
-  <si>
-    <t>ae2InbMZR1Q3ylz</t>
-  </si>
-  <si>
-    <t>AMSglV9XMfUDQdc</t>
-  </si>
-  <si>
-    <t>bgMVEHxHOCD2ZHP</t>
-  </si>
-  <si>
-    <t>ZySixt5otl0xAbX</t>
-  </si>
-  <si>
-    <t>w3eCmzQpkDLZgPU</t>
-  </si>
-  <si>
-    <t>G1YXjrOhuOF8r1k</t>
-  </si>
-  <si>
-    <t>PcDKRpWO6qmoz0Z</t>
-  </si>
-  <si>
-    <t>0qnUQ37A1spIXrY</t>
-  </si>
-  <si>
-    <t>lUalunDMN7lpPO6</t>
-  </si>
-  <si>
-    <t>k3O9vOHMtRq1jRm</t>
-  </si>
-  <si>
-    <t>BurM61AIDtzgbMX</t>
-  </si>
-  <si>
-    <t>HRcyEZSSEcK9HhM</t>
-  </si>
-  <si>
-    <t>hh_1158_4.csv</t>
-  </si>
-  <si>
-    <t>hh_1546_2.csv</t>
-  </si>
-  <si>
-    <t>hh_3296_0.csv</t>
-  </si>
-  <si>
-    <t>hh_1720_0.csv</t>
-  </si>
-  <si>
-    <t>hh_1266_0.csv</t>
-  </si>
-  <si>
-    <t>hh_2012_3.csv</t>
-  </si>
-  <si>
-    <t>hh_2455_0.csv</t>
-  </si>
-  <si>
-    <t>hh_2262_0.csv</t>
-  </si>
-  <si>
-    <t>hh_1009_1.csv</t>
-  </si>
-  <si>
-    <t>hh_2687_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_5_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_3_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_1_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_2_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_1_pu.csv</t>
-  </si>
-  <si>
-    <t>pv_1_pu.csv</t>
-  </si>
-  <si>
-    <t>pv_2_pu.csv</t>
-  </si>
-  <si>
-    <t>wind_Vestas_V117-3.3-MW_3300000_117.json</t>
-  </si>
-  <si>
-    <t>fixed_gen_1_pu.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_1.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_2.csv</t>
+    <t>c</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
   <si>
     <t>i</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>general/parameters/type</t>
   </si>
   <si>
     <t>general/fcast_retraining_frequency</t>
   </si>
   <si>
-    <t>ECGOnSW8WADYhYT</t>
-  </si>
-  <si>
-    <t>JLZ2nNizqi9Z6WL</t>
-  </si>
-  <si>
-    <t>pWrRQ5sGDp5e59p</t>
-  </si>
-  <si>
-    <t>grRgMFsDz987rgG</t>
+    <t>b3EJHXw5EeY8amr</t>
+  </si>
+  <si>
+    <t>tnMWoI1BhDlGi1E</t>
+  </si>
+  <si>
+    <t>johBPxSKutuPiXl</t>
+  </si>
+  <si>
+    <t>kEmhGfuLCWEw1zm</t>
+  </si>
+  <si>
+    <t>retail</t>
   </si>
   <si>
     <t>office</t>
   </si>
   <si>
-    <t>retail</t>
+    <t>retail_pu_0.csv</t>
   </si>
   <si>
     <t>office_pu_0.csv</t>
   </si>
   <si>
-    <t>retail_pu_0.csv</t>
-  </si>
-  <si>
-    <t>YrM2KlV24c6EpVK</t>
-  </si>
-  <si>
-    <t>GOw1Mue80BXXDwc</t>
+    <t>pv_3_pu.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_42.csv</t>
+  </si>
+  <si>
+    <t>4D34vnUXgWa5kv5</t>
+  </si>
+  <si>
+    <t>lLWhENvFv0yGNe2</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>tobacco</t>
   </si>
   <si>
-    <t>food</t>
+    <t>food_pu_0.csv</t>
   </si>
   <si>
     <t>tobacco_pu_0.csv</t>
   </si>
   <si>
-    <t>food_pu_0.csv</t>
-  </si>
-  <si>
-    <t>ev_parttime_89.csv</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>znibXFFKBylRUZR</t>
-  </si>
-  <si>
-    <t>xwTKTPT383KkdQE</t>
-  </si>
-  <si>
-    <t>TWCV1vstf48hPvT</t>
-  </si>
-  <si>
-    <t>eux7LCBDYu36BPy</t>
-  </si>
-  <si>
-    <t>SmWE7XCDFO7t9eu</t>
-  </si>
-  <si>
-    <t>tPulIZT1ZhxrczV</t>
-  </si>
-  <si>
-    <t>pv_3_pu.csv</t>
+    <t>5uMQwXWDxxOvvsF</t>
+  </si>
+  <si>
+    <t>EWF1wtzNcMBmwPR</t>
+  </si>
+  <si>
+    <t>lY7Nn9q3gRmgQrI</t>
+  </si>
+  <si>
+    <t>6b3vswBi2II6k2A</t>
+  </si>
+  <si>
+    <t>JFwlTTwFaBBYmfA</t>
+  </si>
+  <si>
+    <t>qPqZ5b3fd7TS5eX</t>
   </si>
   <si>
     <t>psh/owner</t>
@@ -885,31 +882,31 @@
     <t>hydrogen/quality</t>
   </si>
   <si>
-    <t>IrDk0suEMJe1Jrq</t>
-  </si>
-  <si>
-    <t>ca7DXvsRif58Ywi</t>
-  </si>
-  <si>
-    <t>UYHS8KkFEgWdMat</t>
-  </si>
-  <si>
-    <t>53DJ8459GxzasDU</t>
-  </si>
-  <si>
-    <t>wUdW9MWYe3v90V7</t>
-  </si>
-  <si>
-    <t>wjruqoUV91OXGae</t>
-  </si>
-  <si>
-    <t>bBt3I255Zgyiiu6</t>
-  </si>
-  <si>
-    <t>3KsTujBHlQ7RVF0</t>
-  </si>
-  <si>
-    <t>kqCfqR3JvHUAq71</t>
+    <t>WK8hgHKuluAB61t</t>
+  </si>
+  <si>
+    <t>MLNDRfxpdKeeUwS</t>
+  </si>
+  <si>
+    <t>zEalmmqvqzAwkQh</t>
+  </si>
+  <si>
+    <t>fsDA2NSUmZatNE7</t>
+  </si>
+  <si>
+    <t>44U9w1UWAmSyBgy</t>
+  </si>
+  <si>
+    <t>L8BXc8OZTghjRJq</t>
+  </si>
+  <si>
+    <t>Lk2VZ5iH3zUhNPM</t>
+  </si>
+  <si>
+    <t>L1IRdkJhAInDjcx</t>
+  </si>
+  <si>
+    <t>HgvSumIbLb6atCp</t>
   </si>
 </sst>
 </file>
@@ -1267,13 +1264,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EP11"/>
+  <dimension ref="A1:EQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:146">
+    <row r="1" spans="1:147">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1709,19 +1706,22 @@
       <c r="EP1" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="EQ1" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="2" spans="1:146">
+    <row r="2" spans="1:147">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1730,7 +1730,7 @@
         <v>2.6</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1745,10 +1745,10 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>3648000</v>
+        <v>3296000</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q2" t="s">
         <v>162</v>
@@ -1796,13 +1796,13 @@
         <v>1</v>
       </c>
       <c r="AH2">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="AI2" t="s">
         <v>164</v>
       </c>
       <c r="AJ2">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AK2" t="s">
         <v>162</v>
@@ -1829,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="AS2">
-        <v>2100000</v>
+        <v>2800000</v>
       </c>
       <c r="AT2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AU2">
         <v>55</v>
@@ -1862,10 +1862,10 @@
         <v>1</v>
       </c>
       <c r="BD2">
-        <v>5900</v>
+        <v>4600</v>
       </c>
       <c r="BE2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BF2">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="BI2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BJ2">
         <v>2</v>
@@ -1886,50 +1886,41 @@
         <v>9</v>
       </c>
       <c r="BL2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO2" t="b">
         <v>1</v>
       </c>
-      <c r="BP2">
-        <v>2100</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="BS2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BT2">
+        <v>2</v>
+      </c>
+      <c r="BU2">
+        <v>9</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="s">
         <v>180</v>
       </c>
-      <c r="BR2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>183</v>
-      </c>
-      <c r="BT2">
-        <v>2</v>
-      </c>
-      <c r="BU2">
-        <v>9</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>178</v>
-      </c>
       <c r="CD2">
         <v>2</v>
       </c>
@@ -1937,7 +1928,7 @@
         <v>9</v>
       </c>
       <c r="CF2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CG2">
         <v>0</v>
@@ -1949,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="CL2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CM2">
         <v>0</v>
@@ -1961,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="DJ2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="DK2">
         <v>0.05</v>
@@ -1976,22 +1967,40 @@
         <v>8.5</v>
       </c>
       <c r="DO2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DP2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS2" t="s">
-        <v>193</v>
+        <v>197</v>
+      </c>
+      <c r="DT2">
+        <v>3300</v>
+      </c>
+      <c r="DU2">
+        <v>3300</v>
+      </c>
+      <c r="DV2">
+        <v>0.95</v>
+      </c>
+      <c r="DW2">
+        <v>0.1</v>
+      </c>
+      <c r="DX2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY2" t="b">
+        <v>0</v>
       </c>
       <c r="DZ2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="EA2">
         <v>0</v>
@@ -2000,45 +2009,45 @@
         <v>0</v>
       </c>
       <c r="EC2" t="s">
-        <v>193</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="EH2" t="s">
-        <v>194</v>
-      </c>
-      <c r="EI2">
+        <v>188</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>198</v>
+      </c>
+      <c r="EJ2">
         <v>96</v>
       </c>
-      <c r="EJ2" t="s">
-        <v>195</v>
-      </c>
-      <c r="EK2">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>179</v>
-      </c>
-      <c r="EM2">
-        <v>0</v>
+      <c r="EK2" t="s">
+        <v>199</v>
+      </c>
+      <c r="EL2">
+        <v>48</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>181</v>
       </c>
       <c r="EN2">
         <v>0</v>
       </c>
       <c r="EO2">
+        <v>0</v>
+      </c>
+      <c r="EP2">
         <v>3600</v>
       </c>
-      <c r="EP2">
+      <c r="EQ2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:146">
+    <row r="3" spans="1:147">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -2071,7 +2080,7 @@
         <v>5527000</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q3" t="s">
         <v>162</v>
@@ -2152,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="AS3">
-        <v>3200000</v>
+        <v>2800000</v>
       </c>
       <c r="AT3" t="s">
         <v>172</v>
@@ -2185,10 +2194,10 @@
         <v>1</v>
       </c>
       <c r="BD3">
-        <v>7200</v>
+        <v>9700</v>
       </c>
       <c r="BE3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BF3">
         <v>0</v>
@@ -2200,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="BI3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BJ3">
         <v>2</v>
@@ -2209,19 +2218,28 @@
         <v>9</v>
       </c>
       <c r="BL3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO3" t="b">
         <v>1</v>
       </c>
+      <c r="BP3">
+        <v>3800</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR3" t="b">
+        <v>1</v>
+      </c>
       <c r="BS3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BT3">
         <v>2</v>
@@ -2230,7 +2248,7 @@
         <v>9</v>
       </c>
       <c r="BV3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -2242,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="CC3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CD3">
         <v>2</v>
@@ -2251,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="CF3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CG3">
         <v>0</v>
@@ -2263,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="CL3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CM3">
         <v>0</v>
@@ -2275,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="DJ3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="DK3">
         <v>0.05</v>
@@ -2290,10 +2308,10 @@
         <v>8.5</v>
       </c>
       <c r="DO3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DP3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DQ3">
         <v>1</v>
@@ -2302,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="DS3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="DT3">
         <v>5500</v>
@@ -2323,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="DZ3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="EA3">
         <v>0</v>
@@ -2332,51 +2350,51 @@
         <v>0</v>
       </c>
       <c r="EC3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="EH3" t="s">
-        <v>194</v>
-      </c>
-      <c r="EI3">
+        <v>188</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>198</v>
+      </c>
+      <c r="EJ3">
         <v>96</v>
       </c>
-      <c r="EJ3" t="s">
-        <v>195</v>
-      </c>
-      <c r="EK3">
-        <v>60</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>179</v>
-      </c>
-      <c r="EM3">
-        <v>0</v>
+      <c r="EK3" t="s">
+        <v>199</v>
+      </c>
+      <c r="EL3">
+        <v>12</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>181</v>
       </c>
       <c r="EN3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="EO3">
+        <v>0</v>
+      </c>
+      <c r="EP3">
         <v>3600</v>
       </c>
-      <c r="EP3">
+      <c r="EQ3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:146">
+    <row r="4" spans="1:147">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2385,7 +2403,7 @@
         <v>2.6</v>
       </c>
       <c r="J4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -2400,10 +2418,10 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>2532000</v>
+        <v>2687000</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q4" t="s">
         <v>162</v>
@@ -2451,13 +2469,13 @@
         <v>1</v>
       </c>
       <c r="AH4">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="AI4" t="s">
         <v>166</v>
       </c>
       <c r="AJ4">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AK4" t="s">
         <v>162</v>
@@ -2484,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="AS4">
-        <v>1800000</v>
+        <v>3200000</v>
       </c>
       <c r="AT4" t="s">
         <v>173</v>
@@ -2517,10 +2535,10 @@
         <v>1</v>
       </c>
       <c r="BD4">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="BE4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -2532,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="BI4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BJ4">
         <v>2</v>
@@ -2541,38 +2559,29 @@
         <v>9</v>
       </c>
       <c r="BL4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="b">
         <v>1</v>
       </c>
-      <c r="BP4">
-        <v>2000</v>
-      </c>
-      <c r="BQ4" t="s">
+      <c r="BS4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BT4">
+        <v>2</v>
+      </c>
+      <c r="BU4">
+        <v>9</v>
+      </c>
+      <c r="BV4" t="s">
         <v>181</v>
       </c>
-      <c r="BR4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>183</v>
-      </c>
-      <c r="BT4">
-        <v>2</v>
-      </c>
-      <c r="BU4">
-        <v>9</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>179</v>
-      </c>
       <c r="BW4">
         <v>0</v>
       </c>
@@ -2583,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="CC4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CD4">
         <v>2</v>
@@ -2592,7 +2601,7 @@
         <v>9</v>
       </c>
       <c r="CF4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CG4">
         <v>0</v>
@@ -2604,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="CL4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CM4">
         <v>0</v>
@@ -2616,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="DJ4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="DK4">
         <v>0.05</v>
@@ -2631,10 +2640,10 @@
         <v>8.5</v>
       </c>
       <c r="DO4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DP4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DQ4">
         <v>1</v>
@@ -2643,13 +2652,13 @@
         <v>1</v>
       </c>
       <c r="DS4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="DT4">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="DU4">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="DV4">
         <v>0.95</v>
@@ -2664,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="DZ4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="EA4">
         <v>0</v>
@@ -2673,51 +2682,51 @@
         <v>0</v>
       </c>
       <c r="EC4" t="s">
-        <v>193</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="EH4" t="s">
-        <v>194</v>
-      </c>
-      <c r="EI4">
+        <v>188</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>198</v>
+      </c>
+      <c r="EJ4">
         <v>96</v>
       </c>
-      <c r="EJ4" t="s">
-        <v>195</v>
-      </c>
-      <c r="EK4">
-        <v>48</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>179</v>
-      </c>
-      <c r="EM4">
+      <c r="EK4" t="s">
+        <v>199</v>
+      </c>
+      <c r="EL4">
+        <v>60</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>181</v>
+      </c>
+      <c r="EN4">
         <v>30</v>
       </c>
-      <c r="EN4">
-        <v>0</v>
-      </c>
       <c r="EO4">
+        <v>0</v>
+      </c>
+      <c r="EP4">
         <v>3600</v>
       </c>
-      <c r="EP4">
+      <c r="EQ4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:146">
+    <row r="5" spans="1:147">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2726,7 +2735,7 @@
         <v>2.6</v>
       </c>
       <c r="J5">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -2741,10 +2750,10 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>3863000</v>
+        <v>4536000</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q5" t="s">
         <v>162</v>
@@ -2792,13 +2801,13 @@
         <v>1</v>
       </c>
       <c r="AH5">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="AI5" t="s">
         <v>167</v>
       </c>
       <c r="AJ5">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="s">
         <v>162</v>
@@ -2825,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="AS5">
-        <v>2400000</v>
+        <v>1800000</v>
       </c>
       <c r="AT5" t="s">
         <v>174</v>
@@ -2858,10 +2867,10 @@
         <v>1</v>
       </c>
       <c r="BD5">
-        <v>4900</v>
+        <v>6500</v>
       </c>
       <c r="BE5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BF5">
         <v>0</v>
@@ -2873,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="BI5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BJ5">
         <v>2</v>
@@ -2882,7 +2891,7 @@
         <v>9</v>
       </c>
       <c r="BL5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BM5">
         <v>1</v>
@@ -2894,26 +2903,26 @@
         <v>1</v>
       </c>
       <c r="BP5">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="BQ5" t="s">
+        <v>183</v>
+      </c>
+      <c r="BR5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BT5">
+        <v>2</v>
+      </c>
+      <c r="BU5">
+        <v>9</v>
+      </c>
+      <c r="BV5" t="s">
         <v>181</v>
       </c>
-      <c r="BR5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>183</v>
-      </c>
-      <c r="BT5">
-        <v>2</v>
-      </c>
-      <c r="BU5">
-        <v>9</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>179</v>
-      </c>
       <c r="BW5">
         <v>0</v>
       </c>
@@ -2924,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="CC5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CD5">
         <v>2</v>
@@ -2933,7 +2942,7 @@
         <v>9</v>
       </c>
       <c r="CF5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CG5">
         <v>0</v>
@@ -2945,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="CL5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CM5">
         <v>1</v>
@@ -2957,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="CP5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="CQ5">
         <v>50000</v>
@@ -2987,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="DJ5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="DK5">
         <v>0.05</v>
@@ -3002,10 +3011,10 @@
         <v>8.5</v>
       </c>
       <c r="DO5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DP5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DQ5">
         <v>1</v>
@@ -3014,13 +3023,13 @@
         <v>1</v>
       </c>
       <c r="DS5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="DT5">
-        <v>3900</v>
+        <v>4500</v>
       </c>
       <c r="DU5">
-        <v>3900</v>
+        <v>4500</v>
       </c>
       <c r="DV5">
         <v>0.95</v>
@@ -3035,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="DZ5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="EA5">
         <v>0</v>
@@ -3044,51 +3053,51 @@
         <v>0</v>
       </c>
       <c r="EC5" t="s">
-        <v>193</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="EH5" t="s">
-        <v>194</v>
-      </c>
-      <c r="EI5">
+        <v>188</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>198</v>
+      </c>
+      <c r="EJ5">
         <v>96</v>
       </c>
-      <c r="EJ5" t="s">
-        <v>195</v>
-      </c>
-      <c r="EK5">
+      <c r="EK5" t="s">
+        <v>199</v>
+      </c>
+      <c r="EL5">
         <v>60</v>
       </c>
-      <c r="EL5" t="s">
-        <v>179</v>
-      </c>
-      <c r="EM5">
-        <v>10</v>
+      <c r="EM5" t="s">
+        <v>181</v>
       </c>
       <c r="EN5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="EO5">
+        <v>0</v>
+      </c>
+      <c r="EP5">
         <v>3600</v>
       </c>
-      <c r="EP5">
+      <c r="EQ5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:146">
+    <row r="6" spans="1:147">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -3097,7 +3106,7 @@
         <v>2.6</v>
       </c>
       <c r="J6">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3112,10 +3121,10 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>2959000</v>
+        <v>3125000</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q6" t="s">
         <v>162</v>
@@ -3163,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="AH6">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="AI6" t="s">
         <v>168</v>
@@ -3196,10 +3205,10 @@
         <v>1</v>
       </c>
       <c r="AS6">
-        <v>2100000</v>
+        <v>2400000</v>
       </c>
       <c r="AT6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AU6">
         <v>55</v>
@@ -3220,31 +3229,16 @@
         <v>90</v>
       </c>
       <c r="BA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="b">
         <v>1</v>
       </c>
-      <c r="BD6">
-        <v>3700</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>177</v>
-      </c>
-      <c r="BF6">
-        <v>-20</v>
-      </c>
-      <c r="BG6">
-        <v>50</v>
-      </c>
-      <c r="BH6" t="b">
-        <v>1</v>
-      </c>
       <c r="BI6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BJ6">
         <v>2</v>
@@ -3253,7 +3247,7 @@
         <v>9</v>
       </c>
       <c r="BL6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BM6">
         <v>0</v>
@@ -3265,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="BS6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BT6">
         <v>2</v>
@@ -3274,7 +3268,7 @@
         <v>9</v>
       </c>
       <c r="BV6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -3286,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="CC6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CD6">
         <v>2</v>
@@ -3295,7 +3289,7 @@
         <v>9</v>
       </c>
       <c r="CF6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CG6">
         <v>0</v>
@@ -3307,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="CL6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CM6">
         <v>1</v>
@@ -3319,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="CP6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CQ6">
         <v>75000</v>
@@ -3349,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="DJ6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="DK6">
         <v>0.05</v>
@@ -3364,10 +3358,10 @@
         <v>8.5</v>
       </c>
       <c r="DO6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DP6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DQ6">
         <v>0</v>
@@ -3376,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="DZ6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="EA6">
         <v>0</v>
@@ -3388,51 +3382,51 @@
         <v>0</v>
       </c>
       <c r="EC6" t="s">
-        <v>193</v>
-      </c>
-      <c r="EG6" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="EH6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EI6">
+        <v>188</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>198</v>
+      </c>
+      <c r="EJ6">
         <v>96</v>
       </c>
-      <c r="EJ6" t="s">
-        <v>195</v>
-      </c>
-      <c r="EK6">
-        <v>60</v>
-      </c>
-      <c r="EL6" t="s">
-        <v>179</v>
-      </c>
-      <c r="EM6">
+      <c r="EK6" t="s">
+        <v>199</v>
+      </c>
+      <c r="EL6">
+        <v>24</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>181</v>
+      </c>
+      <c r="EN6">
         <v>30</v>
       </c>
-      <c r="EN6">
-        <v>0</v>
-      </c>
       <c r="EO6">
+        <v>0</v>
+      </c>
+      <c r="EP6">
         <v>3600</v>
       </c>
-      <c r="EP6">
+      <c r="EQ6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:146">
+    <row r="7" spans="1:147">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -3441,7 +3435,7 @@
         <v>2.6</v>
       </c>
       <c r="J7">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -3456,10 +3450,10 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>3125000</v>
+        <v>3296000</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q7" t="s">
         <v>162</v>
@@ -3507,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="AH7">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="AI7" t="s">
         <v>169</v>
@@ -3540,10 +3534,10 @@
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>1800000</v>
+        <v>2800000</v>
       </c>
       <c r="AT7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AU7">
         <v>55</v>
@@ -3573,22 +3567,22 @@
         <v>1</v>
       </c>
       <c r="BD7">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="BE7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BF7">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="BG7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BH7" t="b">
         <v>1</v>
       </c>
       <c r="BI7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BJ7">
         <v>2</v>
@@ -3597,19 +3591,28 @@
         <v>9</v>
       </c>
       <c r="BL7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO7" t="b">
         <v>1</v>
       </c>
+      <c r="BP7">
+        <v>2600</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BR7" t="b">
+        <v>1</v>
+      </c>
       <c r="BS7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BT7">
         <v>2</v>
@@ -3618,7 +3621,7 @@
         <v>9</v>
       </c>
       <c r="BV7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -3630,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="CC7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CD7">
         <v>2</v>
@@ -3639,7 +3642,7 @@
         <v>9</v>
       </c>
       <c r="CF7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CG7">
         <v>0</v>
@@ -3651,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="CL7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CM7">
         <v>0</v>
@@ -3663,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="DJ7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="DK7">
         <v>0.05</v>
@@ -3678,40 +3681,22 @@
         <v>8.5</v>
       </c>
       <c r="DO7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DP7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DQ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>193</v>
-      </c>
-      <c r="DT7">
-        <v>3100</v>
-      </c>
-      <c r="DU7">
-        <v>3100</v>
-      </c>
-      <c r="DV7">
-        <v>0.95</v>
-      </c>
-      <c r="DW7">
-        <v>0.1</v>
-      </c>
-      <c r="DX7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DY7" t="b">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="DZ7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="EA7">
         <v>0</v>
@@ -3720,51 +3705,51 @@
         <v>0</v>
       </c>
       <c r="EC7" t="s">
-        <v>193</v>
-      </c>
-      <c r="EG7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="EH7" t="s">
-        <v>194</v>
-      </c>
-      <c r="EI7">
+        <v>188</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>198</v>
+      </c>
+      <c r="EJ7">
         <v>96</v>
       </c>
-      <c r="EJ7" t="s">
-        <v>195</v>
-      </c>
-      <c r="EK7">
+      <c r="EK7" t="s">
+        <v>199</v>
+      </c>
+      <c r="EL7">
         <v>48</v>
       </c>
-      <c r="EL7" t="s">
-        <v>179</v>
-      </c>
-      <c r="EM7">
-        <v>0</v>
+      <c r="EM7" t="s">
+        <v>181</v>
       </c>
       <c r="EN7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="EO7">
+        <v>0</v>
+      </c>
+      <c r="EP7">
         <v>3600</v>
       </c>
-      <c r="EP7">
+      <c r="EQ7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:146">
+    <row r="8" spans="1:147">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -3773,7 +3758,7 @@
         <v>2.6</v>
       </c>
       <c r="J8">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -3788,10 +3773,10 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>3564000</v>
+        <v>3125000</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q8" t="s">
         <v>162</v>
@@ -3839,10 +3824,10 @@
         <v>1</v>
       </c>
       <c r="AH8">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="AI8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AJ8">
         <v>55</v>
@@ -3872,10 +3857,10 @@
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>2800000</v>
+        <v>2400000</v>
       </c>
       <c r="AT8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AU8">
         <v>55</v>
@@ -3905,22 +3890,22 @@
         <v>1</v>
       </c>
       <c r="BD8">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="BE8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BF8">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="BG8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BH8" t="b">
         <v>1</v>
       </c>
       <c r="BI8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BJ8">
         <v>2</v>
@@ -3929,7 +3914,7 @@
         <v>9</v>
       </c>
       <c r="BL8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BM8">
         <v>0</v>
@@ -3941,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="BS8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BT8">
         <v>2</v>
@@ -3950,7 +3935,7 @@
         <v>9</v>
       </c>
       <c r="BV8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -3962,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="CC8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CD8">
         <v>2</v>
@@ -3971,7 +3956,7 @@
         <v>9</v>
       </c>
       <c r="CF8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CG8">
         <v>0</v>
@@ -3983,34 +3968,34 @@
         <v>1</v>
       </c>
       <c r="CL8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CM8">
         <v>1</v>
       </c>
       <c r="CN8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO8" t="b">
         <v>1</v>
       </c>
       <c r="CP8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="CQ8">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="CR8">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="CS8">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="CT8">
-        <v>22000</v>
+        <v>7200</v>
       </c>
       <c r="CU8">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="CV8">
         <v>0.9</v>
@@ -4024,38 +4009,8 @@
       <c r="CY8" t="b">
         <v>0</v>
       </c>
-      <c r="CZ8" t="s">
-        <v>190</v>
-      </c>
-      <c r="DA8">
-        <v>75000</v>
-      </c>
-      <c r="DB8">
-        <v>20000</v>
-      </c>
-      <c r="DC8">
-        <v>7200</v>
-      </c>
-      <c r="DD8">
-        <v>11000</v>
-      </c>
-      <c r="DE8">
-        <v>100000</v>
-      </c>
-      <c r="DF8">
-        <v>0.9</v>
-      </c>
-      <c r="DG8">
-        <v>0.8</v>
-      </c>
-      <c r="DH8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DI8" t="b">
-        <v>0</v>
-      </c>
       <c r="DJ8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="DK8">
         <v>0.05</v>
@@ -4070,10 +4025,10 @@
         <v>8.5</v>
       </c>
       <c r="DO8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DP8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DQ8">
         <v>1</v>
@@ -4082,13 +4037,13 @@
         <v>1</v>
       </c>
       <c r="DS8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="DT8">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="DU8">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="DV8">
         <v>0.95</v>
@@ -4103,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="DZ8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="EA8">
         <v>0</v>
@@ -4112,51 +4067,51 @@
         <v>0</v>
       </c>
       <c r="EC8" t="s">
-        <v>193</v>
-      </c>
-      <c r="EG8" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="EH8" t="s">
-        <v>194</v>
-      </c>
-      <c r="EI8">
+        <v>188</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>198</v>
+      </c>
+      <c r="EJ8">
         <v>96</v>
       </c>
-      <c r="EJ8" t="s">
-        <v>195</v>
-      </c>
-      <c r="EK8">
-        <v>24</v>
-      </c>
-      <c r="EL8" t="s">
-        <v>179</v>
-      </c>
-      <c r="EM8">
-        <v>0</v>
+      <c r="EK8" t="s">
+        <v>199</v>
+      </c>
+      <c r="EL8">
+        <v>48</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>181</v>
       </c>
       <c r="EN8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="EO8">
+        <v>0</v>
+      </c>
+      <c r="EP8">
         <v>3600</v>
       </c>
-      <c r="EP8">
+      <c r="EQ8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:146">
+    <row r="9" spans="1:147">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -4165,7 +4120,7 @@
         <v>2.6</v>
       </c>
       <c r="J9">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4180,10 +4135,10 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>3863000</v>
+        <v>3296000</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q9" t="s">
         <v>162</v>
@@ -4231,13 +4186,13 @@
         <v>1</v>
       </c>
       <c r="AH9">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="AI9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AJ9">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AK9" t="s">
         <v>162</v>
@@ -4264,10 +4219,10 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>3200000</v>
+        <v>2400000</v>
       </c>
       <c r="AT9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU9">
         <v>55</v>
@@ -4297,10 +4252,10 @@
         <v>1</v>
       </c>
       <c r="BD9">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="BE9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BF9">
         <v>0</v>
@@ -4312,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="BI9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BJ9">
         <v>2</v>
@@ -4321,7 +4276,7 @@
         <v>9</v>
       </c>
       <c r="BL9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BM9">
         <v>1</v>
@@ -4333,16 +4288,16 @@
         <v>1</v>
       </c>
       <c r="BP9">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="BQ9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BR9" t="b">
         <v>1</v>
       </c>
       <c r="BS9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BT9">
         <v>2</v>
@@ -4351,7 +4306,7 @@
         <v>9</v>
       </c>
       <c r="BV9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BW9">
         <v>0</v>
@@ -4363,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="CC9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CD9">
         <v>2</v>
@@ -4372,7 +4327,7 @@
         <v>9</v>
       </c>
       <c r="CF9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CG9">
         <v>0</v>
@@ -4384,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="CL9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CM9">
         <v>1</v>
@@ -4396,22 +4351,22 @@
         <v>1</v>
       </c>
       <c r="CP9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="CQ9">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="CR9">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="CS9">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="CT9">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="CU9">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="CV9">
         <v>0.9</v>
@@ -4426,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="DJ9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="DK9">
         <v>0.05</v>
@@ -4441,10 +4396,10 @@
         <v>8.5</v>
       </c>
       <c r="DO9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DP9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DQ9">
         <v>1</v>
@@ -4453,13 +4408,13 @@
         <v>1</v>
       </c>
       <c r="DS9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="DT9">
-        <v>3900</v>
+        <v>3300</v>
       </c>
       <c r="DU9">
-        <v>3900</v>
+        <v>3300</v>
       </c>
       <c r="DV9">
         <v>0.95</v>
@@ -4474,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="DZ9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="EA9">
         <v>0</v>
@@ -4483,51 +4438,51 @@
         <v>0</v>
       </c>
       <c r="EC9" t="s">
-        <v>193</v>
-      </c>
-      <c r="EG9" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="EH9" t="s">
-        <v>194</v>
-      </c>
-      <c r="EI9">
+        <v>188</v>
+      </c>
+      <c r="EI9" t="s">
+        <v>198</v>
+      </c>
+      <c r="EJ9">
         <v>96</v>
       </c>
-      <c r="EJ9" t="s">
-        <v>195</v>
-      </c>
-      <c r="EK9">
-        <v>60</v>
-      </c>
-      <c r="EL9" t="s">
-        <v>179</v>
-      </c>
-      <c r="EM9">
+      <c r="EK9" t="s">
+        <v>199</v>
+      </c>
+      <c r="EL9">
+        <v>48</v>
+      </c>
+      <c r="EM9" t="s">
+        <v>181</v>
+      </c>
+      <c r="EN9">
         <v>30</v>
       </c>
-      <c r="EN9">
-        <v>0</v>
-      </c>
       <c r="EO9">
+        <v>0</v>
+      </c>
+      <c r="EP9">
         <v>3600</v>
       </c>
-      <c r="EP9">
+      <c r="EQ9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:146">
+    <row r="10" spans="1:147">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -4536,7 +4491,7 @@
         <v>2.6</v>
       </c>
       <c r="J10">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -4551,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>3564000</v>
+        <v>2262000</v>
       </c>
       <c r="P10" t="s">
         <v>161</v>
@@ -4602,10 +4557,10 @@
         <v>1</v>
       </c>
       <c r="AH10">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="AI10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AJ10">
         <v>55</v>
@@ -4635,10 +4590,10 @@
         <v>1</v>
       </c>
       <c r="AS10">
-        <v>2800000</v>
+        <v>2100000</v>
       </c>
       <c r="AT10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AU10">
         <v>55</v>
@@ -4668,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="BI10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BJ10">
         <v>2</v>
@@ -4677,19 +4632,28 @@
         <v>9</v>
       </c>
       <c r="BL10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BM10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO10" t="b">
         <v>1</v>
       </c>
+      <c r="BP10">
+        <v>1000</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>186</v>
+      </c>
+      <c r="BR10" t="b">
+        <v>1</v>
+      </c>
       <c r="BS10" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BT10">
         <v>2</v>
@@ -4698,7 +4662,7 @@
         <v>9</v>
       </c>
       <c r="BV10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -4710,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="CC10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CD10">
         <v>2</v>
@@ -4719,7 +4683,7 @@
         <v>9</v>
       </c>
       <c r="CF10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CG10">
         <v>0</v>
@@ -4731,34 +4695,34 @@
         <v>1</v>
       </c>
       <c r="CL10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CM10">
         <v>1</v>
       </c>
       <c r="CN10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO10" t="b">
         <v>1</v>
       </c>
       <c r="CP10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CQ10">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="CR10">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="CS10">
         <v>7200</v>
       </c>
       <c r="CT10">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="CU10">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="CV10">
         <v>0.9</v>
@@ -4772,8 +4736,38 @@
       <c r="CY10" t="b">
         <v>0</v>
       </c>
+      <c r="CZ10" t="s">
+        <v>194</v>
+      </c>
+      <c r="DA10">
+        <v>75000</v>
+      </c>
+      <c r="DB10">
+        <v>20000</v>
+      </c>
+      <c r="DC10">
+        <v>7200</v>
+      </c>
+      <c r="DD10">
+        <v>11000</v>
+      </c>
+      <c r="DE10">
+        <v>100000</v>
+      </c>
+      <c r="DF10">
+        <v>0.9</v>
+      </c>
+      <c r="DG10">
+        <v>0.8</v>
+      </c>
+      <c r="DH10" t="b">
+        <v>0</v>
+      </c>
+      <c r="DI10" t="b">
+        <v>0</v>
+      </c>
       <c r="DJ10" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="DK10">
         <v>0.05</v>
@@ -4788,10 +4782,10 @@
         <v>8.5</v>
       </c>
       <c r="DO10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DP10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DQ10">
         <v>0</v>
@@ -4800,10 +4794,10 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="DZ10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="EA10">
         <v>0</v>
@@ -4812,45 +4806,45 @@
         <v>0</v>
       </c>
       <c r="EC10" t="s">
-        <v>193</v>
-      </c>
-      <c r="EG10" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="EH10" t="s">
-        <v>194</v>
-      </c>
-      <c r="EI10">
+        <v>188</v>
+      </c>
+      <c r="EI10" t="s">
+        <v>198</v>
+      </c>
+      <c r="EJ10">
         <v>96</v>
       </c>
-      <c r="EJ10" t="s">
-        <v>195</v>
-      </c>
-      <c r="EK10">
-        <v>48</v>
-      </c>
-      <c r="EL10" t="s">
-        <v>179</v>
-      </c>
-      <c r="EM10">
-        <v>10</v>
+      <c r="EK10" t="s">
+        <v>199</v>
+      </c>
+      <c r="EL10">
+        <v>12</v>
+      </c>
+      <c r="EM10" t="s">
+        <v>181</v>
       </c>
       <c r="EN10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="EO10">
+        <v>0</v>
+      </c>
+      <c r="EP10">
         <v>3600</v>
       </c>
-      <c r="EP10">
+      <c r="EQ10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:146">
+    <row r="11" spans="1:147">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -4883,7 +4877,7 @@
         <v>5527000</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q11" t="s">
         <v>162</v>
@@ -4964,10 +4958,10 @@
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>2400000</v>
+        <v>1800000</v>
       </c>
       <c r="AT11" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AU11">
         <v>55</v>
@@ -4988,16 +4982,31 @@
         <v>90</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC11" t="b">
         <v>1</v>
       </c>
+      <c r="BD11">
+        <v>8100</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>179</v>
+      </c>
+      <c r="BF11">
+        <v>-20</v>
+      </c>
+      <c r="BG11">
+        <v>50</v>
+      </c>
+      <c r="BH11" t="b">
+        <v>1</v>
+      </c>
       <c r="BI11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BJ11">
         <v>2</v>
@@ -5006,38 +5015,29 @@
         <v>9</v>
       </c>
       <c r="BL11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BM11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="b">
         <v>1</v>
       </c>
-      <c r="BP11">
-        <v>3300</v>
-      </c>
-      <c r="BQ11" t="s">
+      <c r="BS11" t="s">
+        <v>187</v>
+      </c>
+      <c r="BT11">
+        <v>2</v>
+      </c>
+      <c r="BU11">
+        <v>9</v>
+      </c>
+      <c r="BV11" t="s">
         <v>181</v>
       </c>
-      <c r="BR11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>183</v>
-      </c>
-      <c r="BT11">
-        <v>2</v>
-      </c>
-      <c r="BU11">
-        <v>9</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>179</v>
-      </c>
       <c r="BW11">
         <v>0</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="CC11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CD11">
         <v>2</v>
@@ -5057,7 +5057,7 @@
         <v>9</v>
       </c>
       <c r="CF11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CG11">
         <v>0</v>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="CL11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CM11">
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="DJ11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="DK11">
         <v>0.05</v>
@@ -5096,10 +5096,10 @@
         <v>8.5</v>
       </c>
       <c r="DO11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DP11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DQ11">
         <v>0</v>
@@ -5108,10 +5108,10 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="DZ11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="EA11">
         <v>0</v>
@@ -5120,36 +5120,36 @@
         <v>0</v>
       </c>
       <c r="EC11" t="s">
-        <v>193</v>
-      </c>
-      <c r="EG11" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="EH11" t="s">
-        <v>194</v>
-      </c>
-      <c r="EI11">
+        <v>188</v>
+      </c>
+      <c r="EI11" t="s">
+        <v>198</v>
+      </c>
+      <c r="EJ11">
         <v>96</v>
       </c>
-      <c r="EJ11" t="s">
-        <v>195</v>
-      </c>
-      <c r="EK11">
-        <v>60</v>
-      </c>
-      <c r="EL11" t="s">
-        <v>179</v>
-      </c>
-      <c r="EM11">
-        <v>30</v>
+      <c r="EK11" t="s">
+        <v>199</v>
+      </c>
+      <c r="EL11">
+        <v>36</v>
+      </c>
+      <c r="EM11" t="s">
+        <v>181</v>
       </c>
       <c r="EN11">
         <v>0</v>
       </c>
       <c r="EO11">
+        <v>0</v>
+      </c>
+      <c r="EP11">
         <v>3600</v>
       </c>
-      <c r="EP11">
+      <c r="EQ11">
         <v>0</v>
       </c>
     </row>
@@ -5160,13 +5160,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ES17"/>
+  <dimension ref="A1:ET17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:149">
+    <row r="1" spans="1:150">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5180,13 +5180,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -5611,28 +5611,31 @@
       <c r="ES1" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="ET1" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="2" spans="1:149">
+    <row r="2" spans="1:150">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>800</v>
+        <v>420</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -5641,7 +5644,7 @@
         <v>2.6</v>
       </c>
       <c r="M2">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -5656,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <v>15173000</v>
+        <v>12408000</v>
       </c>
       <c r="T2" t="s">
         <v>162</v>
@@ -5701,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="AK2">
-        <v>120000000</v>
+        <v>23100000</v>
       </c>
       <c r="AN2" t="s">
         <v>162</v>
@@ -5728,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="AV2">
-        <v>22400</v>
+        <v>12600</v>
       </c>
       <c r="AY2" t="s">
         <v>162</v>
@@ -5770,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="BL2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BM2">
         <v>2</v>
@@ -5779,7 +5782,7 @@
         <v>9</v>
       </c>
       <c r="BO2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BP2">
         <v>1</v>
@@ -5791,46 +5794,46 @@
         <v>1</v>
       </c>
       <c r="BS2">
-        <v>9000</v>
+        <v>8300</v>
       </c>
       <c r="BT2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BU2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BW2">
+        <v>2</v>
+      </c>
+      <c r="BX2">
+        <v>9</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1200</v>
+      </c>
+      <c r="CD2" t="s">
         <v>233</v>
       </c>
-      <c r="BU2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>183</v>
-      </c>
-      <c r="BW2">
-        <v>2</v>
-      </c>
-      <c r="BX2">
-        <v>9</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BZ2">
-        <v>1</v>
-      </c>
-      <c r="CA2">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC2">
-        <v>1800</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>234</v>
-      </c>
       <c r="CE2" t="b">
         <v>0</v>
       </c>
       <c r="CF2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CG2">
         <v>2</v>
@@ -5839,7 +5842,7 @@
         <v>9</v>
       </c>
       <c r="CI2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CJ2">
         <v>0</v>
@@ -5851,7 +5854,7 @@
         <v>1</v>
       </c>
       <c r="CO2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CP2">
         <v>0</v>
@@ -5863,10 +5866,10 @@
         <v>1</v>
       </c>
       <c r="DR2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DS2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DT2">
         <v>1</v>
@@ -5878,10 +5881,10 @@
         <v>1</v>
       </c>
       <c r="DW2">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="DX2">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="DY2">
         <v>0.95</v>
@@ -5896,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="EC2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="ED2">
         <v>1</v>
@@ -5908,66 +5911,69 @@
         <v>1</v>
       </c>
       <c r="EG2">
-        <v>120000</v>
+        <v>12000</v>
       </c>
       <c r="EH2">
+        <v>23000</v>
+      </c>
+      <c r="EI2">
         <v>0.95</v>
       </c>
-      <c r="EI2">
+      <c r="EJ2">
         <v>0.1</v>
       </c>
-      <c r="EJ2" t="s">
-        <v>184</v>
-      </c>
       <c r="EK2" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL2">
+        <v>188</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>198</v>
+      </c>
+      <c r="EM2">
         <v>96</v>
       </c>
-      <c r="EM2" t="s">
-        <v>195</v>
-      </c>
-      <c r="EN2">
-        <v>24</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>179</v>
-      </c>
-      <c r="EP2">
-        <v>10</v>
+      <c r="EN2" t="s">
+        <v>199</v>
+      </c>
+      <c r="EO2">
+        <v>60</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>181</v>
       </c>
       <c r="EQ2">
         <v>0</v>
       </c>
       <c r="ER2">
+        <v>0</v>
+      </c>
+      <c r="ES2">
         <v>3600</v>
       </c>
-      <c r="ES2">
+      <c r="ET2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:149">
+    <row r="3" spans="1:150">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -5976,7 +5982,7 @@
         <v>2.6</v>
       </c>
       <c r="M3">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -5994,7 +6000,7 @@
         <v>1158000</v>
       </c>
       <c r="S3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="T3" t="s">
         <v>162</v>
@@ -6039,10 +6045,10 @@
         <v>1</v>
       </c>
       <c r="AK3">
-        <v>15000000</v>
+        <v>3850000</v>
       </c>
       <c r="AL3" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="AM3">
         <v>55</v>
@@ -6072,10 +6078,10 @@
         <v>1</v>
       </c>
       <c r="AV3">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="AW3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX3">
         <v>55</v>
@@ -6105,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="BL3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BM3">
         <v>2</v>
@@ -6114,7 +6120,7 @@
         <v>9</v>
       </c>
       <c r="BO3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -6126,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="BV3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BW3">
         <v>2</v>
@@ -6135,7 +6141,7 @@
         <v>9</v>
       </c>
       <c r="BY3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BZ3">
         <v>0</v>
@@ -6147,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="CF3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CG3">
         <v>2</v>
@@ -6156,7 +6162,7 @@
         <v>9</v>
       </c>
       <c r="CI3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CJ3">
         <v>0</v>
@@ -6168,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="CO3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CP3">
         <v>0</v>
@@ -6195,10 +6201,10 @@
         <v>8</v>
       </c>
       <c r="DR3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DS3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DT3">
         <v>0</v>
@@ -6210,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="EC3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="ED3">
         <v>0</v>
@@ -6221,58 +6227,58 @@
       <c r="EF3" t="b">
         <v>1</v>
       </c>
-      <c r="EJ3" t="s">
-        <v>184</v>
-      </c>
       <c r="EK3" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL3">
+        <v>188</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>198</v>
+      </c>
+      <c r="EM3">
         <v>96</v>
       </c>
-      <c r="EM3" t="s">
-        <v>195</v>
-      </c>
-      <c r="EN3">
-        <v>36</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>179</v>
-      </c>
-      <c r="EP3">
+      <c r="EN3" t="s">
+        <v>199</v>
+      </c>
+      <c r="EO3">
+        <v>48</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>181</v>
+      </c>
+      <c r="EQ3">
         <v>20</v>
       </c>
-      <c r="EQ3">
-        <v>0</v>
-      </c>
       <c r="ER3">
+        <v>0</v>
+      </c>
+      <c r="ES3">
         <v>3600</v>
       </c>
-      <c r="ES3">
+      <c r="ET3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:149">
+    <row r="4" spans="1:150">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -6281,7 +6287,7 @@
         <v>2.6</v>
       </c>
       <c r="M4">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -6296,10 +6302,10 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>1546000</v>
+        <v>2455000</v>
       </c>
       <c r="S4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="T4" t="s">
         <v>162</v>
@@ -6344,13 +6350,13 @@
         <v>1</v>
       </c>
       <c r="AK4">
-        <v>15000000</v>
+        <v>3850000</v>
       </c>
       <c r="AL4" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="AM4">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AN4" t="s">
         <v>162</v>
@@ -6377,10 +6383,10 @@
         <v>1</v>
       </c>
       <c r="AV4">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="AW4" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="AX4">
         <v>55</v>
@@ -6410,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="BL4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BM4">
         <v>2</v>
@@ -6419,7 +6425,7 @@
         <v>9</v>
       </c>
       <c r="BO4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -6431,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="BV4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BW4">
         <v>2</v>
@@ -6440,7 +6446,7 @@
         <v>9</v>
       </c>
       <c r="BY4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BZ4">
         <v>0</v>
@@ -6452,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="CF4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CG4">
         <v>2</v>
@@ -6461,7 +6467,7 @@
         <v>9</v>
       </c>
       <c r="CI4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CJ4">
         <v>0</v>
@@ -6473,49 +6479,19 @@
         <v>1</v>
       </c>
       <c r="CO4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR4" t="b">
         <v>1</v>
       </c>
-      <c r="CS4" t="s">
-        <v>190</v>
-      </c>
-      <c r="CT4">
-        <v>50000</v>
-      </c>
-      <c r="CU4">
-        <v>15000</v>
-      </c>
-      <c r="CV4">
-        <v>7200</v>
-      </c>
-      <c r="CW4">
-        <v>7200</v>
-      </c>
-      <c r="CX4">
-        <v>50000</v>
-      </c>
-      <c r="CY4">
-        <v>0.9</v>
-      </c>
-      <c r="CZ4">
-        <v>0.8</v>
-      </c>
-      <c r="DA4" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB4" t="b">
-        <v>0</v>
-      </c>
       <c r="DM4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="DN4">
         <v>0.05</v>
@@ -6530,10 +6506,10 @@
         <v>8</v>
       </c>
       <c r="DR4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DS4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DT4">
         <v>0</v>
@@ -6545,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="EC4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="ED4">
         <v>0</v>
@@ -6556,58 +6532,58 @@
       <c r="EF4" t="b">
         <v>1</v>
       </c>
-      <c r="EJ4" t="s">
-        <v>184</v>
-      </c>
       <c r="EK4" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL4">
+        <v>188</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>198</v>
+      </c>
+      <c r="EM4">
         <v>96</v>
       </c>
-      <c r="EM4" t="s">
-        <v>195</v>
-      </c>
-      <c r="EN4">
+      <c r="EN4" t="s">
+        <v>199</v>
+      </c>
+      <c r="EO4">
         <v>12</v>
       </c>
-      <c r="EO4" t="s">
-        <v>179</v>
-      </c>
-      <c r="EP4">
-        <v>0</v>
+      <c r="EP4" t="s">
+        <v>181</v>
       </c>
       <c r="EQ4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="ER4">
+        <v>0</v>
+      </c>
+      <c r="ES4">
         <v>3600</v>
       </c>
-      <c r="ES4">
+      <c r="ET4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:149">
+    <row r="5" spans="1:150">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -6616,7 +6592,7 @@
         <v>2.6</v>
       </c>
       <c r="M5">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -6631,10 +6607,10 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>3296000</v>
+        <v>1546000</v>
       </c>
       <c r="S5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="T5" t="s">
         <v>162</v>
@@ -6679,10 +6655,10 @@
         <v>1</v>
       </c>
       <c r="AK5">
-        <v>15000000</v>
+        <v>3850000</v>
       </c>
       <c r="AL5" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="AM5">
         <v>55</v>
@@ -6712,10 +6688,10 @@
         <v>1</v>
       </c>
       <c r="AV5">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="AW5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AX5">
         <v>55</v>
@@ -6745,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="BL5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BM5">
         <v>2</v>
@@ -6754,7 +6730,7 @@
         <v>9</v>
       </c>
       <c r="BO5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -6766,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="BV5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BW5">
         <v>2</v>
@@ -6775,7 +6751,7 @@
         <v>9</v>
       </c>
       <c r="BY5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BZ5">
         <v>0</v>
@@ -6787,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="CF5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CG5">
         <v>2</v>
@@ -6796,7 +6772,7 @@
         <v>9</v>
       </c>
       <c r="CI5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CJ5">
         <v>0</v>
@@ -6808,19 +6784,79 @@
         <v>1</v>
       </c>
       <c r="CO5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CR5" t="b">
         <v>1</v>
       </c>
+      <c r="CS5" t="s">
+        <v>234</v>
+      </c>
+      <c r="CT5">
+        <v>75000</v>
+      </c>
+      <c r="CU5">
+        <v>20000</v>
+      </c>
+      <c r="CV5">
+        <v>7200</v>
+      </c>
+      <c r="CW5">
+        <v>11000</v>
+      </c>
+      <c r="CX5">
+        <v>100000</v>
+      </c>
+      <c r="CY5">
+        <v>0.9</v>
+      </c>
+      <c r="CZ5">
+        <v>0.8</v>
+      </c>
+      <c r="DA5" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>191</v>
+      </c>
+      <c r="DD5">
+        <v>50000</v>
+      </c>
+      <c r="DE5">
+        <v>15000</v>
+      </c>
+      <c r="DF5">
+        <v>7200</v>
+      </c>
+      <c r="DG5">
+        <v>7200</v>
+      </c>
+      <c r="DH5">
+        <v>50000</v>
+      </c>
+      <c r="DI5">
+        <v>0.9</v>
+      </c>
+      <c r="DJ5">
+        <v>0.8</v>
+      </c>
+      <c r="DK5" t="b">
+        <v>0</v>
+      </c>
+      <c r="DL5" t="b">
+        <v>0</v>
+      </c>
       <c r="DM5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="DN5">
         <v>0.05</v>
@@ -6835,10 +6871,10 @@
         <v>8</v>
       </c>
       <c r="DR5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DS5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DT5">
         <v>0</v>
@@ -6850,7 +6886,7 @@
         <v>1</v>
       </c>
       <c r="EC5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="ED5">
         <v>0</v>
@@ -6861,58 +6897,58 @@
       <c r="EF5" t="b">
         <v>1</v>
       </c>
-      <c r="EJ5" t="s">
-        <v>184</v>
-      </c>
       <c r="EK5" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL5">
+        <v>188</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>198</v>
+      </c>
+      <c r="EM5">
         <v>96</v>
       </c>
-      <c r="EM5" t="s">
-        <v>195</v>
-      </c>
-      <c r="EN5">
-        <v>24</v>
-      </c>
-      <c r="EO5" t="s">
-        <v>179</v>
-      </c>
-      <c r="EP5">
-        <v>0</v>
+      <c r="EN5" t="s">
+        <v>199</v>
+      </c>
+      <c r="EO5">
+        <v>12</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>181</v>
       </c>
       <c r="EQ5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="ER5">
+        <v>0</v>
+      </c>
+      <c r="ES5">
         <v>3600</v>
       </c>
-      <c r="ES5">
+      <c r="ET5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:149">
+    <row r="6" spans="1:150">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -6921,7 +6957,7 @@
         <v>2.6</v>
       </c>
       <c r="M6">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -6936,10 +6972,10 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>1720000</v>
+        <v>2455000</v>
       </c>
       <c r="S6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="T6" t="s">
         <v>162</v>
@@ -6984,13 +7020,13 @@
         <v>1</v>
       </c>
       <c r="AK6">
-        <v>15000000</v>
+        <v>3850000</v>
       </c>
       <c r="AL6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM6">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN6" t="s">
         <v>162</v>
@@ -7017,10 +7053,10 @@
         <v>1</v>
       </c>
       <c r="AV6">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="AW6" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="AX6">
         <v>55</v>
@@ -7050,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="BL6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BM6">
         <v>2</v>
@@ -7059,7 +7095,7 @@
         <v>9</v>
       </c>
       <c r="BO6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BP6">
         <v>0</v>
@@ -7071,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="BV6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BW6">
         <v>2</v>
@@ -7080,7 +7116,7 @@
         <v>9</v>
       </c>
       <c r="BY6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BZ6">
         <v>0</v>
@@ -7092,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="CF6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CG6">
         <v>2</v>
@@ -7101,7 +7137,7 @@
         <v>9</v>
       </c>
       <c r="CI6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CJ6">
         <v>0</v>
@@ -7113,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="CO6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CP6">
         <v>0</v>
@@ -7125,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="DM6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="DN6">
         <v>0.05</v>
@@ -7140,10 +7176,10 @@
         <v>8</v>
       </c>
       <c r="DR6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DS6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DT6">
         <v>0</v>
@@ -7155,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="EC6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="ED6">
         <v>0</v>
@@ -7166,58 +7202,58 @@
       <c r="EF6" t="b">
         <v>1</v>
       </c>
-      <c r="EJ6" t="s">
-        <v>184</v>
-      </c>
       <c r="EK6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL6">
+        <v>188</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>198</v>
+      </c>
+      <c r="EM6">
         <v>96</v>
       </c>
-      <c r="EM6" t="s">
-        <v>195</v>
-      </c>
-      <c r="EN6">
-        <v>12</v>
-      </c>
-      <c r="EO6" t="s">
-        <v>179</v>
-      </c>
-      <c r="EP6">
-        <v>10</v>
+      <c r="EN6" t="s">
+        <v>199</v>
+      </c>
+      <c r="EO6">
+        <v>24</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>181</v>
       </c>
       <c r="EQ6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="ER6">
+        <v>0</v>
+      </c>
+      <c r="ES6">
         <v>3600</v>
       </c>
-      <c r="ES6">
+      <c r="ET6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:149">
+    <row r="7" spans="1:150">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -7226,7 +7262,7 @@
         <v>2.6</v>
       </c>
       <c r="M7">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -7241,10 +7277,10 @@
         <v>1</v>
       </c>
       <c r="R7">
-        <v>1266000</v>
+        <v>2262000</v>
       </c>
       <c r="S7" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="T7" t="s">
         <v>162</v>
@@ -7289,10 +7325,10 @@
         <v>1</v>
       </c>
       <c r="AK7">
-        <v>15000000</v>
+        <v>3850000</v>
       </c>
       <c r="AL7" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="AM7">
         <v>55</v>
@@ -7322,10 +7358,10 @@
         <v>1</v>
       </c>
       <c r="AV7">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="AW7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AX7">
         <v>55</v>
@@ -7355,7 +7391,7 @@
         <v>1</v>
       </c>
       <c r="BL7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BM7">
         <v>2</v>
@@ -7364,7 +7400,7 @@
         <v>9</v>
       </c>
       <c r="BO7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -7376,7 +7412,7 @@
         <v>1</v>
       </c>
       <c r="BV7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BW7">
         <v>2</v>
@@ -7385,7 +7421,7 @@
         <v>9</v>
       </c>
       <c r="BY7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BZ7">
         <v>0</v>
@@ -7397,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="CF7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CG7">
         <v>2</v>
@@ -7406,7 +7442,7 @@
         <v>9</v>
       </c>
       <c r="CI7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CJ7">
         <v>0</v>
@@ -7418,7 +7454,7 @@
         <v>1</v>
       </c>
       <c r="CO7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CP7">
         <v>0</v>
@@ -7430,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="DM7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="DN7">
         <v>0.05</v>
@@ -7445,10 +7481,10 @@
         <v>8</v>
       </c>
       <c r="DR7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DS7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DT7">
         <v>0</v>
@@ -7460,7 +7496,7 @@
         <v>1</v>
       </c>
       <c r="EC7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="ED7">
         <v>0</v>
@@ -7471,58 +7507,58 @@
       <c r="EF7" t="b">
         <v>1</v>
       </c>
-      <c r="EJ7" t="s">
-        <v>184</v>
-      </c>
       <c r="EK7" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL7">
+        <v>188</v>
+      </c>
+      <c r="EL7" t="s">
+        <v>198</v>
+      </c>
+      <c r="EM7">
         <v>96</v>
       </c>
-      <c r="EM7" t="s">
-        <v>195</v>
-      </c>
-      <c r="EN7">
-        <v>48</v>
-      </c>
-      <c r="EO7" t="s">
-        <v>179</v>
-      </c>
-      <c r="EP7">
-        <v>0</v>
+      <c r="EN7" t="s">
+        <v>199</v>
+      </c>
+      <c r="EO7">
+        <v>12</v>
+      </c>
+      <c r="EP7" t="s">
+        <v>181</v>
       </c>
       <c r="EQ7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="ER7">
+        <v>0</v>
+      </c>
+      <c r="ES7">
         <v>3600</v>
       </c>
-      <c r="ES7">
+      <c r="ET7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:149">
+    <row r="8" spans="1:150">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -7531,7 +7567,7 @@
         <v>2.6</v>
       </c>
       <c r="M8">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -7546,10 +7582,10 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>2012000</v>
+        <v>2532000</v>
       </c>
       <c r="S8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="T8" t="s">
         <v>162</v>
@@ -7594,13 +7630,13 @@
         <v>1</v>
       </c>
       <c r="AK8">
-        <v>15000000</v>
+        <v>3850000</v>
       </c>
       <c r="AL8" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="AM8">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN8" t="s">
         <v>162</v>
@@ -7630,7 +7666,7 @@
         <v>2400</v>
       </c>
       <c r="AW8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AX8">
         <v>55</v>
@@ -7660,7 +7696,7 @@
         <v>1</v>
       </c>
       <c r="BL8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BM8">
         <v>2</v>
@@ -7669,7 +7705,7 @@
         <v>9</v>
       </c>
       <c r="BO8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BP8">
         <v>0</v>
@@ -7681,7 +7717,7 @@
         <v>1</v>
       </c>
       <c r="BV8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BW8">
         <v>2</v>
@@ -7690,7 +7726,7 @@
         <v>9</v>
       </c>
       <c r="BY8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BZ8">
         <v>0</v>
@@ -7702,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="CF8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CG8">
         <v>2</v>
@@ -7711,7 +7747,7 @@
         <v>9</v>
       </c>
       <c r="CI8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CJ8">
         <v>0</v>
@@ -7723,7 +7759,7 @@
         <v>1</v>
       </c>
       <c r="CO8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CP8">
         <v>0</v>
@@ -7735,7 +7771,7 @@
         <v>1</v>
       </c>
       <c r="DM8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="DN8">
         <v>0.05</v>
@@ -7750,10 +7786,10 @@
         <v>8</v>
       </c>
       <c r="DR8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DS8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DT8">
         <v>0</v>
@@ -7765,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="EC8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="ED8">
         <v>0</v>
@@ -7776,46 +7812,46 @@
       <c r="EF8" t="b">
         <v>1</v>
       </c>
-      <c r="EJ8" t="s">
-        <v>184</v>
-      </c>
       <c r="EK8" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL8">
+        <v>188</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>198</v>
+      </c>
+      <c r="EM8">
         <v>96</v>
       </c>
-      <c r="EM8" t="s">
-        <v>195</v>
-      </c>
-      <c r="EN8">
-        <v>12</v>
-      </c>
-      <c r="EO8" t="s">
-        <v>179</v>
-      </c>
-      <c r="EP8">
-        <v>0</v>
+      <c r="EN8" t="s">
+        <v>199</v>
+      </c>
+      <c r="EO8">
+        <v>60</v>
+      </c>
+      <c r="EP8" t="s">
+        <v>181</v>
       </c>
       <c r="EQ8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="ER8">
+        <v>0</v>
+      </c>
+      <c r="ES8">
         <v>3600</v>
       </c>
-      <c r="ES8">
+      <c r="ET8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:149">
+    <row r="9" spans="1:150">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -7827,7 +7863,7 @@
         <v>4</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -7842,19 +7878,16 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="b">
         <v>1</v>
       </c>
       <c r="R9">
-        <v>2455000</v>
-      </c>
-      <c r="S9" t="s">
-        <v>222</v>
+        <v>14977000</v>
       </c>
       <c r="T9" t="s">
         <v>162</v>
@@ -7890,22 +7923,16 @@
         <v>163</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="b">
         <v>1</v>
       </c>
       <c r="AK9">
-        <v>15000000</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>229</v>
-      </c>
-      <c r="AM9">
-        <v>35</v>
+        <v>120000000</v>
       </c>
       <c r="AN9" t="s">
         <v>162</v>
@@ -7923,22 +7950,16 @@
         <v>90</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="b">
         <v>1</v>
       </c>
       <c r="AV9">
-        <v>2400</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>171</v>
-      </c>
-      <c r="AX9">
-        <v>55</v>
+        <v>22400</v>
       </c>
       <c r="AY9" t="s">
         <v>162</v>
@@ -7956,16 +7977,31 @@
         <v>90</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" t="b">
         <v>1</v>
       </c>
+      <c r="BG9">
+        <v>22000</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>232</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>40</v>
+      </c>
+      <c r="BK9" t="b">
+        <v>1</v>
+      </c>
       <c r="BL9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BM9">
         <v>2</v>
@@ -7974,7 +8010,7 @@
         <v>9</v>
       </c>
       <c r="BO9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -7986,7 +8022,7 @@
         <v>1</v>
       </c>
       <c r="BV9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BW9">
         <v>2</v>
@@ -7995,19 +8031,28 @@
         <v>9</v>
       </c>
       <c r="BY9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BZ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB9" t="b">
         <v>1</v>
       </c>
+      <c r="CC9">
+        <v>1800</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>233</v>
+      </c>
+      <c r="CE9" t="b">
+        <v>0</v>
+      </c>
       <c r="CF9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CG9">
         <v>2</v>
@@ -8016,7 +8061,7 @@
         <v>9</v>
       </c>
       <c r="CI9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CJ9">
         <v>0</v>
@@ -8028,129 +8073,114 @@
         <v>1</v>
       </c>
       <c r="CO9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CP9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR9" t="b">
         <v>1</v>
       </c>
-      <c r="CS9" t="s">
-        <v>186</v>
-      </c>
-      <c r="CT9">
-        <v>75000</v>
-      </c>
-      <c r="CU9">
-        <v>20000</v>
-      </c>
-      <c r="CV9">
-        <v>7200</v>
-      </c>
-      <c r="CW9">
-        <v>11000</v>
-      </c>
-      <c r="CX9">
-        <v>100000</v>
-      </c>
-      <c r="CY9">
-        <v>0.9</v>
-      </c>
-      <c r="CZ9">
-        <v>0.8</v>
-      </c>
-      <c r="DA9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DM9" t="s">
-        <v>241</v>
-      </c>
-      <c r="DN9">
-        <v>0.05</v>
-      </c>
-      <c r="DO9">
-        <v>0.5</v>
-      </c>
-      <c r="DP9">
-        <v>0.8</v>
-      </c>
-      <c r="DQ9">
-        <v>8</v>
-      </c>
       <c r="DR9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DS9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DT9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV9" t="b">
         <v>1</v>
       </c>
+      <c r="DW9">
+        <v>15000</v>
+      </c>
+      <c r="DX9">
+        <v>15000</v>
+      </c>
+      <c r="DY9">
+        <v>0.95</v>
+      </c>
+      <c r="DZ9">
+        <v>0.1</v>
+      </c>
+      <c r="EA9" t="b">
+        <v>0</v>
+      </c>
+      <c r="EB9" t="b">
+        <v>0</v>
+      </c>
       <c r="EC9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="ED9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF9" t="b">
         <v>1</v>
       </c>
-      <c r="EJ9" t="s">
-        <v>184</v>
+      <c r="EG9">
+        <v>60000</v>
+      </c>
+      <c r="EH9">
+        <v>120000</v>
+      </c>
+      <c r="EI9">
+        <v>0.95</v>
+      </c>
+      <c r="EJ9">
+        <v>0.1</v>
       </c>
       <c r="EK9" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL9">
+        <v>188</v>
+      </c>
+      <c r="EL9" t="s">
+        <v>198</v>
+      </c>
+      <c r="EM9">
         <v>96</v>
       </c>
-      <c r="EM9" t="s">
-        <v>195</v>
-      </c>
-      <c r="EN9">
-        <v>24</v>
-      </c>
-      <c r="EO9" t="s">
-        <v>179</v>
-      </c>
-      <c r="EP9">
-        <v>0</v>
+      <c r="EN9" t="s">
+        <v>199</v>
+      </c>
+      <c r="EO9">
+        <v>12</v>
+      </c>
+      <c r="EP9" t="s">
+        <v>181</v>
       </c>
       <c r="EQ9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="ER9">
+        <v>0</v>
+      </c>
+      <c r="ES9">
         <v>3600</v>
       </c>
-      <c r="ES9">
+      <c r="ET9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:149">
+    <row r="10" spans="1:150">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -8186,10 +8216,10 @@
         <v>1</v>
       </c>
       <c r="R10">
-        <v>1720000</v>
+        <v>2262000</v>
       </c>
       <c r="S10" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="T10" t="s">
         <v>162</v>
@@ -8237,7 +8267,7 @@
         <v>15000000</v>
       </c>
       <c r="AL10" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="AM10">
         <v>55</v>
@@ -8270,7 +8300,7 @@
         <v>2800</v>
       </c>
       <c r="AW10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AX10">
         <v>55</v>
@@ -8300,7 +8330,7 @@
         <v>1</v>
       </c>
       <c r="BL10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BM10">
         <v>2</v>
@@ -8309,7 +8339,7 @@
         <v>9</v>
       </c>
       <c r="BO10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BP10">
         <v>0</v>
@@ -8321,7 +8351,7 @@
         <v>1</v>
       </c>
       <c r="BV10" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BW10">
         <v>2</v>
@@ -8330,7 +8360,7 @@
         <v>9</v>
       </c>
       <c r="BY10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BZ10">
         <v>0</v>
@@ -8342,7 +8372,7 @@
         <v>1</v>
       </c>
       <c r="CF10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CG10">
         <v>2</v>
@@ -8351,7 +8381,7 @@
         <v>9</v>
       </c>
       <c r="CI10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CJ10">
         <v>0</v>
@@ -8363,7 +8393,7 @@
         <v>1</v>
       </c>
       <c r="CO10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CP10">
         <v>0</v>
@@ -8375,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="DM10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="DN10">
         <v>0.05</v>
@@ -8390,10 +8420,10 @@
         <v>8</v>
       </c>
       <c r="DR10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DS10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DT10">
         <v>0</v>
@@ -8405,7 +8435,7 @@
         <v>1</v>
       </c>
       <c r="EC10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="ED10">
         <v>0</v>
@@ -8416,58 +8446,58 @@
       <c r="EF10" t="b">
         <v>1</v>
       </c>
-      <c r="EJ10" t="s">
-        <v>184</v>
-      </c>
       <c r="EK10" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL10">
+        <v>188</v>
+      </c>
+      <c r="EL10" t="s">
+        <v>198</v>
+      </c>
+      <c r="EM10">
         <v>96</v>
       </c>
-      <c r="EM10" t="s">
-        <v>195</v>
-      </c>
-      <c r="EN10">
-        <v>60</v>
-      </c>
-      <c r="EO10" t="s">
-        <v>179</v>
-      </c>
-      <c r="EP10">
-        <v>30</v>
+      <c r="EN10" t="s">
+        <v>199</v>
+      </c>
+      <c r="EO10">
+        <v>48</v>
+      </c>
+      <c r="EP10" t="s">
+        <v>181</v>
       </c>
       <c r="EQ10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="ER10">
+        <v>0</v>
+      </c>
+      <c r="ES10">
         <v>3600</v>
       </c>
-      <c r="ES10">
+      <c r="ET10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:149">
+    <row r="11" spans="1:150">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F11" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -8476,22 +8506,25 @@
         <v>2.6</v>
       </c>
       <c r="M11">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="b">
         <v>1</v>
       </c>
       <c r="R11">
-        <v>12880000</v>
+        <v>1546000</v>
+      </c>
+      <c r="S11" t="s">
+        <v>222</v>
       </c>
       <c r="T11" t="s">
         <v>162</v>
@@ -8527,16 +8560,22 @@
         <v>163</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="b">
         <v>1</v>
       </c>
       <c r="AK11">
-        <v>23100000</v>
+        <v>15000000</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM11">
+        <v>55</v>
       </c>
       <c r="AN11" t="s">
         <v>162</v>
@@ -8554,16 +8593,22 @@
         <v>90</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="b">
         <v>1</v>
       </c>
       <c r="AV11">
-        <v>12600</v>
+        <v>2400</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX11">
+        <v>55</v>
       </c>
       <c r="AY11" t="s">
         <v>162</v>
@@ -8581,31 +8626,16 @@
         <v>90</v>
       </c>
       <c r="BD11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="b">
         <v>1</v>
       </c>
-      <c r="BG11">
-        <v>19000</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>232</v>
-      </c>
-      <c r="BI11">
-        <v>0</v>
-      </c>
-      <c r="BJ11">
-        <v>40</v>
-      </c>
-      <c r="BK11" t="b">
-        <v>1</v>
-      </c>
       <c r="BL11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BM11">
         <v>2</v>
@@ -8614,7 +8644,7 @@
         <v>9</v>
       </c>
       <c r="BO11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BP11">
         <v>0</v>
@@ -8626,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="BV11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BW11">
         <v>2</v>
@@ -8635,165 +8665,174 @@
         <v>9</v>
       </c>
       <c r="BY11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BZ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB11" t="b">
         <v>1</v>
       </c>
-      <c r="CC11">
-        <v>2800</v>
-      </c>
-      <c r="CD11" t="s">
+      <c r="CF11" t="s">
+        <v>180</v>
+      </c>
+      <c r="CG11">
+        <v>2</v>
+      </c>
+      <c r="CH11">
+        <v>9</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>188</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11" t="b">
+        <v>1</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>188</v>
+      </c>
+      <c r="CP11">
+        <v>1</v>
+      </c>
+      <c r="CQ11">
+        <v>1</v>
+      </c>
+      <c r="CR11" t="b">
+        <v>1</v>
+      </c>
+      <c r="CS11" t="s">
         <v>234</v>
       </c>
-      <c r="CE11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>178</v>
-      </c>
-      <c r="CG11">
-        <v>2</v>
-      </c>
-      <c r="CH11">
-        <v>9</v>
-      </c>
-      <c r="CI11" t="s">
-        <v>184</v>
-      </c>
-      <c r="CJ11">
-        <v>0</v>
-      </c>
-      <c r="CK11">
-        <v>0</v>
-      </c>
-      <c r="CL11" t="b">
-        <v>1</v>
-      </c>
-      <c r="CO11" t="s">
-        <v>184</v>
-      </c>
-      <c r="CP11">
-        <v>0</v>
-      </c>
-      <c r="CQ11">
-        <v>0</v>
-      </c>
-      <c r="CR11" t="b">
-        <v>1</v>
+      <c r="CT11">
+        <v>50000</v>
+      </c>
+      <c r="CU11">
+        <v>15000</v>
+      </c>
+      <c r="CV11">
+        <v>7200</v>
+      </c>
+      <c r="CW11">
+        <v>7200</v>
+      </c>
+      <c r="CX11">
+        <v>50000</v>
+      </c>
+      <c r="CY11">
+        <v>0.9</v>
+      </c>
+      <c r="CZ11">
+        <v>0.8</v>
+      </c>
+      <c r="DA11" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>239</v>
+      </c>
+      <c r="DN11">
+        <v>0.05</v>
+      </c>
+      <c r="DO11">
+        <v>0.5</v>
+      </c>
+      <c r="DP11">
+        <v>0.8</v>
+      </c>
+      <c r="DQ11">
+        <v>8</v>
       </c>
       <c r="DR11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DS11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DT11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV11" t="b">
         <v>1</v>
       </c>
-      <c r="DW11">
-        <v>13000</v>
-      </c>
-      <c r="DX11">
-        <v>13000</v>
-      </c>
-      <c r="DY11">
-        <v>0.95</v>
-      </c>
-      <c r="DZ11">
-        <v>0.1</v>
-      </c>
-      <c r="EA11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EB11" t="b">
-        <v>0</v>
-      </c>
       <c r="EC11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="ED11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="b">
         <v>1</v>
       </c>
-      <c r="EG11">
-        <v>23000</v>
-      </c>
-      <c r="EH11">
-        <v>0.95</v>
-      </c>
-      <c r="EI11">
-        <v>0.1</v>
-      </c>
-      <c r="EJ11" t="s">
-        <v>184</v>
-      </c>
       <c r="EK11" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL11">
+        <v>188</v>
+      </c>
+      <c r="EL11" t="s">
+        <v>198</v>
+      </c>
+      <c r="EM11">
         <v>96</v>
       </c>
-      <c r="EM11" t="s">
-        <v>195</v>
-      </c>
-      <c r="EN11">
-        <v>48</v>
-      </c>
-      <c r="EO11" t="s">
-        <v>179</v>
-      </c>
-      <c r="EP11">
-        <v>0</v>
+      <c r="EN11" t="s">
+        <v>199</v>
+      </c>
+      <c r="EO11">
+        <v>24</v>
+      </c>
+      <c r="EP11" t="s">
+        <v>181</v>
       </c>
       <c r="EQ11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="ER11">
+        <v>0</v>
+      </c>
+      <c r="ES11">
         <v>3600</v>
       </c>
-      <c r="ES11">
+      <c r="ET11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:149">
+    <row r="12" spans="1:150">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -8802,7 +8841,7 @@
         <v>2.6</v>
       </c>
       <c r="M12">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -8817,10 +8856,10 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <v>2262000</v>
+        <v>1416000</v>
       </c>
       <c r="S12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T12" t="s">
         <v>162</v>
@@ -8865,10 +8904,10 @@
         <v>1</v>
       </c>
       <c r="AK12">
-        <v>3850000</v>
+        <v>15000000</v>
       </c>
       <c r="AL12" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AM12">
         <v>55</v>
@@ -8898,7 +8937,7 @@
         <v>1</v>
       </c>
       <c r="AV12">
-        <v>2100</v>
+        <v>3200</v>
       </c>
       <c r="AW12" t="s">
         <v>172</v>
@@ -8931,7 +8970,7 @@
         <v>1</v>
       </c>
       <c r="BL12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BM12">
         <v>2</v>
@@ -8940,7 +8979,7 @@
         <v>9</v>
       </c>
       <c r="BO12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BP12">
         <v>0</v>
@@ -8952,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="BV12" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BW12">
         <v>2</v>
@@ -8961,7 +9000,7 @@
         <v>9</v>
       </c>
       <c r="BY12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BZ12">
         <v>0</v>
@@ -8973,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="CF12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CG12">
         <v>2</v>
@@ -8982,7 +9021,7 @@
         <v>9</v>
       </c>
       <c r="CI12" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CJ12">
         <v>0</v>
@@ -8994,19 +9033,79 @@
         <v>1</v>
       </c>
       <c r="CO12" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CP12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CR12" t="b">
         <v>1</v>
       </c>
+      <c r="CS12" t="s">
+        <v>235</v>
+      </c>
+      <c r="CT12">
+        <v>75000</v>
+      </c>
+      <c r="CU12">
+        <v>20000</v>
+      </c>
+      <c r="CV12">
+        <v>7200</v>
+      </c>
+      <c r="CW12">
+        <v>11000</v>
+      </c>
+      <c r="CX12">
+        <v>100000</v>
+      </c>
+      <c r="CY12">
+        <v>0.9</v>
+      </c>
+      <c r="CZ12">
+        <v>0.8</v>
+      </c>
+      <c r="DA12" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC12" t="s">
+        <v>236</v>
+      </c>
+      <c r="DD12">
+        <v>100000</v>
+      </c>
+      <c r="DE12">
+        <v>25000</v>
+      </c>
+      <c r="DF12">
+        <v>11000</v>
+      </c>
+      <c r="DG12">
+        <v>22000</v>
+      </c>
+      <c r="DH12">
+        <v>200000</v>
+      </c>
+      <c r="DI12">
+        <v>0.9</v>
+      </c>
+      <c r="DJ12">
+        <v>0.8</v>
+      </c>
+      <c r="DK12" t="b">
+        <v>0</v>
+      </c>
+      <c r="DL12" t="b">
+        <v>0</v>
+      </c>
       <c r="DM12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="DN12">
         <v>0.05</v>
@@ -9021,10 +9120,10 @@
         <v>8</v>
       </c>
       <c r="DR12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DS12" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DT12">
         <v>0</v>
@@ -9036,7 +9135,7 @@
         <v>1</v>
       </c>
       <c r="EC12" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="ED12">
         <v>0</v>
@@ -9047,58 +9146,58 @@
       <c r="EF12" t="b">
         <v>1</v>
       </c>
-      <c r="EJ12" t="s">
-        <v>184</v>
-      </c>
       <c r="EK12" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL12">
+        <v>188</v>
+      </c>
+      <c r="EL12" t="s">
+        <v>198</v>
+      </c>
+      <c r="EM12">
         <v>96</v>
       </c>
-      <c r="EM12" t="s">
-        <v>195</v>
-      </c>
-      <c r="EN12">
-        <v>60</v>
-      </c>
-      <c r="EO12" t="s">
-        <v>179</v>
-      </c>
-      <c r="EP12">
-        <v>0</v>
+      <c r="EN12" t="s">
+        <v>199</v>
+      </c>
+      <c r="EO12">
+        <v>48</v>
+      </c>
+      <c r="EP12" t="s">
+        <v>181</v>
       </c>
       <c r="EQ12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="ER12">
+        <v>0</v>
+      </c>
+      <c r="ES12">
         <v>3600</v>
       </c>
-      <c r="ES12">
+      <c r="ET12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:149">
+    <row r="13" spans="1:150">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F13" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -9107,7 +9206,7 @@
         <v>2.6</v>
       </c>
       <c r="M13">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -9122,10 +9221,10 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <v>2012000</v>
+        <v>2959000</v>
       </c>
       <c r="S13" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="T13" t="s">
         <v>162</v>
@@ -9170,13 +9269,13 @@
         <v>1</v>
       </c>
       <c r="AK13">
-        <v>3850000</v>
+        <v>15000000</v>
       </c>
       <c r="AL13" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="AM13">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AN13" t="s">
         <v>162</v>
@@ -9203,10 +9302,10 @@
         <v>1</v>
       </c>
       <c r="AV13">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="AW13" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AX13">
         <v>55</v>
@@ -9236,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="BL13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BM13">
         <v>2</v>
@@ -9245,7 +9344,7 @@
         <v>9</v>
       </c>
       <c r="BO13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BP13">
         <v>0</v>
@@ -9257,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="BV13" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BW13">
         <v>2</v>
@@ -9266,7 +9365,7 @@
         <v>9</v>
       </c>
       <c r="BY13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BZ13">
         <v>0</v>
@@ -9278,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="CF13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CG13">
         <v>2</v>
@@ -9287,7 +9386,7 @@
         <v>9</v>
       </c>
       <c r="CI13" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CJ13">
         <v>0</v>
@@ -9299,7 +9398,7 @@
         <v>1</v>
       </c>
       <c r="CO13" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CP13">
         <v>0</v>
@@ -9311,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="DM13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="DN13">
         <v>0.05</v>
@@ -9326,10 +9425,10 @@
         <v>8</v>
       </c>
       <c r="DR13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DS13" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DT13">
         <v>0</v>
@@ -9341,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="EC13" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="ED13">
         <v>0</v>
@@ -9352,58 +9451,58 @@
       <c r="EF13" t="b">
         <v>1</v>
       </c>
-      <c r="EJ13" t="s">
-        <v>184</v>
-      </c>
       <c r="EK13" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL13">
+        <v>188</v>
+      </c>
+      <c r="EL13" t="s">
+        <v>198</v>
+      </c>
+      <c r="EM13">
         <v>96</v>
       </c>
-      <c r="EM13" t="s">
-        <v>195</v>
-      </c>
-      <c r="EN13">
-        <v>12</v>
-      </c>
-      <c r="EO13" t="s">
-        <v>179</v>
-      </c>
-      <c r="EP13">
+      <c r="EN13" t="s">
+        <v>199</v>
+      </c>
+      <c r="EO13">
+        <v>24</v>
+      </c>
+      <c r="EP13" t="s">
+        <v>181</v>
+      </c>
+      <c r="EQ13">
         <v>20</v>
       </c>
-      <c r="EQ13">
-        <v>0</v>
-      </c>
       <c r="ER13">
+        <v>0</v>
+      </c>
+      <c r="ES13">
         <v>3600</v>
       </c>
-      <c r="ES13">
+      <c r="ET13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:149">
+    <row r="14" spans="1:150">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F14" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -9412,7 +9511,7 @@
         <v>2.6</v>
       </c>
       <c r="M14">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -9427,10 +9526,10 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>1009000</v>
+        <v>1266000</v>
       </c>
       <c r="S14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="T14" t="s">
         <v>162</v>
@@ -9475,7 +9574,7 @@
         <v>1</v>
       </c>
       <c r="AK14">
-        <v>3850000</v>
+        <v>15000000</v>
       </c>
       <c r="AL14" t="s">
         <v>228</v>
@@ -9508,10 +9607,10 @@
         <v>1</v>
       </c>
       <c r="AV14">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="AW14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AX14">
         <v>55</v>
@@ -9541,7 +9640,7 @@
         <v>1</v>
       </c>
       <c r="BL14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BM14">
         <v>2</v>
@@ -9550,7 +9649,7 @@
         <v>9</v>
       </c>
       <c r="BO14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BP14">
         <v>0</v>
@@ -9562,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="BV14" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BW14">
         <v>2</v>
@@ -9571,7 +9670,7 @@
         <v>9</v>
       </c>
       <c r="BY14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BZ14">
         <v>0</v>
@@ -9583,7 +9682,7 @@
         <v>1</v>
       </c>
       <c r="CF14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CG14">
         <v>2</v>
@@ -9592,7 +9691,7 @@
         <v>9</v>
       </c>
       <c r="CI14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CJ14">
         <v>0</v>
@@ -9604,7 +9703,7 @@
         <v>1</v>
       </c>
       <c r="CO14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CP14">
         <v>0</v>
@@ -9631,10 +9730,10 @@
         <v>8</v>
       </c>
       <c r="DR14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DS14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DT14">
         <v>0</v>
@@ -9646,7 +9745,7 @@
         <v>1</v>
       </c>
       <c r="EC14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="ED14">
         <v>0</v>
@@ -9657,58 +9756,58 @@
       <c r="EF14" t="b">
         <v>1</v>
       </c>
-      <c r="EJ14" t="s">
-        <v>184</v>
-      </c>
       <c r="EK14" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL14">
+        <v>188</v>
+      </c>
+      <c r="EL14" t="s">
+        <v>198</v>
+      </c>
+      <c r="EM14">
         <v>96</v>
       </c>
-      <c r="EM14" t="s">
-        <v>195</v>
-      </c>
-      <c r="EN14">
-        <v>12</v>
-      </c>
-      <c r="EO14" t="s">
-        <v>179</v>
-      </c>
-      <c r="EP14">
-        <v>10</v>
+      <c r="EN14" t="s">
+        <v>199</v>
+      </c>
+      <c r="EO14">
+        <v>60</v>
+      </c>
+      <c r="EP14" t="s">
+        <v>181</v>
       </c>
       <c r="EQ14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="ER14">
+        <v>0</v>
+      </c>
+      <c r="ES14">
         <v>3600</v>
       </c>
-      <c r="ES14">
+      <c r="ET14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:149">
+    <row r="15" spans="1:150">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F15" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -9717,7 +9816,7 @@
         <v>2.6</v>
       </c>
       <c r="M15">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -9732,10 +9831,10 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>2455000</v>
+        <v>1720000</v>
       </c>
       <c r="S15" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="T15" t="s">
         <v>162</v>
@@ -9780,10 +9879,10 @@
         <v>1</v>
       </c>
       <c r="AK15">
-        <v>3850000</v>
+        <v>15000000</v>
       </c>
       <c r="AL15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM15">
         <v>55</v>
@@ -9813,10 +9912,10 @@
         <v>1</v>
       </c>
       <c r="AV15">
-        <v>2100</v>
+        <v>3200</v>
       </c>
       <c r="AW15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AX15">
         <v>55</v>
@@ -9846,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="BL15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BM15">
         <v>2</v>
@@ -9855,7 +9954,7 @@
         <v>9</v>
       </c>
       <c r="BO15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BP15">
         <v>0</v>
@@ -9867,7 +9966,7 @@
         <v>1</v>
       </c>
       <c r="BV15" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BW15">
         <v>2</v>
@@ -9876,7 +9975,7 @@
         <v>9</v>
       </c>
       <c r="BY15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BZ15">
         <v>0</v>
@@ -9888,7 +9987,7 @@
         <v>1</v>
       </c>
       <c r="CF15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CG15">
         <v>2</v>
@@ -9897,7 +9996,7 @@
         <v>9</v>
       </c>
       <c r="CI15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CJ15">
         <v>0</v>
@@ -9909,49 +10008,19 @@
         <v>1</v>
       </c>
       <c r="CO15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CP15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR15" t="b">
         <v>1</v>
       </c>
-      <c r="CS15" t="s">
-        <v>235</v>
-      </c>
-      <c r="CT15">
-        <v>50000</v>
-      </c>
-      <c r="CU15">
-        <v>15000</v>
-      </c>
-      <c r="CV15">
-        <v>7200</v>
-      </c>
-      <c r="CW15">
-        <v>7200</v>
-      </c>
-      <c r="CX15">
-        <v>50000</v>
-      </c>
-      <c r="CY15">
-        <v>0.9</v>
-      </c>
-      <c r="CZ15">
-        <v>0.8</v>
-      </c>
-      <c r="DA15" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB15" t="b">
-        <v>0</v>
-      </c>
       <c r="DM15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="DN15">
         <v>0.05</v>
@@ -9966,10 +10035,10 @@
         <v>8</v>
       </c>
       <c r="DR15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DS15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DT15">
         <v>0</v>
@@ -9981,7 +10050,7 @@
         <v>1</v>
       </c>
       <c r="EC15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="ED15">
         <v>0</v>
@@ -9992,58 +10061,58 @@
       <c r="EF15" t="b">
         <v>1</v>
       </c>
-      <c r="EJ15" t="s">
-        <v>184</v>
-      </c>
       <c r="EK15" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL15">
+        <v>188</v>
+      </c>
+      <c r="EL15" t="s">
+        <v>198</v>
+      </c>
+      <c r="EM15">
         <v>96</v>
       </c>
-      <c r="EM15" t="s">
-        <v>195</v>
-      </c>
-      <c r="EN15">
+      <c r="EN15" t="s">
+        <v>199</v>
+      </c>
+      <c r="EO15">
         <v>12</v>
       </c>
-      <c r="EO15" t="s">
-        <v>179</v>
-      </c>
-      <c r="EP15">
-        <v>0</v>
+      <c r="EP15" t="s">
+        <v>181</v>
       </c>
       <c r="EQ15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="ER15">
+        <v>0</v>
+      </c>
+      <c r="ES15">
         <v>3600</v>
       </c>
-      <c r="ES15">
+      <c r="ET15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:149">
+    <row r="16" spans="1:150">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -10052,7 +10121,7 @@
         <v>2.6</v>
       </c>
       <c r="M16">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -10067,7 +10136,7 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <v>2455000</v>
+        <v>1546000</v>
       </c>
       <c r="S16" t="s">
         <v>222</v>
@@ -10115,13 +10184,13 @@
         <v>1</v>
       </c>
       <c r="AK16">
-        <v>3850000</v>
+        <v>15000000</v>
       </c>
       <c r="AL16" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="AM16">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN16" t="s">
         <v>162</v>
@@ -10148,10 +10217,10 @@
         <v>1</v>
       </c>
       <c r="AV16">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="AW16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AX16">
         <v>55</v>
@@ -10181,7 +10250,7 @@
         <v>1</v>
       </c>
       <c r="BL16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BM16">
         <v>2</v>
@@ -10190,7 +10259,7 @@
         <v>9</v>
       </c>
       <c r="BO16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BP16">
         <v>0</v>
@@ -10202,7 +10271,7 @@
         <v>1</v>
       </c>
       <c r="BV16" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BW16">
         <v>2</v>
@@ -10211,7 +10280,7 @@
         <v>9</v>
       </c>
       <c r="BY16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BZ16">
         <v>0</v>
@@ -10223,7 +10292,7 @@
         <v>1</v>
       </c>
       <c r="CF16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CG16">
         <v>2</v>
@@ -10232,7 +10301,7 @@
         <v>9</v>
       </c>
       <c r="CI16" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CJ16">
         <v>0</v>
@@ -10244,49 +10313,19 @@
         <v>1</v>
       </c>
       <c r="CO16" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CP16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR16" t="b">
         <v>1</v>
       </c>
-      <c r="CS16" t="s">
-        <v>236</v>
-      </c>
-      <c r="CT16">
-        <v>75000</v>
-      </c>
-      <c r="CU16">
-        <v>20000</v>
-      </c>
-      <c r="CV16">
-        <v>7200</v>
-      </c>
-      <c r="CW16">
-        <v>11000</v>
-      </c>
-      <c r="CX16">
-        <v>100000</v>
-      </c>
-      <c r="CY16">
-        <v>0.9</v>
-      </c>
-      <c r="CZ16">
-        <v>0.8</v>
-      </c>
-      <c r="DA16" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB16" t="b">
-        <v>0</v>
-      </c>
       <c r="DM16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="DN16">
         <v>0.05</v>
@@ -10301,10 +10340,10 @@
         <v>8</v>
       </c>
       <c r="DR16" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DS16" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DT16">
         <v>0</v>
@@ -10316,7 +10355,7 @@
         <v>1</v>
       </c>
       <c r="EC16" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="ED16">
         <v>0</v>
@@ -10327,58 +10366,58 @@
       <c r="EF16" t="b">
         <v>1</v>
       </c>
-      <c r="EJ16" t="s">
-        <v>184</v>
-      </c>
       <c r="EK16" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL16">
+        <v>188</v>
+      </c>
+      <c r="EL16" t="s">
+        <v>198</v>
+      </c>
+      <c r="EM16">
         <v>96</v>
       </c>
-      <c r="EM16" t="s">
-        <v>195</v>
-      </c>
-      <c r="EN16">
-        <v>36</v>
-      </c>
-      <c r="EO16" t="s">
-        <v>179</v>
-      </c>
-      <c r="EP16">
-        <v>10</v>
+      <c r="EN16" t="s">
+        <v>199</v>
+      </c>
+      <c r="EO16">
+        <v>24</v>
+      </c>
+      <c r="EP16" t="s">
+        <v>181</v>
       </c>
       <c r="EQ16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="ER16">
+        <v>0</v>
+      </c>
+      <c r="ES16">
         <v>3600</v>
       </c>
-      <c r="ES16">
+      <c r="ET16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:149">
+    <row r="17" spans="1:150">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F17" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -10387,7 +10426,7 @@
         <v>2.6</v>
       </c>
       <c r="M17">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -10402,10 +10441,10 @@
         <v>1</v>
       </c>
       <c r="R17">
-        <v>2687000</v>
+        <v>2262000</v>
       </c>
       <c r="S17" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="T17" t="s">
         <v>162</v>
@@ -10450,10 +10489,10 @@
         <v>1</v>
       </c>
       <c r="AK17">
-        <v>3850000</v>
+        <v>15000000</v>
       </c>
       <c r="AL17" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="AM17">
         <v>55</v>
@@ -10483,10 +10522,10 @@
         <v>1</v>
       </c>
       <c r="AV17">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="AW17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AX17">
         <v>55</v>
@@ -10516,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="BL17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BM17">
         <v>2</v>
@@ -10525,7 +10564,7 @@
         <v>9</v>
       </c>
       <c r="BO17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BP17">
         <v>0</v>
@@ -10537,7 +10576,7 @@
         <v>1</v>
       </c>
       <c r="BV17" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BW17">
         <v>2</v>
@@ -10546,7 +10585,7 @@
         <v>9</v>
       </c>
       <c r="BY17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BZ17">
         <v>0</v>
@@ -10558,7 +10597,7 @@
         <v>1</v>
       </c>
       <c r="CF17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CG17">
         <v>2</v>
@@ -10567,7 +10606,7 @@
         <v>9</v>
       </c>
       <c r="CI17" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CJ17">
         <v>0</v>
@@ -10579,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="CO17" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CP17">
         <v>0</v>
@@ -10591,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="DM17" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="DN17">
         <v>0.05</v>
@@ -10606,10 +10645,10 @@
         <v>8</v>
       </c>
       <c r="DR17" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DS17" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DT17">
         <v>0</v>
@@ -10621,7 +10660,7 @@
         <v>1</v>
       </c>
       <c r="EC17" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="ED17">
         <v>0</v>
@@ -10632,34 +10671,34 @@
       <c r="EF17" t="b">
         <v>1</v>
       </c>
-      <c r="EJ17" t="s">
-        <v>184</v>
-      </c>
       <c r="EK17" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL17">
+        <v>188</v>
+      </c>
+      <c r="EL17" t="s">
+        <v>198</v>
+      </c>
+      <c r="EM17">
         <v>96</v>
       </c>
-      <c r="EM17" t="s">
-        <v>195</v>
-      </c>
-      <c r="EN17">
-        <v>12</v>
-      </c>
-      <c r="EO17" t="s">
-        <v>179</v>
-      </c>
-      <c r="EP17">
-        <v>0</v>
+      <c r="EN17" t="s">
+        <v>199</v>
+      </c>
+      <c r="EO17">
+        <v>48</v>
+      </c>
+      <c r="EP17" t="s">
+        <v>181</v>
       </c>
       <c r="EQ17">
         <v>0</v>
       </c>
       <c r="ER17">
+        <v>0</v>
+      </c>
+      <c r="ES17">
         <v>3600</v>
       </c>
-      <c r="ES17">
+      <c r="ET17">
         <v>0</v>
       </c>
     </row>
@@ -10945,31 +10984,31 @@
         <v>128</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:99">
@@ -10983,7 +11022,7 @@
         <v>249</v>
       </c>
       <c r="G2">
-        <v>194</v>
+        <v>513</v>
       </c>
       <c r="H2">
         <v>96</v>
@@ -11001,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7270000</v>
+        <v>14140000</v>
       </c>
       <c r="N2" t="s">
         <v>251</v>
@@ -11052,22 +11091,22 @@
         <v>1</v>
       </c>
       <c r="AF2">
-        <v>3450000</v>
+        <v>7150000</v>
       </c>
       <c r="AG2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AH2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="b">
         <v>1</v>
       </c>
       <c r="AK2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AL2">
         <v>2</v>
@@ -11076,7 +11115,7 @@
         <v>9</v>
       </c>
       <c r="AN2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -11088,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="AU2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AV2">
         <v>2</v>
@@ -11097,7 +11136,7 @@
         <v>9</v>
       </c>
       <c r="AX2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AY2">
         <v>0</v>
@@ -11109,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="BE2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BF2">
         <v>2</v>
@@ -11118,7 +11157,7 @@
         <v>9</v>
       </c>
       <c r="BH2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -11130,10 +11169,10 @@
         <v>1</v>
       </c>
       <c r="CA2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="CB2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CC2">
         <v>1</v>
@@ -11142,13 +11181,13 @@
         <v>1</v>
       </c>
       <c r="CE2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CF2">
-        <v>7300</v>
+        <v>14000</v>
       </c>
       <c r="CG2">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="CH2">
         <v>0.95</v>
@@ -11163,25 +11202,25 @@
         <v>0</v>
       </c>
       <c r="CL2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CM2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="CN2">
         <v>96</v>
       </c>
       <c r="CO2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CP2">
         <v>60</v>
       </c>
       <c r="CQ2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CR2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CS2">
         <v>0</v>
@@ -11204,7 +11243,7 @@
         <v>249</v>
       </c>
       <c r="G3">
-        <v>204</v>
+        <v>473</v>
       </c>
       <c r="H3">
         <v>96</v>
@@ -11222,7 +11261,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8040000</v>
+        <v>13450000</v>
       </c>
       <c r="N3" t="s">
         <v>251</v>
@@ -11264,16 +11303,31 @@
         <v>163</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="b">
         <v>1</v>
       </c>
+      <c r="AF3">
+        <v>7500000</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>40</v>
+      </c>
+      <c r="AJ3" t="b">
+        <v>1</v>
+      </c>
       <c r="AK3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AL3">
         <v>2</v>
@@ -11282,7 +11336,7 @@
         <v>9</v>
       </c>
       <c r="AN3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -11294,7 +11348,7 @@
         <v>1</v>
       </c>
       <c r="AU3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AV3">
         <v>2</v>
@@ -11303,7 +11357,7 @@
         <v>9</v>
       </c>
       <c r="AX3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AY3">
         <v>0</v>
@@ -11315,7 +11369,7 @@
         <v>1</v>
       </c>
       <c r="BE3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BF3">
         <v>2</v>
@@ -11324,94 +11378,67 @@
         <v>9</v>
       </c>
       <c r="BH3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="BI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="b">
         <v>1</v>
       </c>
-      <c r="BL3" t="s">
-        <v>187</v>
-      </c>
-      <c r="BM3">
-        <v>75000</v>
-      </c>
-      <c r="BN3">
-        <v>25000</v>
-      </c>
-      <c r="BO3">
-        <v>11000</v>
-      </c>
-      <c r="BP3">
-        <v>22000</v>
-      </c>
-      <c r="BQ3">
-        <v>200000</v>
-      </c>
-      <c r="BR3">
-        <v>0.9</v>
-      </c>
-      <c r="BS3">
-        <v>0.8</v>
-      </c>
-      <c r="BT3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>191</v>
-      </c>
-      <c r="BW3">
-        <v>0.05</v>
-      </c>
-      <c r="BX3">
-        <v>0.5</v>
-      </c>
-      <c r="BY3">
-        <v>0.8</v>
-      </c>
-      <c r="BZ3">
-        <v>8</v>
-      </c>
       <c r="CA3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="CB3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE3" t="s">
-        <v>193</v>
+        <v>197</v>
+      </c>
+      <c r="CF3">
+        <v>13000</v>
+      </c>
+      <c r="CG3">
+        <v>13000</v>
+      </c>
+      <c r="CH3">
+        <v>0.95</v>
+      </c>
+      <c r="CI3">
+        <v>0.1</v>
+      </c>
+      <c r="CJ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="b">
+        <v>0</v>
       </c>
       <c r="CL3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CM3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="CN3">
         <v>96</v>
       </c>
       <c r="CO3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CP3">
         <v>60</v>
       </c>
       <c r="CQ3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CR3">
         <v>0</v>
@@ -11437,7 +11464,7 @@
         <v>250</v>
       </c>
       <c r="G4">
-        <v>534</v>
+        <v>200</v>
       </c>
       <c r="H4">
         <v>96</v>
@@ -11455,7 +11482,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16300000</v>
+        <v>8600000</v>
       </c>
       <c r="N4" t="s">
         <v>252</v>
@@ -11497,31 +11524,16 @@
         <v>163</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>1</v>
       </c>
-      <c r="AF4">
-        <v>6660000</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>40</v>
-      </c>
-      <c r="AJ4" t="b">
-        <v>1</v>
-      </c>
       <c r="AK4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AL4">
         <v>2</v>
@@ -11530,7 +11542,7 @@
         <v>9</v>
       </c>
       <c r="AN4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -11542,7 +11554,7 @@
         <v>1</v>
       </c>
       <c r="AU4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AV4">
         <v>2</v>
@@ -11551,7 +11563,7 @@
         <v>9</v>
       </c>
       <c r="AX4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AY4">
         <v>0</v>
@@ -11563,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="BE4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BF4">
         <v>2</v>
@@ -11572,67 +11584,94 @@
         <v>9</v>
       </c>
       <c r="BH4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK4" t="b">
         <v>1</v>
       </c>
+      <c r="BL4" t="s">
+        <v>254</v>
+      </c>
+      <c r="BM4">
+        <v>75000</v>
+      </c>
+      <c r="BN4">
+        <v>25000</v>
+      </c>
+      <c r="BO4">
+        <v>11000</v>
+      </c>
+      <c r="BP4">
+        <v>22000</v>
+      </c>
+      <c r="BQ4">
+        <v>200000</v>
+      </c>
+      <c r="BR4">
+        <v>0.9</v>
+      </c>
+      <c r="BS4">
+        <v>0.8</v>
+      </c>
+      <c r="BT4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BW4">
+        <v>0.05</v>
+      </c>
+      <c r="BX4">
+        <v>0.5</v>
+      </c>
+      <c r="BY4">
+        <v>0.8</v>
+      </c>
+      <c r="BZ4">
+        <v>8</v>
+      </c>
       <c r="CA4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="CB4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="s">
-        <v>193</v>
-      </c>
-      <c r="CF4">
-        <v>16300</v>
-      </c>
-      <c r="CG4">
-        <v>16000</v>
-      </c>
-      <c r="CH4">
-        <v>0.95</v>
-      </c>
-      <c r="CI4">
-        <v>0.1</v>
-      </c>
-      <c r="CJ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="CK4" t="b">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="CL4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CM4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="CN4">
         <v>96</v>
       </c>
       <c r="CO4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CP4">
         <v>12</v>
       </c>
       <c r="CQ4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CR4">
         <v>0</v>
@@ -11658,7 +11697,7 @@
         <v>250</v>
       </c>
       <c r="G5">
-        <v>507</v>
+        <v>196</v>
       </c>
       <c r="H5">
         <v>96</v>
@@ -11676,7 +11715,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14620000</v>
+        <v>8000000</v>
       </c>
       <c r="N5" t="s">
         <v>252</v>
@@ -11727,7 +11766,7 @@
         <v>1</v>
       </c>
       <c r="AK5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AL5">
         <v>2</v>
@@ -11736,7 +11775,7 @@
         <v>9</v>
       </c>
       <c r="AN5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -11748,7 +11787,7 @@
         <v>1</v>
       </c>
       <c r="AU5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AV5">
         <v>2</v>
@@ -11757,7 +11796,7 @@
         <v>9</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AY5">
         <v>0</v>
@@ -11769,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="BE5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BF5">
         <v>2</v>
@@ -11778,22 +11817,67 @@
         <v>9</v>
       </c>
       <c r="BH5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5" t="b">
         <v>1</v>
       </c>
+      <c r="BL5" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM5">
+        <v>75000</v>
+      </c>
+      <c r="BN5">
+        <v>25000</v>
+      </c>
+      <c r="BO5">
+        <v>11000</v>
+      </c>
+      <c r="BP5">
+        <v>22000</v>
+      </c>
+      <c r="BQ5">
+        <v>200000</v>
+      </c>
+      <c r="BR5">
+        <v>0.9</v>
+      </c>
+      <c r="BS5">
+        <v>0.8</v>
+      </c>
+      <c r="BT5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BW5">
+        <v>0.05</v>
+      </c>
+      <c r="BX5">
+        <v>0.5</v>
+      </c>
+      <c r="BY5">
+        <v>0.8</v>
+      </c>
+      <c r="BZ5">
+        <v>8</v>
+      </c>
       <c r="CA5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="CB5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CC5">
         <v>0</v>
@@ -11802,28 +11886,28 @@
         <v>0</v>
       </c>
       <c r="CE5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CL5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CM5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="CN5">
         <v>96</v>
       </c>
       <c r="CO5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CP5">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="CQ5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CR5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="CS5">
         <v>0</v>
@@ -12147,31 +12231,31 @@
         <v>128</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:109">
@@ -12179,13 +12263,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G2">
-        <v>1728</v>
+        <v>4996</v>
       </c>
       <c r="H2">
         <v>96</v>
@@ -12203,10 +12287,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>668800000</v>
+        <v>1243200000</v>
       </c>
       <c r="N2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O2" t="s">
         <v>162</v>
@@ -12230,7 +12314,7 @@
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y2" t="s">
         <v>162</v>
@@ -12245,16 +12329,31 @@
         <v>163</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="b">
         <v>1</v>
       </c>
+      <c r="AF2">
+        <v>1723000000</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>40</v>
+      </c>
+      <c r="AJ2" t="b">
+        <v>1</v>
+      </c>
       <c r="AK2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AL2">
         <v>2</v>
@@ -12263,7 +12362,7 @@
         <v>9</v>
       </c>
       <c r="AN2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -12275,7 +12374,7 @@
         <v>1</v>
       </c>
       <c r="AU2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AV2">
         <v>2</v>
@@ -12284,7 +12383,7 @@
         <v>9</v>
       </c>
       <c r="AX2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AY2">
         <v>0</v>
@@ -12296,7 +12395,7 @@
         <v>1</v>
       </c>
       <c r="BE2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BF2">
         <v>2</v>
@@ -12305,7 +12404,7 @@
         <v>9</v>
       </c>
       <c r="BH2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -12317,10 +12416,10 @@
         <v>1</v>
       </c>
       <c r="CK2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="CL2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CM2">
         <v>0</v>
@@ -12329,28 +12428,28 @@
         <v>0</v>
       </c>
       <c r="CO2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CV2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CW2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="CX2">
         <v>96</v>
       </c>
       <c r="CY2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CZ2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="DA2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DB2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="DC2">
         <v>0</v>
@@ -12367,13 +12466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G3">
-        <v>4962</v>
+        <v>1686</v>
       </c>
       <c r="H3">
         <v>96</v>
@@ -12391,10 +12490,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1130100000</v>
+        <v>594600000</v>
       </c>
       <c r="N3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O3" t="s">
         <v>162</v>
@@ -12418,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Y3" t="s">
         <v>162</v>
@@ -12442,22 +12541,22 @@
         <v>1</v>
       </c>
       <c r="AF3">
-        <v>1418000000</v>
+        <v>1045000000</v>
       </c>
       <c r="AG3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AI3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="b">
         <v>1</v>
       </c>
       <c r="AK3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AL3">
         <v>2</v>
@@ -12466,19 +12565,28 @@
         <v>9</v>
       </c>
       <c r="AN3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="b">
         <v>1</v>
       </c>
+      <c r="AR3">
+        <v>70600000</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT3" t="b">
+        <v>1</v>
+      </c>
       <c r="AU3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AV3">
         <v>2</v>
@@ -12487,7 +12595,7 @@
         <v>9</v>
       </c>
       <c r="AX3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AY3">
         <v>0</v>
@@ -12499,7 +12607,7 @@
         <v>1</v>
       </c>
       <c r="BE3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BF3">
         <v>2</v>
@@ -12508,67 +12616,22 @@
         <v>9</v>
       </c>
       <c r="BH3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="BI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="b">
         <v>1</v>
       </c>
-      <c r="BL3" t="s">
-        <v>259</v>
-      </c>
-      <c r="BM3">
-        <v>500000</v>
-      </c>
-      <c r="BN3">
-        <v>20000</v>
-      </c>
-      <c r="BO3">
-        <v>7200</v>
-      </c>
-      <c r="BP3">
-        <v>11000</v>
-      </c>
-      <c r="BQ3">
-        <v>100000</v>
-      </c>
-      <c r="BR3">
-        <v>0.9</v>
-      </c>
-      <c r="BS3">
-        <v>0.8</v>
-      </c>
-      <c r="BT3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>260</v>
-      </c>
-      <c r="CG3">
-        <v>0.05</v>
-      </c>
-      <c r="CH3">
-        <v>0.5</v>
-      </c>
-      <c r="CI3">
-        <v>0.8</v>
-      </c>
-      <c r="CJ3">
-        <v>8</v>
-      </c>
       <c r="CK3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="CL3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CM3">
         <v>0</v>
@@ -12577,25 +12640,25 @@
         <v>0</v>
       </c>
       <c r="CO3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CV3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CW3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="CX3">
         <v>96</v>
       </c>
       <c r="CY3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CZ3">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="DA3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DB3">
         <v>0</v>
@@ -12769,25 +12832,25 @@
         <v>128</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:56">
@@ -12813,10 +12876,10 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>70900000</v>
+        <v>57600000</v>
       </c>
       <c r="L2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M2">
         <v>20</v>
@@ -12828,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -12837,7 +12900,7 @@
         <v>9</v>
       </c>
       <c r="S2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AN2">
         <v>1</v>
@@ -12849,10 +12912,10 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>35450000</v>
+        <v>28800000</v>
       </c>
       <c r="AR2">
-        <v>70900000</v>
+        <v>57600000</v>
       </c>
       <c r="AS2">
         <v>0.95</v>
@@ -12867,16 +12930,16 @@
         <v>1</v>
       </c>
       <c r="AW2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AX2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AY2">
         <v>96</v>
       </c>
       <c r="AZ2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BA2">
         <v>36</v>
@@ -12914,10 +12977,10 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>39800000</v>
+        <v>31900000</v>
       </c>
       <c r="L3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M3">
         <v>-20</v>
@@ -12929,7 +12992,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -12938,7 +13001,7 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -12950,10 +13013,10 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>19900000</v>
+        <v>15950000</v>
       </c>
       <c r="AR3">
-        <v>39800000</v>
+        <v>31900000</v>
       </c>
       <c r="AS3">
         <v>0.95</v>
@@ -12968,19 +13031,19 @@
         <v>1</v>
       </c>
       <c r="AW3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AX3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AY3">
         <v>96</v>
       </c>
       <c r="AZ3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BA3">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="BB3">
         <v>0</v>
@@ -13015,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>15400000</v>
+        <v>16800000</v>
       </c>
       <c r="L4" t="s">
         <v>232</v>
@@ -13030,7 +13093,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -13039,7 +13102,7 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AN4">
         <v>1</v>
@@ -13051,10 +13114,10 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>7700000</v>
+        <v>8400000</v>
       </c>
       <c r="AR4">
-        <v>15400000</v>
+        <v>16800000</v>
       </c>
       <c r="AS4">
         <v>0.95</v>
@@ -13069,19 +13132,19 @@
         <v>1</v>
       </c>
       <c r="AW4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AX4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AY4">
         <v>96</v>
       </c>
       <c r="AZ4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BA4">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="BB4">
         <v>0</v>
@@ -13116,10 +13179,10 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>14300000</v>
+        <v>16900000</v>
       </c>
       <c r="L5" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -13131,7 +13194,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -13140,7 +13203,7 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AN5">
         <v>1</v>
@@ -13152,10 +13215,10 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>7150000</v>
+        <v>8450000</v>
       </c>
       <c r="AR5">
-        <v>14300000</v>
+        <v>16900000</v>
       </c>
       <c r="AS5">
         <v>0.95</v>
@@ -13170,19 +13233,19 @@
         <v>1</v>
       </c>
       <c r="AW5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AX5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AY5">
         <v>96</v>
       </c>
       <c r="AZ5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BA5">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -13217,16 +13280,16 @@
         <v>1</v>
       </c>
       <c r="AG6">
-        <v>38500</v>
+        <v>20000</v>
       </c>
       <c r="AH6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AI6" t="b">
         <v>1</v>
       </c>
       <c r="AJ6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AK6">
         <v>2</v>
@@ -13235,7 +13298,7 @@
         <v>9</v>
       </c>
       <c r="AM6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -13247,19 +13310,19 @@
         <v>1</v>
       </c>
       <c r="AW6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AX6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AY6">
         <v>96</v>
       </c>
       <c r="AZ6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BA6">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -13294,16 +13357,16 @@
         <v>1</v>
       </c>
       <c r="AG7">
-        <v>20000</v>
+        <v>41400</v>
       </c>
       <c r="AH7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AI7" t="b">
         <v>1</v>
       </c>
       <c r="AJ7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AK7">
         <v>2</v>
@@ -13312,7 +13375,7 @@
         <v>9</v>
       </c>
       <c r="AM7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AN7">
         <v>1</v>
@@ -13324,10 +13387,10 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>6000</v>
+        <v>12420</v>
       </c>
       <c r="AR7">
-        <v>20000</v>
+        <v>41400</v>
       </c>
       <c r="AS7">
         <v>0.95</v>
@@ -13342,16 +13405,16 @@
         <v>1</v>
       </c>
       <c r="AW7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AX7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AY7">
         <v>96</v>
       </c>
       <c r="AZ7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BA7">
         <v>60</v>
@@ -13429,85 +13492,85 @@
         <v>128</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="AL1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:44">
@@ -13515,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F2">
         <v>96</v>
@@ -13533,10 +13596,10 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1050000</v>
+        <v>849000</v>
       </c>
       <c r="L2">
-        <v>5840000</v>
+        <v>4300000</v>
       </c>
       <c r="M2">
         <v>0.95</v>
@@ -13551,19 +13614,19 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AL2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AM2">
         <v>96</v>
       </c>
       <c r="AN2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AO2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -13580,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F3">
         <v>96</v>
@@ -13598,10 +13661,10 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1080000</v>
+        <v>1741000</v>
       </c>
       <c r="L3">
-        <v>5770000</v>
+        <v>7230000</v>
       </c>
       <c r="M3">
         <v>0.95</v>
@@ -13616,19 +13679,19 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AL3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AM3">
         <v>96</v>
       </c>
       <c r="AN3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AO3">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -13645,7 +13708,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F4">
         <v>96</v>
@@ -13663,10 +13726,10 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1900000</v>
+        <v>894000</v>
       </c>
       <c r="L4">
-        <v>6030000</v>
+        <v>5300000</v>
       </c>
       <c r="M4">
         <v>0.95</v>
@@ -13681,19 +13744,19 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AL4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AM4">
         <v>96</v>
       </c>
       <c r="AN4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AO4">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -13710,7 +13773,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5">
         <v>96</v>
@@ -13728,10 +13791,10 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <v>844000000</v>
+        <v>1505000000</v>
       </c>
       <c r="V5">
-        <v>4680000000</v>
+        <v>8690000000</v>
       </c>
       <c r="W5">
         <v>0.95</v>
@@ -13746,19 +13809,19 @@
         <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AL5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AM5">
         <v>96</v>
       </c>
       <c r="AN5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AO5">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -13775,7 +13838,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F6">
         <v>96</v>
@@ -13793,10 +13856,10 @@
         <v>1</v>
       </c>
       <c r="U6">
-        <v>1135000000</v>
+        <v>972000000</v>
       </c>
       <c r="V6">
-        <v>4340000000</v>
+        <v>5220000000</v>
       </c>
       <c r="W6">
         <v>0.95</v>
@@ -13811,19 +13874,19 @@
         <v>1</v>
       </c>
       <c r="AA6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AL6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AM6">
         <v>96</v>
       </c>
       <c r="AN6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AO6">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -13840,7 +13903,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F7">
         <v>96</v>
@@ -13858,10 +13921,10 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>2280000000</v>
+        <v>831000000</v>
       </c>
       <c r="V7">
-        <v>9980000000</v>
+        <v>5670000000</v>
       </c>
       <c r="W7">
         <v>0.95</v>
@@ -13876,19 +13939,19 @@
         <v>1</v>
       </c>
       <c r="AA7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AL7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AM7">
         <v>96</v>
       </c>
       <c r="AN7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AO7">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -13905,7 +13968,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F8">
         <v>96</v>
@@ -13923,10 +13986,10 @@
         <v>1</v>
       </c>
       <c r="AE8">
-        <v>107900000</v>
+        <v>110000000</v>
       </c>
       <c r="AF8">
-        <v>429000000</v>
+        <v>558000000</v>
       </c>
       <c r="AG8">
         <v>0.95</v>
@@ -13941,19 +14004,19 @@
         <v>1</v>
       </c>
       <c r="AK8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AL8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AM8">
         <v>96</v>
       </c>
       <c r="AN8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AO8">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AP8">
         <v>0</v>
@@ -13970,7 +14033,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F9">
         <v>96</v>
@@ -13988,10 +14051,10 @@
         <v>1</v>
       </c>
       <c r="AE9">
-        <v>99800000</v>
+        <v>110000000</v>
       </c>
       <c r="AF9">
-        <v>458000000</v>
+        <v>448000000</v>
       </c>
       <c r="AG9">
         <v>0.95</v>
@@ -14006,19 +14069,19 @@
         <v>1</v>
       </c>
       <c r="AK9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AL9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AM9">
         <v>96</v>
       </c>
       <c r="AN9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AO9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -14035,7 +14098,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F10">
         <v>96</v>
@@ -14053,10 +14116,10 @@
         <v>1</v>
       </c>
       <c r="AE10">
-        <v>216300000</v>
+        <v>169000000</v>
       </c>
       <c r="AF10">
-        <v>890000000</v>
+        <v>761000000</v>
       </c>
       <c r="AG10">
         <v>0.95</v>
@@ -14071,16 +14134,16 @@
         <v>1</v>
       </c>
       <c r="AK10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AL10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AM10">
         <v>96</v>
       </c>
       <c r="AN10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AO10">
         <v>48</v>

--- a/02 - config/example_small/agents.xlsx
+++ b/02 - config/example_small/agents.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="292">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -459,357 +459,357 @@
     <t>meter/prob_missing</t>
   </si>
   <si>
-    <t>CAQ4qbKndqVO5KP</t>
-  </si>
-  <si>
-    <t>P05FuuJKAHoBtll</t>
-  </si>
-  <si>
-    <t>38JpW7PalZEayze</t>
-  </si>
-  <si>
-    <t>OrzVnFyFf8KDWZb</t>
-  </si>
-  <si>
-    <t>0jX330LTbs2R0pg</t>
-  </si>
-  <si>
-    <t>qm3wd3abNgNc06L</t>
-  </si>
-  <si>
-    <t>JbNr6emSGvLnXxr</t>
-  </si>
-  <si>
-    <t>fpCwBkrz7WURF2f</t>
-  </si>
-  <si>
-    <t>mlNdcfxpXKZxCp7</t>
-  </si>
-  <si>
-    <t>bGXeG7MNEBuSaN5</t>
+    <t>85OcAnXoAWzVXiz</t>
+  </si>
+  <si>
+    <t>WUQzXQYzy4jtobE</t>
+  </si>
+  <si>
+    <t>yMnvB8vacnThvoo</t>
+  </si>
+  <si>
+    <t>CCCzQQIi4yBhbOV</t>
+  </si>
+  <si>
+    <t>m9UYvGqGKxKX6Oy</t>
+  </si>
+  <si>
+    <t>haa0bjqGLyXbli3</t>
+  </si>
+  <si>
+    <t>1Rtp5AAm1eWDQYY</t>
+  </si>
+  <si>
+    <t>EzZmpalQdDMnjVo</t>
+  </si>
+  <si>
+    <t>jtLUQSNHbKw4gUF</t>
+  </si>
+  <si>
+    <t>6ldRHmyAwMn1U39</t>
   </si>
   <si>
     <t>hh_3564_0.csv</t>
   </si>
   <si>
+    <t>hh_2959_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3648_0.csv</t>
+  </si>
+  <si>
+    <t>hh_4536_0.csv</t>
+  </si>
+  <si>
     <t>hh_5527_0.csv</t>
   </si>
   <si>
+    <t>hh_2896_0.csv</t>
+  </si>
+  <si>
+    <t>naive_average</t>
+  </si>
+  <si>
+    <t>[2, 0, 2, 2, 0, 0, 96, 2, 0, 0, 672]</t>
+  </si>
+  <si>
+    <t>heat_3564_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_1_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_3648_0.csv</t>
+  </si>
+  <si>
+    <t>heat_4536_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_0_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_5527_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_5_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_5_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_1_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_3_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_2_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_0_pu.csv</t>
+  </si>
+  <si>
+    <t>pv_config.json</t>
+  </si>
+  <si>
+    <t>smoothed</t>
+  </si>
+  <si>
+    <t>green_local</t>
+  </si>
+  <si>
+    <t>wind_Enercon_E-53-800_800000_53.json</t>
+  </si>
+  <si>
+    <t>wind_Senvion-REpower_3.2M122_3200000_122.json</t>
+  </si>
+  <si>
+    <t>wind_Nordex_MM92_3300000_131.json</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>ev_fulltime_45.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_89.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_3.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_88.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_0.csv</t>
+  </si>
+  <si>
+    <t>price_sensitive</t>
+  </si>
+  <si>
+    <t>ev_close</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>naive</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>general/sub_id</t>
+  </si>
+  <si>
+    <t>general/parameters/apartments_independent</t>
+  </si>
+  <si>
+    <t>general/parameters/apartments</t>
+  </si>
+  <si>
+    <t>KSVgzUkzHWmZoxE</t>
+  </si>
+  <si>
+    <t>D3nJBkgTRextEOV</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>ljnJBCuYwGrTCqH</t>
+  </si>
+  <si>
+    <t>3yv6idHMZPaBRKM</t>
+  </si>
+  <si>
+    <t>URoantseLpgQSUn</t>
+  </si>
+  <si>
+    <t>4dZC2vYJpF0L2sf</t>
+  </si>
+  <si>
+    <t>H8jngziCeheuT4h</t>
+  </si>
+  <si>
+    <t>F0NxcAvySB924yr</t>
+  </si>
+  <si>
+    <t>fHmJ96Cs7swtOPU</t>
+  </si>
+  <si>
+    <t>DVqUcflLGmxGIeq</t>
+  </si>
+  <si>
+    <t>eohu0Ci5A4Fvhze</t>
+  </si>
+  <si>
+    <t>V6eJ541dzI0Pt50</t>
+  </si>
+  <si>
+    <t>J36fCl1ewehf2CN</t>
+  </si>
+  <si>
+    <t>CLqk9xFVGSMAMI8</t>
+  </si>
+  <si>
+    <t>QD4sT9bCmy3iHgt</t>
+  </si>
+  <si>
+    <t>tl80vkZuQBr6htJ</t>
+  </si>
+  <si>
+    <t>hh_1720_0.csv</t>
+  </si>
+  <si>
     <t>hh_2532_0.csv</t>
   </si>
   <si>
-    <t>hh_4536_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3648_0.csv</t>
+    <t>hh_1009_1.csv</t>
+  </si>
+  <si>
+    <t>hh_2012_3.csv</t>
+  </si>
+  <si>
+    <t>hh_1546_2.csv</t>
+  </si>
+  <si>
+    <t>hh_1158_4.csv</t>
+  </si>
+  <si>
+    <t>hh_913_0.csv</t>
   </si>
   <si>
     <t>hh_2455_0.csv</t>
   </si>
   <si>
-    <t>naive_average</t>
-  </si>
-  <si>
-    <t>[2, 0, 2, 2, 0, 0, 96, 2, 0, 0, 672]</t>
+    <t>heat_gen_2_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_3_pu.csv</t>
   </si>
   <si>
     <t>heat_gen_4_pu.csv</t>
   </si>
   <si>
-    <t>heat_5527_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_2_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_4536_0.csv</t>
-  </si>
-  <si>
-    <t>heat_3648_0.csv</t>
-  </si>
-  <si>
-    <t>heat_2455_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_3_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_5_pu.csv</t>
-  </si>
-  <si>
     <t>dhw_gen_6_pu.csv</t>
   </si>
   <si>
-    <t>dhw_gen_3_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_0_pu.csv</t>
-  </si>
-  <si>
-    <t>pv_config.json</t>
-  </si>
-  <si>
-    <t>smoothed</t>
-  </si>
-  <si>
-    <t>green_local</t>
-  </si>
-  <si>
-    <t>wind_Nordex_MM92_3300000_131.json</t>
-  </si>
-  <si>
-    <t>wind_Enercon_E-53-800_800000_53.json</t>
-  </si>
-  <si>
-    <t>wind_Enercon_E-101-3500-E2_3500000_101.json</t>
-  </si>
-  <si>
-    <t>weather</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>ev_fulltime_45.csv</t>
+    <t>dhw_gen_4_pu.csv</t>
+  </si>
+  <si>
+    <t>pv_3_pu.csv</t>
+  </si>
+  <si>
+    <t>pv_2_pu.csv</t>
+  </si>
+  <si>
+    <t>fixed_gen_1_pu.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_2.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_49.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_46.csv</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>general/parameters/type</t>
+  </si>
+  <si>
+    <t>general/fcast_retraining_frequency</t>
+  </si>
+  <si>
+    <t>TDYItO2GiYZAKhu</t>
+  </si>
+  <si>
+    <t>JFU6eluq545ccuO</t>
+  </si>
+  <si>
+    <t>wmAo1ULgFVFxYAZ</t>
+  </si>
+  <si>
+    <t>B19gFhY977lWUFj</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>office_pu_0.csv</t>
+  </si>
+  <si>
+    <t>retail_pu_0.csv</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>q9rag9jEua72akX</t>
+  </si>
+  <si>
+    <t>Arvjm5ZgCBq8apL</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>tobacco</t>
+  </si>
+  <si>
+    <t>food_pu_0.csv</t>
+  </si>
+  <si>
+    <t>tobacco_pu_0.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_44.csv</t>
   </si>
   <si>
     <t>ev_parttime_90.csv</t>
   </si>
   <si>
-    <t>ev_fulltime_42.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_43.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_2.csv</t>
-  </si>
-  <si>
-    <t>price_sensitive</t>
-  </si>
-  <si>
-    <t>ev_close</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>naive</t>
-  </si>
-  <si>
-    <t>linear</t>
-  </si>
-  <si>
-    <t>general/sub_id</t>
-  </si>
-  <si>
-    <t>general/parameters/apartments_independent</t>
-  </si>
-  <si>
-    <t>general/parameters/apartments</t>
-  </si>
-  <si>
-    <t>fIN6RLaCSLIs34X</t>
-  </si>
-  <si>
-    <t>faG89XBS8LQGBIT</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>DPpRmoJAzEyUctg</t>
-  </si>
-  <si>
-    <t>eDCcydDkFdMhdg6</t>
-  </si>
-  <si>
-    <t>Zt7eMmbkydw68ro</t>
-  </si>
-  <si>
-    <t>b1bKdSrNn09lvTL</t>
-  </si>
-  <si>
-    <t>WDMMWj3CdvUYmAc</t>
-  </si>
-  <si>
-    <t>Rly2SV5bAywPsti</t>
-  </si>
-  <si>
-    <t>h0EK54BR0dStnX6</t>
-  </si>
-  <si>
-    <t>LWywX8b1UW7qsIv</t>
-  </si>
-  <si>
-    <t>n1aHpiesYKwTEdw</t>
-  </si>
-  <si>
-    <t>GXOwNhY6LN4QB5k</t>
-  </si>
-  <si>
-    <t>mI1HMp7xzXEQPVM</t>
-  </si>
-  <si>
-    <t>ligakxWTagqsUtW</t>
-  </si>
-  <si>
-    <t>2u0caNRWq8dkQXY</t>
-  </si>
-  <si>
-    <t>LLV6xoRvQ98GtrC</t>
-  </si>
-  <si>
-    <t>hh_2262_0.csv</t>
-  </si>
-  <si>
-    <t>hh_1720_0.csv</t>
-  </si>
-  <si>
-    <t>hh_1158_4.csv</t>
-  </si>
-  <si>
-    <t>hh_2687_0.csv</t>
-  </si>
-  <si>
-    <t>hh_1546_2.csv</t>
-  </si>
-  <si>
-    <t>hh_2012_3.csv</t>
-  </si>
-  <si>
-    <t>hh_2896_0.csv</t>
-  </si>
-  <si>
-    <t>hh_945_1.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_0_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_1_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_2_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_4_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_1_pu.csv</t>
-  </si>
-  <si>
-    <t>pv_2_pu.csv</t>
-  </si>
-  <si>
-    <t>pv_3_pu.csv</t>
-  </si>
-  <si>
-    <t>fixed_gen_1_pu.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_3.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_49.csv</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>general/parameters/type</t>
-  </si>
-  <si>
-    <t>general/fcast_retraining_frequency</t>
-  </si>
-  <si>
-    <t>MiMOLDWdvO8Wy78</t>
-  </si>
-  <si>
-    <t>LmWc11DTOn0d34C</t>
-  </si>
-  <si>
-    <t>pR9hLQSVdZLInjy</t>
-  </si>
-  <si>
-    <t>d6WTzfkMUtlLlDo</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>office</t>
-  </si>
-  <si>
-    <t>retail_pu_0.csv</t>
-  </si>
-  <si>
-    <t>office_pu_0.csv</t>
+    <t>YzrNpIZaH81XYK1</t>
+  </si>
+  <si>
+    <t>RjG9yN5f1xlSkY1</t>
+  </si>
+  <si>
+    <t>ALpYcNUGcbhsyGP</t>
+  </si>
+  <si>
+    <t>aLQaBccQhJ2nHym</t>
+  </si>
+  <si>
+    <t>X3seNe9BpEogbqy</t>
+  </si>
+  <si>
+    <t>2fklRDBuX5udtrN</t>
   </si>
   <si>
     <t>pv_1_pu.csv</t>
   </si>
   <si>
-    <t>QnFhm1Pv1aaVe0g</t>
-  </si>
-  <si>
-    <t>QOE3HKoozDCq8tw</t>
-  </si>
-  <si>
-    <t>tobacco</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>tobacco_pu_0.csv</t>
-  </si>
-  <si>
-    <t>food_pu_0.csv</t>
-  </si>
-  <si>
-    <t>wind_Siemens_SWT-3.6-130_3600000_130.json</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>kWZJYPkjAMgoDTy</t>
-  </si>
-  <si>
-    <t>Xt6DSBzm6ZkFE2b</t>
-  </si>
-  <si>
-    <t>e4NO5d4L5ogT5e1</t>
-  </si>
-  <si>
-    <t>kHfE5aklazt9gY8</t>
-  </si>
-  <si>
-    <t>MbYREwE6tBPw9O8</t>
-  </si>
-  <si>
-    <t>BDhRg5rXQtx9OCW</t>
-  </si>
-  <si>
     <t>psh/owner</t>
   </si>
   <si>
@@ -870,31 +870,31 @@
     <t>hydrogen/quality</t>
   </si>
   <si>
-    <t>VpVR0SQWDVXCpS0</t>
-  </si>
-  <si>
-    <t>sKBLdqZTKGHC4b4</t>
-  </si>
-  <si>
-    <t>PKrckh0Gawj8Y7F</t>
-  </si>
-  <si>
-    <t>Mc1s4lH5J7oAYcD</t>
-  </si>
-  <si>
-    <t>ZnZ0VFZkWBQuGen</t>
-  </si>
-  <si>
-    <t>0UaMMVpfNCH8L0A</t>
-  </si>
-  <si>
-    <t>N7C5Izpti9DJles</t>
-  </si>
-  <si>
-    <t>pLVa3kyoqiBUhUx</t>
-  </si>
-  <si>
-    <t>yAHbtlZFRelcTi6</t>
+    <t>JZTLOzrhDktoFBp</t>
+  </si>
+  <si>
+    <t>bv8qLecI0Gmft9g</t>
+  </si>
+  <si>
+    <t>cjmnPoB5PjwrOUk</t>
+  </si>
+  <si>
+    <t>D8zfKDOrEcCmwaW</t>
+  </si>
+  <si>
+    <t>Hx64ZvyXILOowRg</t>
+  </si>
+  <si>
+    <t>C5UXiO8NYmtVeVJ</t>
+  </si>
+  <si>
+    <t>L9xxc3yDFBJdsnN</t>
+  </si>
+  <si>
+    <t>HuafEubsIQck1gd</t>
+  </si>
+  <si>
+    <t>jFP8I3FhrxO0bnd</t>
   </si>
 </sst>
 </file>
@@ -1850,22 +1850,22 @@
         <v>1</v>
       </c>
       <c r="BD2">
-        <v>5800</v>
+        <v>6400</v>
       </c>
       <c r="BE2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="BG2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BH2" t="b">
         <v>1</v>
       </c>
       <c r="BI2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BJ2">
         <v>2</v>
@@ -1874,41 +1874,41 @@
         <v>9</v>
       </c>
       <c r="BL2" t="s">
+        <v>178</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BT2">
+        <v>2</v>
+      </c>
+      <c r="BU2">
+        <v>9</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>178</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="s">
         <v>177</v>
       </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>181</v>
-      </c>
-      <c r="BT2">
-        <v>2</v>
-      </c>
-      <c r="BU2">
-        <v>9</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>177</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>176</v>
-      </c>
       <c r="CD2">
         <v>2</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>9</v>
       </c>
       <c r="CF2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CG2">
         <v>0</v>
@@ -1928,79 +1928,19 @@
         <v>1</v>
       </c>
       <c r="CL2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CO2" t="b">
         <v>1</v>
       </c>
-      <c r="CP2" t="s">
-        <v>183</v>
-      </c>
-      <c r="CQ2">
-        <v>100000</v>
-      </c>
-      <c r="CR2">
-        <v>25000</v>
-      </c>
-      <c r="CS2">
-        <v>11000</v>
-      </c>
-      <c r="CT2">
-        <v>22000</v>
-      </c>
-      <c r="CU2">
-        <v>200000</v>
-      </c>
-      <c r="CV2">
-        <v>0.9</v>
-      </c>
-      <c r="CW2">
-        <v>0.8</v>
-      </c>
-      <c r="CX2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>183</v>
-      </c>
-      <c r="DA2">
-        <v>75000</v>
-      </c>
-      <c r="DB2">
-        <v>20000</v>
-      </c>
-      <c r="DC2">
-        <v>7200</v>
-      </c>
-      <c r="DD2">
-        <v>11000</v>
-      </c>
-      <c r="DE2">
-        <v>100000</v>
-      </c>
-      <c r="DF2">
-        <v>0.9</v>
-      </c>
-      <c r="DG2">
-        <v>0.8</v>
-      </c>
-      <c r="DH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DI2" t="b">
-        <v>0</v>
-      </c>
       <c r="DJ2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DK2">
         <v>0.05</v>
@@ -2015,22 +1955,40 @@
         <v>8.5</v>
       </c>
       <c r="DO2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DP2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS2" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="DT2">
+        <v>3600</v>
+      </c>
+      <c r="DU2">
+        <v>3600</v>
+      </c>
+      <c r="DV2">
+        <v>0.95</v>
+      </c>
+      <c r="DW2">
+        <v>0.1</v>
+      </c>
+      <c r="DX2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY2" t="b">
+        <v>0</v>
       </c>
       <c r="DZ2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EA2">
         <v>0</v>
@@ -2039,28 +1997,28 @@
         <v>0</v>
       </c>
       <c r="EC2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EH2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EI2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EJ2">
         <v>96</v>
       </c>
       <c r="EK2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EL2">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="EM2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EN2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="EO2">
         <v>0</v>
@@ -2080,10 +2038,10 @@
         <v>147</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2092,7 +2050,7 @@
         <v>2.6</v>
       </c>
       <c r="J3">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -2107,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>5527000</v>
+        <v>2959000</v>
       </c>
       <c r="P3" t="s">
         <v>157</v>
@@ -2158,13 +2116,13 @@
         <v>1</v>
       </c>
       <c r="AH3">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="AI3" t="s">
         <v>165</v>
       </c>
       <c r="AJ3">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="s">
         <v>162</v>
@@ -2191,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="AS3">
-        <v>2400000</v>
+        <v>2800000</v>
       </c>
       <c r="AT3" t="s">
         <v>172</v>
@@ -2215,16 +2173,31 @@
         <v>90</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3" t="b">
         <v>1</v>
       </c>
+      <c r="BD3">
+        <v>4200</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>40</v>
+      </c>
+      <c r="BH3" t="b">
+        <v>1</v>
+      </c>
       <c r="BI3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BJ3">
         <v>2</v>
@@ -2233,41 +2206,50 @@
         <v>9</v>
       </c>
       <c r="BL3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
+        <v>1</v>
+      </c>
+      <c r="BO3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>2100</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>179</v>
+      </c>
+      <c r="BR3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BT3">
+        <v>2</v>
+      </c>
+      <c r="BU3">
+        <v>9</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC3" t="s">
         <v>177</v>
       </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>181</v>
-      </c>
-      <c r="BT3">
-        <v>2</v>
-      </c>
-      <c r="BU3">
-        <v>9</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>177</v>
-      </c>
-      <c r="BW3">
-        <v>0</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
-      <c r="BY3" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>176</v>
-      </c>
       <c r="CD3">
         <v>2</v>
       </c>
@@ -2275,7 +2257,7 @@
         <v>9</v>
       </c>
       <c r="CF3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CG3">
         <v>0</v>
@@ -2287,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="CL3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM3">
         <v>0</v>
@@ -2299,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="DJ3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DK3">
         <v>0.05</v>
@@ -2314,22 +2296,40 @@
         <v>8.5</v>
       </c>
       <c r="DO3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DP3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS3" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="DT3">
+        <v>3000</v>
+      </c>
+      <c r="DU3">
+        <v>3000</v>
+      </c>
+      <c r="DV3">
+        <v>0.95</v>
+      </c>
+      <c r="DW3">
+        <v>0.1</v>
+      </c>
+      <c r="DX3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY3" t="b">
+        <v>0</v>
       </c>
       <c r="DZ3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EA3">
         <v>0</v>
@@ -2338,25 +2338,25 @@
         <v>0</v>
       </c>
       <c r="EC3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EH3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EI3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EJ3">
         <v>96</v>
       </c>
       <c r="EK3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EL3">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="EM3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EN3">
         <v>0</v>
@@ -2379,10 +2379,10 @@
         <v>148</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2391,7 +2391,7 @@
         <v>2.6</v>
       </c>
       <c r="J4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -2406,10 +2406,10 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>2532000</v>
+        <v>3564000</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q4" t="s">
         <v>162</v>
@@ -2457,10 +2457,10 @@
         <v>1</v>
       </c>
       <c r="AH4">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="AI4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AJ4">
         <v>55</v>
@@ -2490,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="AS4">
-        <v>1800000</v>
+        <v>3200000</v>
       </c>
       <c r="AT4" t="s">
         <v>173</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="BD4">
-        <v>3600</v>
+        <v>6100</v>
       </c>
       <c r="BE4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="BI4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BJ4">
         <v>2</v>
@@ -2547,50 +2547,50 @@
         <v>9</v>
       </c>
       <c r="BL4" t="s">
+        <v>178</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>2400</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>180</v>
+      </c>
+      <c r="BR4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BT4">
+        <v>2</v>
+      </c>
+      <c r="BU4">
+        <v>9</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>178</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC4" t="s">
         <v>177</v>
       </c>
-      <c r="BM4">
-        <v>1</v>
-      </c>
-      <c r="BN4">
-        <v>1</v>
-      </c>
-      <c r="BO4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP4">
-        <v>2100</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>178</v>
-      </c>
-      <c r="BR4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BT4">
-        <v>2</v>
-      </c>
-      <c r="BU4">
-        <v>9</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>177</v>
-      </c>
-      <c r="BW4">
-        <v>0</v>
-      </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
-      <c r="BY4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>176</v>
-      </c>
       <c r="CD4">
         <v>2</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="CF4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CG4">
         <v>0</v>
@@ -2610,49 +2610,19 @@
         <v>1</v>
       </c>
       <c r="CL4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO4" t="b">
         <v>1</v>
       </c>
-      <c r="CP4" t="s">
-        <v>184</v>
-      </c>
-      <c r="CQ4">
-        <v>50000</v>
-      </c>
-      <c r="CR4">
-        <v>15000</v>
-      </c>
-      <c r="CS4">
-        <v>7200</v>
-      </c>
-      <c r="CT4">
-        <v>7200</v>
-      </c>
-      <c r="CU4">
-        <v>50000</v>
-      </c>
-      <c r="CV4">
-        <v>0.9</v>
-      </c>
-      <c r="CW4">
-        <v>0.8</v>
-      </c>
-      <c r="CX4" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY4" t="b">
-        <v>0</v>
-      </c>
       <c r="DJ4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DK4">
         <v>0.05</v>
@@ -2667,10 +2637,10 @@
         <v>8.5</v>
       </c>
       <c r="DO4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DP4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DQ4">
         <v>1</v>
@@ -2679,13 +2649,13 @@
         <v>1</v>
       </c>
       <c r="DS4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DT4">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="DU4">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="DV4">
         <v>0.95</v>
@@ -2700,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="DZ4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EA4">
         <v>0</v>
@@ -2709,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="EC4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EH4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EI4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EJ4">
         <v>96</v>
       </c>
       <c r="EK4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EL4">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="EM4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EN4">
         <v>30</v>
@@ -2777,10 +2747,10 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>4536000</v>
+        <v>3648000</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q5" t="s">
         <v>162</v>
@@ -2831,7 +2801,7 @@
         <v>19500000</v>
       </c>
       <c r="AI5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AJ5">
         <v>35</v>
@@ -2861,10 +2831,10 @@
         <v>1</v>
       </c>
       <c r="AS5">
-        <v>2400000</v>
+        <v>2800000</v>
       </c>
       <c r="AT5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AU5">
         <v>55</v>
@@ -2885,31 +2855,16 @@
         <v>90</v>
       </c>
       <c r="BA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="b">
         <v>1</v>
       </c>
-      <c r="BD5">
-        <v>6400</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>175</v>
-      </c>
-      <c r="BF5">
-        <v>-20</v>
-      </c>
-      <c r="BG5">
-        <v>50</v>
-      </c>
-      <c r="BH5" t="b">
-        <v>1</v>
-      </c>
       <c r="BI5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BJ5">
         <v>2</v>
@@ -2918,50 +2873,50 @@
         <v>9</v>
       </c>
       <c r="BL5" t="s">
+        <v>178</v>
+      </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
+      <c r="BO5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>2700</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>181</v>
+      </c>
+      <c r="BR5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>182</v>
+      </c>
+      <c r="BT5">
+        <v>2</v>
+      </c>
+      <c r="BU5">
+        <v>9</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>178</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC5" t="s">
         <v>177</v>
       </c>
-      <c r="BM5">
-        <v>1</v>
-      </c>
-      <c r="BN5">
-        <v>1</v>
-      </c>
-      <c r="BO5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP5">
-        <v>3100</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>179</v>
-      </c>
-      <c r="BR5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>181</v>
-      </c>
-      <c r="BT5">
-        <v>2</v>
-      </c>
-      <c r="BU5">
-        <v>9</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BW5">
-        <v>0</v>
-      </c>
-      <c r="BX5">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>176</v>
-      </c>
       <c r="CD5">
         <v>2</v>
       </c>
@@ -2969,7 +2924,7 @@
         <v>9</v>
       </c>
       <c r="CF5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CG5">
         <v>0</v>
@@ -2981,19 +2936,49 @@
         <v>1</v>
       </c>
       <c r="CL5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO5" t="b">
         <v>1</v>
       </c>
+      <c r="CP5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ5">
+        <v>75000</v>
+      </c>
+      <c r="CR5">
+        <v>20000</v>
+      </c>
+      <c r="CS5">
+        <v>7200</v>
+      </c>
+      <c r="CT5">
+        <v>11000</v>
+      </c>
+      <c r="CU5">
+        <v>100000</v>
+      </c>
+      <c r="CV5">
+        <v>0.9</v>
+      </c>
+      <c r="CW5">
+        <v>0.8</v>
+      </c>
+      <c r="CX5" t="b">
+        <v>0</v>
+      </c>
+      <c r="CY5" t="b">
+        <v>0</v>
+      </c>
       <c r="DJ5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DK5">
         <v>0.05</v>
@@ -3008,10 +2993,10 @@
         <v>8.5</v>
       </c>
       <c r="DO5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DP5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DQ5">
         <v>0</v>
@@ -3020,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DZ5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EA5">
         <v>0</v>
@@ -3032,25 +3017,25 @@
         <v>0</v>
       </c>
       <c r="EC5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EH5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EI5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EJ5">
         <v>96</v>
       </c>
       <c r="EK5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EL5">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="EM5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EN5">
         <v>0</v>
@@ -3073,10 +3058,10 @@
         <v>150</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -3085,7 +3070,7 @@
         <v>2.6</v>
       </c>
       <c r="J6">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3100,10 +3085,10 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>5527000</v>
+        <v>3564000</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q6" t="s">
         <v>162</v>
@@ -3151,10 +3136,10 @@
         <v>1</v>
       </c>
       <c r="AH6">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="AI6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AJ6">
         <v>55</v>
@@ -3184,10 +3169,10 @@
         <v>1</v>
       </c>
       <c r="AS6">
-        <v>3200000</v>
+        <v>1800000</v>
       </c>
       <c r="AT6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AU6">
         <v>55</v>
@@ -3208,16 +3193,31 @@
         <v>90</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" t="b">
         <v>1</v>
       </c>
+      <c r="BD6">
+        <v>6100</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>176</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>40</v>
+      </c>
+      <c r="BH6" t="b">
+        <v>1</v>
+      </c>
       <c r="BI6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BJ6">
         <v>2</v>
@@ -3226,41 +3226,41 @@
         <v>9</v>
       </c>
       <c r="BL6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>182</v>
+      </c>
+      <c r="BT6">
+        <v>2</v>
+      </c>
+      <c r="BU6">
+        <v>9</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC6" t="s">
         <v>177</v>
       </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BT6">
-        <v>2</v>
-      </c>
-      <c r="BU6">
-        <v>9</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>177</v>
-      </c>
-      <c r="BW6">
-        <v>0</v>
-      </c>
-      <c r="BX6">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>176</v>
-      </c>
       <c r="CD6">
         <v>2</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>9</v>
       </c>
       <c r="CF6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CG6">
         <v>0</v>
@@ -3280,49 +3280,19 @@
         <v>1</v>
       </c>
       <c r="CL6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO6" t="b">
         <v>1</v>
       </c>
-      <c r="CP6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CQ6">
-        <v>50000</v>
-      </c>
-      <c r="CR6">
-        <v>15000</v>
-      </c>
-      <c r="CS6">
-        <v>7200</v>
-      </c>
-      <c r="CT6">
-        <v>7200</v>
-      </c>
-      <c r="CU6">
-        <v>50000</v>
-      </c>
-      <c r="CV6">
-        <v>0.9</v>
-      </c>
-      <c r="CW6">
-        <v>0.8</v>
-      </c>
-      <c r="CX6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY6" t="b">
-        <v>0</v>
-      </c>
       <c r="DJ6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DK6">
         <v>0.05</v>
@@ -3337,22 +3307,40 @@
         <v>8.5</v>
       </c>
       <c r="DO6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DP6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS6" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="DT6">
+        <v>3600</v>
+      </c>
+      <c r="DU6">
+        <v>3600</v>
+      </c>
+      <c r="DV6">
+        <v>0.95</v>
+      </c>
+      <c r="DW6">
+        <v>0.1</v>
+      </c>
+      <c r="DX6" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY6" t="b">
+        <v>0</v>
       </c>
       <c r="DZ6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EA6">
         <v>0</v>
@@ -3361,28 +3349,28 @@
         <v>0</v>
       </c>
       <c r="EC6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EH6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EI6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EJ6">
         <v>96</v>
       </c>
       <c r="EK6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EL6">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="EM6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EN6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="EO6">
         <v>0</v>
@@ -3402,10 +3390,10 @@
         <v>151</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -3414,7 +3402,7 @@
         <v>2.6</v>
       </c>
       <c r="J7">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -3429,10 +3417,10 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>3648000</v>
+        <v>4536000</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q7" t="s">
         <v>162</v>
@@ -3480,10 +3468,10 @@
         <v>1</v>
       </c>
       <c r="AH7">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="AI7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ7">
         <v>55</v>
@@ -3513,10 +3501,10 @@
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>2800000</v>
+        <v>1800000</v>
       </c>
       <c r="AT7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AU7">
         <v>55</v>
@@ -3546,22 +3534,22 @@
         <v>1</v>
       </c>
       <c r="BD7">
-        <v>5000</v>
+        <v>7600</v>
       </c>
       <c r="BE7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BF7">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="BG7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BH7" t="b">
         <v>1</v>
       </c>
       <c r="BI7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BJ7">
         <v>2</v>
@@ -3570,41 +3558,50 @@
         <v>9</v>
       </c>
       <c r="BL7" t="s">
+        <v>178</v>
+      </c>
+      <c r="BM7">
+        <v>1</v>
+      </c>
+      <c r="BN7">
+        <v>1</v>
+      </c>
+      <c r="BO7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP7">
+        <v>2500</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>181</v>
+      </c>
+      <c r="BR7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>182</v>
+      </c>
+      <c r="BT7">
+        <v>2</v>
+      </c>
+      <c r="BU7">
+        <v>9</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>178</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC7" t="s">
         <v>177</v>
       </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>181</v>
-      </c>
-      <c r="BT7">
-        <v>2</v>
-      </c>
-      <c r="BU7">
-        <v>9</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>177</v>
-      </c>
-      <c r="BW7">
-        <v>0</v>
-      </c>
-      <c r="BX7">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC7" t="s">
-        <v>176</v>
-      </c>
       <c r="CD7">
         <v>2</v>
       </c>
@@ -3612,7 +3609,7 @@
         <v>9</v>
       </c>
       <c r="CF7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CG7">
         <v>0</v>
@@ -3624,19 +3621,49 @@
         <v>1</v>
       </c>
       <c r="CL7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO7" t="b">
         <v>1</v>
       </c>
+      <c r="CP7" t="s">
+        <v>185</v>
+      </c>
+      <c r="CQ7">
+        <v>50000</v>
+      </c>
+      <c r="CR7">
+        <v>15000</v>
+      </c>
+      <c r="CS7">
+        <v>7200</v>
+      </c>
+      <c r="CT7">
+        <v>7200</v>
+      </c>
+      <c r="CU7">
+        <v>50000</v>
+      </c>
+      <c r="CV7">
+        <v>0.9</v>
+      </c>
+      <c r="CW7">
+        <v>0.8</v>
+      </c>
+      <c r="CX7" t="b">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="b">
+        <v>0</v>
+      </c>
       <c r="DJ7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DK7">
         <v>0.05</v>
@@ -3651,10 +3678,10 @@
         <v>8.5</v>
       </c>
       <c r="DO7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DP7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DQ7">
         <v>1</v>
@@ -3663,13 +3690,13 @@
         <v>1</v>
       </c>
       <c r="DS7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DT7">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="DU7">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="DV7">
         <v>0.95</v>
@@ -3684,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="DZ7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EA7">
         <v>0</v>
@@ -3693,25 +3720,25 @@
         <v>0</v>
       </c>
       <c r="EC7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EH7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EI7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EJ7">
         <v>96</v>
       </c>
       <c r="EK7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EL7">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="EM7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EN7">
         <v>30</v>
@@ -3761,10 +3788,10 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>2455000</v>
+        <v>3564000</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Q8" t="s">
         <v>162</v>
@@ -3815,10 +3842,10 @@
         <v>19500000</v>
       </c>
       <c r="AI8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AJ8">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AK8" t="s">
         <v>162</v>
@@ -3848,7 +3875,7 @@
         <v>2800000</v>
       </c>
       <c r="AT8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AU8">
         <v>55</v>
@@ -3869,31 +3896,16 @@
         <v>90</v>
       </c>
       <c r="BA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="b">
         <v>1</v>
       </c>
-      <c r="BD8">
-        <v>3500</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>175</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>40</v>
-      </c>
-      <c r="BH8" t="b">
-        <v>1</v>
-      </c>
       <c r="BI8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BJ8">
         <v>2</v>
@@ -3902,50 +3914,50 @@
         <v>9</v>
       </c>
       <c r="BL8" t="s">
+        <v>178</v>
+      </c>
+      <c r="BM8">
+        <v>1</v>
+      </c>
+      <c r="BN8">
+        <v>1</v>
+      </c>
+      <c r="BO8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP8">
+        <v>2200</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>179</v>
+      </c>
+      <c r="BR8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BT8">
+        <v>2</v>
+      </c>
+      <c r="BU8">
+        <v>9</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>178</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC8" t="s">
         <v>177</v>
       </c>
-      <c r="BM8">
-        <v>1</v>
-      </c>
-      <c r="BN8">
-        <v>1</v>
-      </c>
-      <c r="BO8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP8">
-        <v>1400</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>178</v>
-      </c>
-      <c r="BR8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BT8">
-        <v>2</v>
-      </c>
-      <c r="BU8">
-        <v>9</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>177</v>
-      </c>
-      <c r="BW8">
-        <v>0</v>
-      </c>
-      <c r="BX8">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC8" t="s">
-        <v>176</v>
-      </c>
       <c r="CD8">
         <v>2</v>
       </c>
@@ -3953,7 +3965,7 @@
         <v>9</v>
       </c>
       <c r="CF8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CG8">
         <v>0</v>
@@ -3965,19 +3977,49 @@
         <v>1</v>
       </c>
       <c r="CL8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO8" t="b">
         <v>1</v>
       </c>
+      <c r="CP8" t="s">
+        <v>186</v>
+      </c>
+      <c r="CQ8">
+        <v>100000</v>
+      </c>
+      <c r="CR8">
+        <v>25000</v>
+      </c>
+      <c r="CS8">
+        <v>11000</v>
+      </c>
+      <c r="CT8">
+        <v>22000</v>
+      </c>
+      <c r="CU8">
+        <v>200000</v>
+      </c>
+      <c r="CV8">
+        <v>0.9</v>
+      </c>
+      <c r="CW8">
+        <v>0.8</v>
+      </c>
+      <c r="CX8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="b">
+        <v>0</v>
+      </c>
       <c r="DJ8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DK8">
         <v>0.05</v>
@@ -3992,40 +4034,22 @@
         <v>8.5</v>
       </c>
       <c r="DO8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DP8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>190</v>
-      </c>
-      <c r="DT8">
-        <v>2500</v>
-      </c>
-      <c r="DU8">
-        <v>2500</v>
-      </c>
-      <c r="DV8">
-        <v>0.95</v>
-      </c>
-      <c r="DW8">
-        <v>0.1</v>
-      </c>
-      <c r="DX8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DY8" t="b">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="DZ8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EA8">
         <v>0</v>
@@ -4034,28 +4058,28 @@
         <v>0</v>
       </c>
       <c r="EC8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EH8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EI8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EJ8">
         <v>96</v>
       </c>
       <c r="EK8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EL8">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="EM8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EN8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="EO8">
         <v>0</v>
@@ -4102,10 +4126,10 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>4536000</v>
+        <v>5527000</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q9" t="s">
         <v>162</v>
@@ -4156,10 +4180,10 @@
         <v>19500000</v>
       </c>
       <c r="AI9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AJ9">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AK9" t="s">
         <v>162</v>
@@ -4186,10 +4210,10 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>2400000</v>
+        <v>2800000</v>
       </c>
       <c r="AT9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AU9">
         <v>55</v>
@@ -4219,22 +4243,22 @@
         <v>1</v>
       </c>
       <c r="BD9">
-        <v>6200</v>
+        <v>9500</v>
       </c>
       <c r="BE9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BF9">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="BG9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BH9" t="b">
         <v>1</v>
       </c>
       <c r="BI9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BJ9">
         <v>2</v>
@@ -4243,50 +4267,41 @@
         <v>9</v>
       </c>
       <c r="BL9" t="s">
+        <v>178</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>182</v>
+      </c>
+      <c r="BT9">
+        <v>2</v>
+      </c>
+      <c r="BU9">
+        <v>9</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>178</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC9" t="s">
         <v>177</v>
       </c>
-      <c r="BM9">
-        <v>1</v>
-      </c>
-      <c r="BN9">
-        <v>1</v>
-      </c>
-      <c r="BO9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP9">
-        <v>3300</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>180</v>
-      </c>
-      <c r="BR9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>181</v>
-      </c>
-      <c r="BT9">
-        <v>2</v>
-      </c>
-      <c r="BU9">
-        <v>9</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>177</v>
-      </c>
-      <c r="BW9">
-        <v>0</v>
-      </c>
-      <c r="BX9">
-        <v>0</v>
-      </c>
-      <c r="BY9" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC9" t="s">
-        <v>176</v>
-      </c>
       <c r="CD9">
         <v>2</v>
       </c>
@@ -4294,7 +4309,7 @@
         <v>9</v>
       </c>
       <c r="CF9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CG9">
         <v>0</v>
@@ -4306,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="CL9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM9">
         <v>1</v>
@@ -4318,22 +4333,22 @@
         <v>1</v>
       </c>
       <c r="CP9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CQ9">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="CR9">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="CS9">
         <v>7200</v>
       </c>
       <c r="CT9">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="CU9">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="CV9">
         <v>0.9</v>
@@ -4348,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="DJ9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DK9">
         <v>0.05</v>
@@ -4363,10 +4378,10 @@
         <v>8.5</v>
       </c>
       <c r="DO9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DP9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DQ9">
         <v>1</v>
@@ -4375,13 +4390,13 @@
         <v>1</v>
       </c>
       <c r="DS9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DT9">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="DU9">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="DV9">
         <v>0.95</v>
@@ -4396,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="DZ9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EA9">
         <v>0</v>
@@ -4405,28 +4420,28 @@
         <v>0</v>
       </c>
       <c r="EC9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EH9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EI9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EJ9">
         <v>96</v>
       </c>
       <c r="EK9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EL9">
         <v>36</v>
       </c>
       <c r="EM9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EN9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="EO9">
         <v>0</v>
@@ -4473,10 +4488,10 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>4536000</v>
+        <v>5527000</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q10" t="s">
         <v>162</v>
@@ -4527,10 +4542,10 @@
         <v>5500000</v>
       </c>
       <c r="AI10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AJ10">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AK10" t="s">
         <v>162</v>
@@ -4557,10 +4572,10 @@
         <v>1</v>
       </c>
       <c r="AS10">
-        <v>2100000</v>
+        <v>1800000</v>
       </c>
       <c r="AT10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AU10">
         <v>55</v>
@@ -4590,10 +4605,10 @@
         <v>1</v>
       </c>
       <c r="BD10">
-        <v>5800</v>
+        <v>8100</v>
       </c>
       <c r="BE10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BF10">
         <v>0</v>
@@ -4605,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="BI10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BJ10">
         <v>2</v>
@@ -4614,50 +4629,41 @@
         <v>9</v>
       </c>
       <c r="BL10" t="s">
+        <v>178</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>182</v>
+      </c>
+      <c r="BT10">
+        <v>2</v>
+      </c>
+      <c r="BU10">
+        <v>9</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>178</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC10" t="s">
         <v>177</v>
       </c>
-      <c r="BM10">
-        <v>1</v>
-      </c>
-      <c r="BN10">
-        <v>1</v>
-      </c>
-      <c r="BO10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP10">
-        <v>2400</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>179</v>
-      </c>
-      <c r="BR10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>181</v>
-      </c>
-      <c r="BT10">
-        <v>2</v>
-      </c>
-      <c r="BU10">
-        <v>9</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>177</v>
-      </c>
-      <c r="BW10">
-        <v>0</v>
-      </c>
-      <c r="BX10">
-        <v>0</v>
-      </c>
-      <c r="BY10" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC10" t="s">
-        <v>176</v>
-      </c>
       <c r="CD10">
         <v>2</v>
       </c>
@@ -4665,7 +4671,7 @@
         <v>9</v>
       </c>
       <c r="CF10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CG10">
         <v>0</v>
@@ -4677,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="CL10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM10">
         <v>0</v>
@@ -4689,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="DJ10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DK10">
         <v>0.05</v>
@@ -4704,40 +4710,22 @@
         <v>8.5</v>
       </c>
       <c r="DO10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DP10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DQ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>190</v>
-      </c>
-      <c r="DT10">
-        <v>4500</v>
-      </c>
-      <c r="DU10">
-        <v>4500</v>
-      </c>
-      <c r="DV10">
-        <v>0.95</v>
-      </c>
-      <c r="DW10">
-        <v>0.1</v>
-      </c>
-      <c r="DX10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DY10" t="b">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="DZ10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EA10">
         <v>0</v>
@@ -4746,28 +4734,28 @@
         <v>0</v>
       </c>
       <c r="EC10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EH10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EI10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EJ10">
         <v>96</v>
       </c>
       <c r="EK10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EL10">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="EM10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EN10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="EO10">
         <v>0</v>
@@ -4814,10 +4802,10 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>3648000</v>
+        <v>2896000</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q11" t="s">
         <v>162</v>
@@ -4868,7 +4856,7 @@
         <v>5500000</v>
       </c>
       <c r="AI11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AJ11">
         <v>55</v>
@@ -4898,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>2100000</v>
+        <v>2400000</v>
       </c>
       <c r="AT11" t="s">
         <v>171</v>
@@ -4931,10 +4919,10 @@
         <v>1</v>
       </c>
       <c r="BD11">
-        <v>6300</v>
+        <v>3800</v>
       </c>
       <c r="BE11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BF11">
         <v>0</v>
@@ -4946,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="BI11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BJ11">
         <v>2</v>
@@ -4955,41 +4943,41 @@
         <v>9</v>
       </c>
       <c r="BL11" t="s">
+        <v>178</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>182</v>
+      </c>
+      <c r="BT11">
+        <v>2</v>
+      </c>
+      <c r="BU11">
+        <v>9</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>178</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC11" t="s">
         <v>177</v>
       </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>0</v>
-      </c>
-      <c r="BO11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BT11">
-        <v>2</v>
-      </c>
-      <c r="BU11">
-        <v>9</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>177</v>
-      </c>
-      <c r="BW11">
-        <v>0</v>
-      </c>
-      <c r="BX11">
-        <v>0</v>
-      </c>
-      <c r="BY11" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC11" t="s">
-        <v>176</v>
-      </c>
       <c r="CD11">
         <v>2</v>
       </c>
@@ -4997,7 +4985,7 @@
         <v>9</v>
       </c>
       <c r="CF11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CG11">
         <v>0</v>
@@ -5009,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="CL11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM11">
         <v>1</v>
@@ -5021,7 +5009,7 @@
         <v>1</v>
       </c>
       <c r="CP11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CQ11">
         <v>75000</v>
@@ -5051,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="DJ11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DK11">
         <v>0.05</v>
@@ -5066,40 +5054,22 @@
         <v>8.5</v>
       </c>
       <c r="DO11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DP11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DQ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>190</v>
-      </c>
-      <c r="DT11">
-        <v>3600</v>
-      </c>
-      <c r="DU11">
-        <v>3600</v>
-      </c>
-      <c r="DV11">
-        <v>0.95</v>
-      </c>
-      <c r="DW11">
-        <v>0.1</v>
-      </c>
-      <c r="DX11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DY11" t="b">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="DZ11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EA11">
         <v>0</v>
@@ -5108,28 +5078,28 @@
         <v>0</v>
       </c>
       <c r="EC11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EH11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EI11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EJ11">
         <v>96</v>
       </c>
       <c r="EK11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EL11">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="EM11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EN11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="EO11">
         <v>0</v>
@@ -5168,13 +5138,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -5608,10 +5578,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -5647,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <v>11635000</v>
+        <v>10831000</v>
       </c>
       <c r="T2" t="s">
         <v>162</v>
@@ -5746,10 +5716,10 @@
         <v>1</v>
       </c>
       <c r="BG2">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="BH2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -5761,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="BL2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM2">
         <v>2</v>
@@ -5770,28 +5740,19 @@
         <v>9</v>
       </c>
       <c r="BO2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="b">
         <v>1</v>
       </c>
-      <c r="BS2">
-        <v>8400</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>180</v>
-      </c>
-      <c r="BU2" t="b">
-        <v>1</v>
-      </c>
       <c r="BV2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BW2">
         <v>2</v>
@@ -5800,7 +5761,7 @@
         <v>9</v>
       </c>
       <c r="BY2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BZ2">
         <v>1</v>
@@ -5815,13 +5776,13 @@
         <v>1900</v>
       </c>
       <c r="CD2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="CE2" t="b">
         <v>0</v>
       </c>
       <c r="CF2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CG2">
         <v>2</v>
@@ -5830,7 +5791,7 @@
         <v>9</v>
       </c>
       <c r="CI2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ2">
         <v>0</v>
@@ -5842,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="CO2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CP2">
         <v>0</v>
@@ -5854,10 +5815,10 @@
         <v>1</v>
       </c>
       <c r="DR2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DS2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT2">
         <v>1</v>
@@ -5869,10 +5830,10 @@
         <v>1</v>
       </c>
       <c r="DW2">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="DX2">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="DY2">
         <v>0.95</v>
@@ -5887,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="EC2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="ED2">
         <v>1</v>
@@ -5911,22 +5872,22 @@
         <v>0.1</v>
       </c>
       <c r="EK2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EL2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EM2">
         <v>96</v>
       </c>
       <c r="EN2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EO2">
         <v>48</v>
       </c>
       <c r="EP2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EQ2">
         <v>0</v>
@@ -5946,10 +5907,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -5985,10 +5946,10 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <v>2262000</v>
+        <v>1720000</v>
       </c>
       <c r="S3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T3" t="s">
         <v>162</v>
@@ -6036,10 +5997,10 @@
         <v>3850000</v>
       </c>
       <c r="AL3" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="AM3">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN3" t="s">
         <v>162</v>
@@ -6066,10 +6027,10 @@
         <v>1</v>
       </c>
       <c r="AV3">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="AW3" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="AX3">
         <v>55</v>
@@ -6099,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="BL3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM3">
         <v>2</v>
@@ -6108,41 +6069,41 @@
         <v>9</v>
       </c>
       <c r="BO3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW3">
+        <v>2</v>
+      </c>
+      <c r="BX3">
+        <v>9</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF3" t="s">
         <v>177</v>
       </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW3">
-        <v>2</v>
-      </c>
-      <c r="BX3">
-        <v>9</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>176</v>
-      </c>
       <c r="CG3">
         <v>2</v>
       </c>
@@ -6150,7 +6111,7 @@
         <v>9</v>
       </c>
       <c r="CI3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ3">
         <v>0</v>
@@ -6162,19 +6123,79 @@
         <v>1</v>
       </c>
       <c r="CO3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CR3" t="b">
         <v>1</v>
       </c>
+      <c r="CS3" t="s">
+        <v>230</v>
+      </c>
+      <c r="CT3">
+        <v>100000</v>
+      </c>
+      <c r="CU3">
+        <v>25000</v>
+      </c>
+      <c r="CV3">
+        <v>11000</v>
+      </c>
+      <c r="CW3">
+        <v>22000</v>
+      </c>
+      <c r="CX3">
+        <v>200000</v>
+      </c>
+      <c r="CY3">
+        <v>0.9</v>
+      </c>
+      <c r="CZ3">
+        <v>0.8</v>
+      </c>
+      <c r="DA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>232</v>
+      </c>
+      <c r="DD3">
+        <v>75000</v>
+      </c>
+      <c r="DE3">
+        <v>20000</v>
+      </c>
+      <c r="DF3">
+        <v>7200</v>
+      </c>
+      <c r="DG3">
+        <v>11000</v>
+      </c>
+      <c r="DH3">
+        <v>100000</v>
+      </c>
+      <c r="DI3">
+        <v>0.9</v>
+      </c>
+      <c r="DJ3">
+        <v>0.8</v>
+      </c>
+      <c r="DK3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DL3" t="b">
+        <v>0</v>
+      </c>
       <c r="DM3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="DN3">
         <v>0.05</v>
@@ -6189,10 +6210,10 @@
         <v>8</v>
       </c>
       <c r="DR3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DS3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT3">
         <v>0</v>
@@ -6204,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="EC3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="ED3">
         <v>0</v>
@@ -6216,25 +6237,25 @@
         <v>1</v>
       </c>
       <c r="EK3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EL3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EM3">
         <v>96</v>
       </c>
       <c r="EN3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EO3">
         <v>12</v>
       </c>
       <c r="EP3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EQ3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="ER3">
         <v>0</v>
@@ -6251,10 +6272,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -6290,10 +6311,10 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>1720000</v>
+        <v>2532000</v>
       </c>
       <c r="S4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="T4" t="s">
         <v>162</v>
@@ -6341,7 +6362,7 @@
         <v>3850000</v>
       </c>
       <c r="AL4" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="AM4">
         <v>55</v>
@@ -6371,10 +6392,10 @@
         <v>1</v>
       </c>
       <c r="AV4">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="AW4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AX4">
         <v>55</v>
@@ -6404,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="BL4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM4">
         <v>2</v>
@@ -6413,41 +6434,41 @@
         <v>9</v>
       </c>
       <c r="BO4" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW4">
+        <v>2</v>
+      </c>
+      <c r="BX4">
+        <v>9</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF4" t="s">
         <v>177</v>
       </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW4">
-        <v>2</v>
-      </c>
-      <c r="BX4">
-        <v>9</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ4">
-        <v>0</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>176</v>
-      </c>
       <c r="CG4">
         <v>2</v>
       </c>
@@ -6455,7 +6476,7 @@
         <v>9</v>
       </c>
       <c r="CI4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ4">
         <v>0</v>
@@ -6467,49 +6488,19 @@
         <v>1</v>
       </c>
       <c r="CO4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR4" t="b">
         <v>1</v>
       </c>
-      <c r="CS4" t="s">
-        <v>184</v>
-      </c>
-      <c r="CT4">
-        <v>50000</v>
-      </c>
-      <c r="CU4">
-        <v>15000</v>
-      </c>
-      <c r="CV4">
-        <v>7200</v>
-      </c>
-      <c r="CW4">
-        <v>7200</v>
-      </c>
-      <c r="CX4">
-        <v>50000</v>
-      </c>
-      <c r="CY4">
-        <v>0.9</v>
-      </c>
-      <c r="CZ4">
-        <v>0.8</v>
-      </c>
-      <c r="DA4" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB4" t="b">
-        <v>0</v>
-      </c>
       <c r="DM4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="DN4">
         <v>0.05</v>
@@ -6524,10 +6515,10 @@
         <v>8</v>
       </c>
       <c r="DR4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DS4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT4">
         <v>0</v>
@@ -6539,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="EC4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="ED4">
         <v>0</v>
@@ -6551,22 +6542,22 @@
         <v>1</v>
       </c>
       <c r="EK4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EL4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EM4">
         <v>96</v>
       </c>
       <c r="EN4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EO4">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="EP4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EQ4">
         <v>0</v>
@@ -6586,10 +6577,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -6625,10 +6616,10 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>2262000</v>
+        <v>1009000</v>
       </c>
       <c r="S5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="T5" t="s">
         <v>162</v>
@@ -6676,10 +6667,10 @@
         <v>3850000</v>
       </c>
       <c r="AL5" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="AM5">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="s">
         <v>162</v>
@@ -6709,7 +6700,7 @@
         <v>2400</v>
       </c>
       <c r="AW5" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="AX5">
         <v>55</v>
@@ -6739,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="BL5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM5">
         <v>2</v>
@@ -6748,41 +6739,41 @@
         <v>9</v>
       </c>
       <c r="BO5" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW5">
+        <v>2</v>
+      </c>
+      <c r="BX5">
+        <v>9</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF5" t="s">
         <v>177</v>
       </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW5">
-        <v>2</v>
-      </c>
-      <c r="BX5">
-        <v>9</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ5">
-        <v>0</v>
-      </c>
-      <c r="CA5">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>176</v>
-      </c>
       <c r="CG5">
         <v>2</v>
       </c>
@@ -6790,7 +6781,7 @@
         <v>9</v>
       </c>
       <c r="CI5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ5">
         <v>0</v>
@@ -6802,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="CO5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CP5">
         <v>0</v>
@@ -6814,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="DM5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DN5">
         <v>0.05</v>
@@ -6829,10 +6820,10 @@
         <v>8</v>
       </c>
       <c r="DR5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DS5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT5">
         <v>0</v>
@@ -6844,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="EC5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="ED5">
         <v>0</v>
@@ -6856,25 +6847,25 @@
         <v>1</v>
       </c>
       <c r="EK5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EL5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EM5">
         <v>96</v>
       </c>
       <c r="EN5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EO5">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="EP5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EQ5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="ER5">
         <v>0</v>
@@ -6891,10 +6882,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -6930,10 +6921,10 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>1158000</v>
+        <v>2012000</v>
       </c>
       <c r="S6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="T6" t="s">
         <v>162</v>
@@ -6981,10 +6972,10 @@
         <v>3850000</v>
       </c>
       <c r="AL6" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="AM6">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AN6" t="s">
         <v>162</v>
@@ -7014,7 +7005,7 @@
         <v>1800</v>
       </c>
       <c r="AW6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AX6">
         <v>55</v>
@@ -7044,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="BL6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM6">
         <v>2</v>
@@ -7053,41 +7044,41 @@
         <v>9</v>
       </c>
       <c r="BO6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW6">
+        <v>2</v>
+      </c>
+      <c r="BX6">
+        <v>9</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF6" t="s">
         <v>177</v>
       </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
-      <c r="BR6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW6">
-        <v>2</v>
-      </c>
-      <c r="BX6">
-        <v>9</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ6">
-        <v>0</v>
-      </c>
-      <c r="CA6">
-        <v>0</v>
-      </c>
-      <c r="CB6" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>176</v>
-      </c>
       <c r="CG6">
         <v>2</v>
       </c>
@@ -7095,7 +7086,7 @@
         <v>9</v>
       </c>
       <c r="CI6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ6">
         <v>0</v>
@@ -7107,49 +7098,19 @@
         <v>1</v>
       </c>
       <c r="CO6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR6" t="b">
         <v>1</v>
       </c>
-      <c r="CS6" t="s">
-        <v>229</v>
-      </c>
-      <c r="CT6">
-        <v>75000</v>
-      </c>
-      <c r="CU6">
-        <v>20000</v>
-      </c>
-      <c r="CV6">
-        <v>7200</v>
-      </c>
-      <c r="CW6">
-        <v>11000</v>
-      </c>
-      <c r="CX6">
-        <v>100000</v>
-      </c>
-      <c r="CY6">
-        <v>0.9</v>
-      </c>
-      <c r="CZ6">
-        <v>0.8</v>
-      </c>
-      <c r="DA6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB6" t="b">
-        <v>0</v>
-      </c>
       <c r="DM6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="DN6">
         <v>0.05</v>
@@ -7164,10 +7125,10 @@
         <v>8</v>
       </c>
       <c r="DR6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DS6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT6">
         <v>0</v>
@@ -7179,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="EC6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="ED6">
         <v>0</v>
@@ -7191,25 +7152,25 @@
         <v>1</v>
       </c>
       <c r="EK6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EL6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EM6">
         <v>96</v>
       </c>
       <c r="EN6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EO6">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="EP6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EQ6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -7226,10 +7187,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -7265,10 +7226,10 @@
         <v>1</v>
       </c>
       <c r="R7">
-        <v>2687000</v>
+        <v>1546000</v>
       </c>
       <c r="S7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="T7" t="s">
         <v>162</v>
@@ -7316,7 +7277,7 @@
         <v>3850000</v>
       </c>
       <c r="AL7" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="AM7">
         <v>55</v>
@@ -7346,10 +7307,10 @@
         <v>1</v>
       </c>
       <c r="AV7">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="AW7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AX7">
         <v>55</v>
@@ -7379,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="BL7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM7">
         <v>2</v>
@@ -7388,41 +7349,41 @@
         <v>9</v>
       </c>
       <c r="BO7" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW7">
+        <v>2</v>
+      </c>
+      <c r="BX7">
+        <v>9</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF7" t="s">
         <v>177</v>
       </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
-      <c r="BQ7">
-        <v>0</v>
-      </c>
-      <c r="BR7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW7">
-        <v>2</v>
-      </c>
-      <c r="BX7">
-        <v>9</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ7">
-        <v>0</v>
-      </c>
-      <c r="CA7">
-        <v>0</v>
-      </c>
-      <c r="CB7" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>176</v>
-      </c>
       <c r="CG7">
         <v>2</v>
       </c>
@@ -7430,7 +7391,7 @@
         <v>9</v>
       </c>
       <c r="CI7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ7">
         <v>0</v>
@@ -7442,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="CO7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CP7">
         <v>0</v>
@@ -7469,10 +7430,10 @@
         <v>8</v>
       </c>
       <c r="DR7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DS7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT7">
         <v>0</v>
@@ -7484,7 +7445,7 @@
         <v>1</v>
       </c>
       <c r="EC7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="ED7">
         <v>0</v>
@@ -7496,22 +7457,22 @@
         <v>1</v>
       </c>
       <c r="EK7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EL7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EM7">
         <v>96</v>
       </c>
       <c r="EN7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EO7">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="EP7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EQ7">
         <v>0</v>
@@ -7531,10 +7492,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -7570,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>1546000</v>
+        <v>2012000</v>
       </c>
       <c r="S8" t="s">
         <v>217</v>
@@ -7621,10 +7582,10 @@
         <v>3850000</v>
       </c>
       <c r="AL8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM8">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN8" t="s">
         <v>162</v>
@@ -7654,7 +7615,7 @@
         <v>2100</v>
       </c>
       <c r="AW8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AX8">
         <v>55</v>
@@ -7684,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="BL8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM8">
         <v>2</v>
@@ -7693,41 +7654,41 @@
         <v>9</v>
       </c>
       <c r="BO8" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW8">
+        <v>2</v>
+      </c>
+      <c r="BX8">
+        <v>9</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF8" t="s">
         <v>177</v>
       </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW8">
-        <v>2</v>
-      </c>
-      <c r="BX8">
-        <v>9</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ8">
-        <v>0</v>
-      </c>
-      <c r="CA8">
-        <v>0</v>
-      </c>
-      <c r="CB8" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>176</v>
-      </c>
       <c r="CG8">
         <v>2</v>
       </c>
@@ -7735,7 +7696,7 @@
         <v>9</v>
       </c>
       <c r="CI8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ8">
         <v>0</v>
@@ -7747,7 +7708,7 @@
         <v>1</v>
       </c>
       <c r="CO8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CP8">
         <v>0</v>
@@ -7759,7 +7720,7 @@
         <v>1</v>
       </c>
       <c r="DM8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="DN8">
         <v>0.05</v>
@@ -7774,10 +7735,10 @@
         <v>8</v>
       </c>
       <c r="DR8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DS8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT8">
         <v>0</v>
@@ -7789,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="EC8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="ED8">
         <v>0</v>
@@ -7801,25 +7762,25 @@
         <v>1</v>
       </c>
       <c r="EK8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EL8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EM8">
         <v>96</v>
       </c>
       <c r="EN8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EO8">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="EP8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EQ8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="ER8">
         <v>0</v>
@@ -7836,10 +7797,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -7875,7 +7836,7 @@
         <v>1</v>
       </c>
       <c r="R9">
-        <v>14531000</v>
+        <v>13764000</v>
       </c>
       <c r="T9" t="s">
         <v>162</v>
@@ -7947,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="AV9">
-        <v>22400</v>
+        <v>22000</v>
       </c>
       <c r="AY9" t="s">
         <v>162</v>
@@ -7974,10 +7935,10 @@
         <v>1</v>
       </c>
       <c r="BG9">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="BH9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BI9">
         <v>0</v>
@@ -7989,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="BL9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM9">
         <v>2</v>
@@ -7998,50 +7959,59 @@
         <v>9</v>
       </c>
       <c r="BO9" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP9">
+        <v>1</v>
+      </c>
+      <c r="BQ9">
+        <v>1</v>
+      </c>
+      <c r="BR9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS9">
+        <v>9600</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>179</v>
+      </c>
+      <c r="BU9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW9">
+        <v>2</v>
+      </c>
+      <c r="BX9">
+        <v>9</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ9">
+        <v>1</v>
+      </c>
+      <c r="CA9">
+        <v>1</v>
+      </c>
+      <c r="CB9" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC9">
+        <v>1300</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>229</v>
+      </c>
+      <c r="CE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="s">
         <v>177</v>
       </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
-      <c r="BR9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW9">
-        <v>2</v>
-      </c>
-      <c r="BX9">
-        <v>9</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ9">
-        <v>1</v>
-      </c>
-      <c r="CA9">
-        <v>1</v>
-      </c>
-      <c r="CB9" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC9">
-        <v>1600</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>228</v>
-      </c>
-      <c r="CE9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>176</v>
-      </c>
       <c r="CG9">
         <v>2</v>
       </c>
@@ -8049,7 +8019,7 @@
         <v>9</v>
       </c>
       <c r="CI9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ9">
         <v>0</v>
@@ -8061,7 +8031,7 @@
         <v>1</v>
       </c>
       <c r="CO9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CP9">
         <v>0</v>
@@ -8073,10 +8043,10 @@
         <v>1</v>
       </c>
       <c r="DR9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DS9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT9">
         <v>1</v>
@@ -8088,10 +8058,10 @@
         <v>1</v>
       </c>
       <c r="DW9">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="DX9">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="DY9">
         <v>0.95</v>
@@ -8106,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="EC9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="ED9">
         <v>1</v>
@@ -8130,25 +8100,25 @@
         <v>0.1</v>
       </c>
       <c r="EK9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EL9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EM9">
         <v>96</v>
       </c>
       <c r="EN9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EO9">
         <v>12</v>
       </c>
       <c r="EP9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EQ9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="ER9">
         <v>0</v>
@@ -8165,10 +8135,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -8204,10 +8174,10 @@
         <v>1</v>
       </c>
       <c r="R10">
-        <v>2455000</v>
+        <v>1158000</v>
       </c>
       <c r="S10" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="T10" t="s">
         <v>162</v>
@@ -8255,7 +8225,7 @@
         <v>15000000</v>
       </c>
       <c r="AL10" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="AM10">
         <v>55</v>
@@ -8288,7 +8258,7 @@
         <v>2800</v>
       </c>
       <c r="AW10" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="AX10">
         <v>55</v>
@@ -8318,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="BL10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM10">
         <v>2</v>
@@ -8327,41 +8297,41 @@
         <v>9</v>
       </c>
       <c r="BO10" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW10">
+        <v>2</v>
+      </c>
+      <c r="BX10">
+        <v>9</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF10" t="s">
         <v>177</v>
       </c>
-      <c r="BP10">
-        <v>0</v>
-      </c>
-      <c r="BQ10">
-        <v>0</v>
-      </c>
-      <c r="BR10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW10">
-        <v>2</v>
-      </c>
-      <c r="BX10">
-        <v>9</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ10">
-        <v>0</v>
-      </c>
-      <c r="CA10">
-        <v>0</v>
-      </c>
-      <c r="CB10" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF10" t="s">
-        <v>176</v>
-      </c>
       <c r="CG10">
         <v>2</v>
       </c>
@@ -8369,7 +8339,7 @@
         <v>9</v>
       </c>
       <c r="CI10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ10">
         <v>0</v>
@@ -8381,19 +8351,49 @@
         <v>1</v>
       </c>
       <c r="CO10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CP10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR10" t="b">
         <v>1</v>
       </c>
+      <c r="CS10" t="s">
+        <v>231</v>
+      </c>
+      <c r="CT10">
+        <v>50000</v>
+      </c>
+      <c r="CU10">
+        <v>15000</v>
+      </c>
+      <c r="CV10">
+        <v>7200</v>
+      </c>
+      <c r="CW10">
+        <v>7200</v>
+      </c>
+      <c r="CX10">
+        <v>50000</v>
+      </c>
+      <c r="CY10">
+        <v>0.9</v>
+      </c>
+      <c r="CZ10">
+        <v>0.8</v>
+      </c>
+      <c r="DA10" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB10" t="b">
+        <v>0</v>
+      </c>
       <c r="DM10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="DN10">
         <v>0.05</v>
@@ -8408,10 +8408,10 @@
         <v>8</v>
       </c>
       <c r="DR10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DS10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT10">
         <v>0</v>
@@ -8423,7 +8423,7 @@
         <v>1</v>
       </c>
       <c r="EC10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="ED10">
         <v>0</v>
@@ -8435,25 +8435,25 @@
         <v>1</v>
       </c>
       <c r="EK10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EL10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EM10">
         <v>96</v>
       </c>
       <c r="EN10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EO10">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="EP10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EQ10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="ER10">
         <v>0</v>
@@ -8470,10 +8470,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -8509,10 +8509,10 @@
         <v>1</v>
       </c>
       <c r="R11">
-        <v>1546000</v>
+        <v>1720000</v>
       </c>
       <c r="S11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="T11" t="s">
         <v>162</v>
@@ -8560,10 +8560,10 @@
         <v>15000000</v>
       </c>
       <c r="AL11" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="AM11">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AN11" t="s">
         <v>162</v>
@@ -8590,10 +8590,10 @@
         <v>1</v>
       </c>
       <c r="AV11">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="AW11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AX11">
         <v>55</v>
@@ -8623,7 +8623,7 @@
         <v>1</v>
       </c>
       <c r="BL11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM11">
         <v>2</v>
@@ -8632,41 +8632,41 @@
         <v>9</v>
       </c>
       <c r="BO11" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW11">
+        <v>2</v>
+      </c>
+      <c r="BX11">
+        <v>9</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF11" t="s">
         <v>177</v>
       </c>
-      <c r="BP11">
-        <v>0</v>
-      </c>
-      <c r="BQ11">
-        <v>0</v>
-      </c>
-      <c r="BR11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW11">
-        <v>2</v>
-      </c>
-      <c r="BX11">
-        <v>9</v>
-      </c>
-      <c r="BY11" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ11">
-        <v>0</v>
-      </c>
-      <c r="CA11">
-        <v>0</v>
-      </c>
-      <c r="CB11" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>176</v>
-      </c>
       <c r="CG11">
         <v>2</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>9</v>
       </c>
       <c r="CI11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ11">
         <v>0</v>
@@ -8686,49 +8686,19 @@
         <v>1</v>
       </c>
       <c r="CO11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CP11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR11" t="b">
         <v>1</v>
       </c>
-      <c r="CS11" t="s">
-        <v>229</v>
-      </c>
-      <c r="CT11">
-        <v>50000</v>
-      </c>
-      <c r="CU11">
-        <v>15000</v>
-      </c>
-      <c r="CV11">
-        <v>7200</v>
-      </c>
-      <c r="CW11">
-        <v>7200</v>
-      </c>
-      <c r="CX11">
-        <v>50000</v>
-      </c>
-      <c r="CY11">
-        <v>0.9</v>
-      </c>
-      <c r="CZ11">
-        <v>0.8</v>
-      </c>
-      <c r="DA11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB11" t="b">
-        <v>0</v>
-      </c>
       <c r="DM11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="DN11">
         <v>0.05</v>
@@ -8743,10 +8713,10 @@
         <v>8</v>
       </c>
       <c r="DR11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DS11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT11">
         <v>0</v>
@@ -8758,7 +8728,7 @@
         <v>1</v>
       </c>
       <c r="EC11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="ED11">
         <v>0</v>
@@ -8770,25 +8740,25 @@
         <v>1</v>
       </c>
       <c r="EK11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EL11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EM11">
         <v>96</v>
       </c>
       <c r="EN11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EO11">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="EP11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EQ11">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="ER11">
         <v>0</v>
@@ -8805,10 +8775,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -8844,10 +8814,10 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <v>2012000</v>
+        <v>1720000</v>
       </c>
       <c r="S12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="T12" t="s">
         <v>162</v>
@@ -8895,7 +8865,7 @@
         <v>15000000</v>
       </c>
       <c r="AL12" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="AM12">
         <v>55</v>
@@ -8925,10 +8895,10 @@
         <v>1</v>
       </c>
       <c r="AV12">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="AW12" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="AX12">
         <v>55</v>
@@ -8958,7 +8928,7 @@
         <v>1</v>
       </c>
       <c r="BL12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM12">
         <v>2</v>
@@ -8967,41 +8937,41 @@
         <v>9</v>
       </c>
       <c r="BO12" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW12">
+        <v>2</v>
+      </c>
+      <c r="BX12">
+        <v>9</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF12" t="s">
         <v>177</v>
       </c>
-      <c r="BP12">
-        <v>0</v>
-      </c>
-      <c r="BQ12">
-        <v>0</v>
-      </c>
-      <c r="BR12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW12">
-        <v>2</v>
-      </c>
-      <c r="BX12">
-        <v>9</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ12">
-        <v>0</v>
-      </c>
-      <c r="CA12">
-        <v>0</v>
-      </c>
-      <c r="CB12" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>176</v>
-      </c>
       <c r="CG12">
         <v>2</v>
       </c>
@@ -9009,7 +8979,7 @@
         <v>9</v>
       </c>
       <c r="CI12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ12">
         <v>0</v>
@@ -9021,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="CO12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CP12">
         <v>0</v>
@@ -9048,10 +9018,10 @@
         <v>8</v>
       </c>
       <c r="DR12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DS12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT12">
         <v>0</v>
@@ -9063,7 +9033,7 @@
         <v>1</v>
       </c>
       <c r="EC12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="ED12">
         <v>0</v>
@@ -9075,25 +9045,25 @@
         <v>1</v>
       </c>
       <c r="EK12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EL12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EM12">
         <v>96</v>
       </c>
       <c r="EN12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EO12">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="EP12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EQ12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="ER12">
         <v>0</v>
@@ -9110,10 +9080,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -9149,10 +9119,10 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <v>2896000</v>
+        <v>913000</v>
       </c>
       <c r="S13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="T13" t="s">
         <v>162</v>
@@ -9200,7 +9170,7 @@
         <v>15000000</v>
       </c>
       <c r="AL13" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="AM13">
         <v>55</v>
@@ -9230,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AV13">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="AW13" t="s">
         <v>173</v>
@@ -9263,7 +9233,7 @@
         <v>1</v>
       </c>
       <c r="BL13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM13">
         <v>2</v>
@@ -9272,41 +9242,41 @@
         <v>9</v>
       </c>
       <c r="BO13" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW13">
+        <v>2</v>
+      </c>
+      <c r="BX13">
+        <v>9</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF13" t="s">
         <v>177</v>
       </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW13">
-        <v>2</v>
-      </c>
-      <c r="BX13">
-        <v>9</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ13">
-        <v>0</v>
-      </c>
-      <c r="CA13">
-        <v>0</v>
-      </c>
-      <c r="CB13" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>176</v>
-      </c>
       <c r="CG13">
         <v>2</v>
       </c>
@@ -9314,7 +9284,7 @@
         <v>9</v>
       </c>
       <c r="CI13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ13">
         <v>0</v>
@@ -9326,7 +9296,7 @@
         <v>1</v>
       </c>
       <c r="CO13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CP13">
         <v>0</v>
@@ -9338,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="DM13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="DN13">
         <v>0.05</v>
@@ -9353,10 +9323,10 @@
         <v>8</v>
       </c>
       <c r="DR13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DS13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT13">
         <v>0</v>
@@ -9368,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="EC13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="ED13">
         <v>0</v>
@@ -9380,22 +9350,22 @@
         <v>1</v>
       </c>
       <c r="EK13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EL13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EM13">
         <v>96</v>
       </c>
       <c r="EN13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EO13">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="EP13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EQ13">
         <v>0</v>
@@ -9415,10 +9385,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -9454,10 +9424,10 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>945000</v>
+        <v>2455000</v>
       </c>
       <c r="S14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="T14" t="s">
         <v>162</v>
@@ -9505,10 +9475,10 @@
         <v>15000000</v>
       </c>
       <c r="AL14" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM14">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AN14" t="s">
         <v>162</v>
@@ -9538,7 +9508,7 @@
         <v>2800</v>
       </c>
       <c r="AW14" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="AX14">
         <v>55</v>
@@ -9568,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="BL14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM14">
         <v>2</v>
@@ -9577,41 +9547,41 @@
         <v>9</v>
       </c>
       <c r="BO14" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW14">
+        <v>2</v>
+      </c>
+      <c r="BX14">
+        <v>9</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ14">
+        <v>0</v>
+      </c>
+      <c r="CA14">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF14" t="s">
         <v>177</v>
       </c>
-      <c r="BP14">
-        <v>0</v>
-      </c>
-      <c r="BQ14">
-        <v>0</v>
-      </c>
-      <c r="BR14" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW14">
-        <v>2</v>
-      </c>
-      <c r="BX14">
-        <v>9</v>
-      </c>
-      <c r="BY14" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ14">
-        <v>0</v>
-      </c>
-      <c r="CA14">
-        <v>0</v>
-      </c>
-      <c r="CB14" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF14" t="s">
-        <v>176</v>
-      </c>
       <c r="CG14">
         <v>2</v>
       </c>
@@ -9619,7 +9589,7 @@
         <v>9</v>
       </c>
       <c r="CI14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ14">
         <v>0</v>
@@ -9631,7 +9601,7 @@
         <v>1</v>
       </c>
       <c r="CO14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CP14">
         <v>0</v>
@@ -9643,7 +9613,7 @@
         <v>1</v>
       </c>
       <c r="DM14" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="DN14">
         <v>0.05</v>
@@ -9658,10 +9628,10 @@
         <v>8</v>
       </c>
       <c r="DR14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DS14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT14">
         <v>0</v>
@@ -9673,7 +9643,7 @@
         <v>1</v>
       </c>
       <c r="EC14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="ED14">
         <v>0</v>
@@ -9685,25 +9655,25 @@
         <v>1</v>
       </c>
       <c r="EK14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EL14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EM14">
         <v>96</v>
       </c>
       <c r="EN14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EO14">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="EP14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EQ14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="ER14">
         <v>0</v>
@@ -9720,10 +9690,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -9759,10 +9729,10 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>945000</v>
+        <v>2532000</v>
       </c>
       <c r="S15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="T15" t="s">
         <v>162</v>
@@ -9810,10 +9780,10 @@
         <v>15000000</v>
       </c>
       <c r="AL15" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="AM15">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN15" t="s">
         <v>162</v>
@@ -9840,10 +9810,10 @@
         <v>1</v>
       </c>
       <c r="AV15">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="AW15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX15">
         <v>55</v>
@@ -9873,7 +9843,7 @@
         <v>1</v>
       </c>
       <c r="BL15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM15">
         <v>2</v>
@@ -9882,41 +9852,41 @@
         <v>9</v>
       </c>
       <c r="BO15" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW15">
+        <v>2</v>
+      </c>
+      <c r="BX15">
+        <v>9</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ15">
+        <v>0</v>
+      </c>
+      <c r="CA15">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF15" t="s">
         <v>177</v>
       </c>
-      <c r="BP15">
-        <v>0</v>
-      </c>
-      <c r="BQ15">
-        <v>0</v>
-      </c>
-      <c r="BR15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW15">
-        <v>2</v>
-      </c>
-      <c r="BX15">
-        <v>9</v>
-      </c>
-      <c r="BY15" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ15">
-        <v>0</v>
-      </c>
-      <c r="CA15">
-        <v>0</v>
-      </c>
-      <c r="CB15" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF15" t="s">
-        <v>176</v>
-      </c>
       <c r="CG15">
         <v>2</v>
       </c>
@@ -9924,7 +9894,7 @@
         <v>9</v>
       </c>
       <c r="CI15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ15">
         <v>0</v>
@@ -9936,7 +9906,7 @@
         <v>1</v>
       </c>
       <c r="CO15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CP15">
         <v>0</v>
@@ -9948,7 +9918,7 @@
         <v>1</v>
       </c>
       <c r="DM15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="DN15">
         <v>0.05</v>
@@ -9963,10 +9933,10 @@
         <v>8</v>
       </c>
       <c r="DR15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DS15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT15">
         <v>0</v>
@@ -9978,7 +9948,7 @@
         <v>1</v>
       </c>
       <c r="EC15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="ED15">
         <v>0</v>
@@ -9990,25 +9960,25 @@
         <v>1</v>
       </c>
       <c r="EK15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EL15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EM15">
         <v>96</v>
       </c>
       <c r="EN15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EO15">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="EP15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EQ15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="ER15">
         <v>0</v>
@@ -10025,10 +9995,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -10064,10 +10034,10 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <v>2012000</v>
+        <v>1720000</v>
       </c>
       <c r="S16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="T16" t="s">
         <v>162</v>
@@ -10115,10 +10085,10 @@
         <v>15000000</v>
       </c>
       <c r="AL16" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AM16">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN16" t="s">
         <v>162</v>
@@ -10145,10 +10115,10 @@
         <v>1</v>
       </c>
       <c r="AV16">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="AW16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AX16">
         <v>55</v>
@@ -10178,7 +10148,7 @@
         <v>1</v>
       </c>
       <c r="BL16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM16">
         <v>2</v>
@@ -10187,41 +10157,41 @@
         <v>9</v>
       </c>
       <c r="BO16" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW16">
+        <v>2</v>
+      </c>
+      <c r="BX16">
+        <v>9</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ16">
+        <v>0</v>
+      </c>
+      <c r="CA16">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF16" t="s">
         <v>177</v>
       </c>
-      <c r="BP16">
-        <v>0</v>
-      </c>
-      <c r="BQ16">
-        <v>0</v>
-      </c>
-      <c r="BR16" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW16">
-        <v>2</v>
-      </c>
-      <c r="BX16">
-        <v>9</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ16">
-        <v>0</v>
-      </c>
-      <c r="CA16">
-        <v>0</v>
-      </c>
-      <c r="CB16" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF16" t="s">
-        <v>176</v>
-      </c>
       <c r="CG16">
         <v>2</v>
       </c>
@@ -10229,7 +10199,7 @@
         <v>9</v>
       </c>
       <c r="CI16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ16">
         <v>0</v>
@@ -10241,19 +10211,49 @@
         <v>1</v>
       </c>
       <c r="CO16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CP16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR16" t="b">
         <v>1</v>
       </c>
+      <c r="CS16" t="s">
+        <v>185</v>
+      </c>
+      <c r="CT16">
+        <v>75000</v>
+      </c>
+      <c r="CU16">
+        <v>20000</v>
+      </c>
+      <c r="CV16">
+        <v>7200</v>
+      </c>
+      <c r="CW16">
+        <v>11000</v>
+      </c>
+      <c r="CX16">
+        <v>100000</v>
+      </c>
+      <c r="CY16">
+        <v>0.9</v>
+      </c>
+      <c r="CZ16">
+        <v>0.8</v>
+      </c>
+      <c r="DA16" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB16" t="b">
+        <v>0</v>
+      </c>
       <c r="DM16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DN16">
         <v>0.05</v>
@@ -10268,10 +10268,10 @@
         <v>8</v>
       </c>
       <c r="DR16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DS16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT16">
         <v>0</v>
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="EC16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="ED16">
         <v>0</v>
@@ -10295,22 +10295,22 @@
         <v>1</v>
       </c>
       <c r="EK16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EL16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EM16">
         <v>96</v>
       </c>
       <c r="EN16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EO16">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="EP16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EQ16">
         <v>0</v>
@@ -10330,10 +10330,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>1</v>
       </c>
       <c r="R17">
-        <v>1720000</v>
+        <v>1546000</v>
       </c>
       <c r="S17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="T17" t="s">
         <v>162</v>
@@ -10420,10 +10420,10 @@
         <v>15000000</v>
       </c>
       <c r="AL17" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="AM17">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AN17" t="s">
         <v>162</v>
@@ -10450,10 +10450,10 @@
         <v>1</v>
       </c>
       <c r="AV17">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="AW17" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="AX17">
         <v>55</v>
@@ -10483,7 +10483,7 @@
         <v>1</v>
       </c>
       <c r="BL17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM17">
         <v>2</v>
@@ -10492,41 +10492,41 @@
         <v>9</v>
       </c>
       <c r="BO17" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW17">
+        <v>2</v>
+      </c>
+      <c r="BX17">
+        <v>9</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ17">
+        <v>0</v>
+      </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF17" t="s">
         <v>177</v>
       </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>0</v>
-      </c>
-      <c r="BR17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW17">
-        <v>2</v>
-      </c>
-      <c r="BX17">
-        <v>9</v>
-      </c>
-      <c r="BY17" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ17">
-        <v>0</v>
-      </c>
-      <c r="CA17">
-        <v>0</v>
-      </c>
-      <c r="CB17" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF17" t="s">
-        <v>176</v>
-      </c>
       <c r="CG17">
         <v>2</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>9</v>
       </c>
       <c r="CI17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ17">
         <v>0</v>
@@ -10546,79 +10546,19 @@
         <v>1</v>
       </c>
       <c r="CO17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CP17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CR17" t="b">
         <v>1</v>
       </c>
-      <c r="CS17" t="s">
-        <v>185</v>
-      </c>
-      <c r="CT17">
-        <v>75000</v>
-      </c>
-      <c r="CU17">
-        <v>20000</v>
-      </c>
-      <c r="CV17">
-        <v>7200</v>
-      </c>
-      <c r="CW17">
-        <v>11000</v>
-      </c>
-      <c r="CX17">
-        <v>100000</v>
-      </c>
-      <c r="CY17">
-        <v>0.9</v>
-      </c>
-      <c r="CZ17">
-        <v>0.8</v>
-      </c>
-      <c r="DA17" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB17" t="b">
-        <v>0</v>
-      </c>
-      <c r="DC17" t="s">
-        <v>230</v>
-      </c>
-      <c r="DD17">
-        <v>50000</v>
-      </c>
-      <c r="DE17">
-        <v>15000</v>
-      </c>
-      <c r="DF17">
-        <v>7200</v>
-      </c>
-      <c r="DG17">
-        <v>7200</v>
-      </c>
-      <c r="DH17">
-        <v>50000</v>
-      </c>
-      <c r="DI17">
-        <v>0.9</v>
-      </c>
-      <c r="DJ17">
-        <v>0.8</v>
-      </c>
-      <c r="DK17" t="b">
-        <v>0</v>
-      </c>
-      <c r="DL17" t="b">
-        <v>0</v>
-      </c>
       <c r="DM17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="DN17">
         <v>0.05</v>
@@ -10633,10 +10573,10 @@
         <v>8</v>
       </c>
       <c r="DR17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DS17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT17">
         <v>0</v>
@@ -10648,7 +10588,7 @@
         <v>1</v>
       </c>
       <c r="EC17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="ED17">
         <v>0</v>
@@ -10660,22 +10600,22 @@
         <v>1</v>
       </c>
       <c r="EK17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EL17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EM17">
         <v>96</v>
       </c>
       <c r="EN17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EO17">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="EP17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EQ17">
         <v>0</v>
@@ -10717,13 +10657,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -11004,13 +10944,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G2">
-        <v>543</v>
+        <v>208</v>
       </c>
       <c r="H2">
         <v>96</v>
@@ -11028,10 +10968,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15120000</v>
+        <v>8950000</v>
       </c>
       <c r="N2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O2" t="s">
         <v>162</v>
@@ -11055,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y2" t="s">
         <v>162</v>
@@ -11079,22 +11019,22 @@
         <v>1</v>
       </c>
       <c r="AF2">
-        <v>8630000</v>
+        <v>4510000</v>
       </c>
       <c r="AG2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AI2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="b">
         <v>1</v>
       </c>
       <c r="AK2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL2">
         <v>2</v>
@@ -11103,41 +11043,41 @@
         <v>9</v>
       </c>
       <c r="AN2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV2">
+        <v>2</v>
+      </c>
+      <c r="AW2">
+        <v>9</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="s">
         <v>177</v>
       </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV2">
-        <v>2</v>
-      </c>
-      <c r="AW2">
-        <v>9</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>176</v>
-      </c>
       <c r="BF2">
         <v>2</v>
       </c>
@@ -11145,7 +11085,7 @@
         <v>9</v>
       </c>
       <c r="BH2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -11157,10 +11097,10 @@
         <v>1</v>
       </c>
       <c r="CA2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CB2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CC2">
         <v>1</v>
@@ -11169,13 +11109,13 @@
         <v>1</v>
       </c>
       <c r="CE2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CF2">
-        <v>15100</v>
+        <v>9000</v>
       </c>
       <c r="CG2">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="CH2">
         <v>0.95</v>
@@ -11190,22 +11130,22 @@
         <v>0</v>
       </c>
       <c r="CL2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CN2">
         <v>96</v>
       </c>
       <c r="CO2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CP2">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="CQ2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="CR2">
         <v>0</v>
@@ -11225,13 +11165,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G3">
-        <v>184</v>
+        <v>499</v>
       </c>
       <c r="H3">
         <v>96</v>
@@ -11249,10 +11189,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6850000</v>
+        <v>15260000</v>
       </c>
       <c r="N3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O3" t="s">
         <v>162</v>
@@ -11276,7 +11216,7 @@
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Y3" t="s">
         <v>162</v>
@@ -11291,31 +11231,16 @@
         <v>163</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>1</v>
       </c>
-      <c r="AF3">
-        <v>3260000</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH3">
-        <v>-20</v>
-      </c>
-      <c r="AI3">
-        <v>50</v>
-      </c>
-      <c r="AJ3" t="b">
-        <v>1</v>
-      </c>
       <c r="AK3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL3">
         <v>2</v>
@@ -11324,41 +11249,41 @@
         <v>9</v>
       </c>
       <c r="AN3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV3">
+        <v>2</v>
+      </c>
+      <c r="AW3">
+        <v>9</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE3" t="s">
         <v>177</v>
       </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV3">
-        <v>2</v>
-      </c>
-      <c r="AW3">
-        <v>9</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>176</v>
-      </c>
       <c r="BF3">
         <v>2</v>
       </c>
@@ -11366,115 +11291,52 @@
         <v>9</v>
       </c>
       <c r="BH3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="b">
         <v>1</v>
       </c>
-      <c r="BL3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BM3">
-        <v>75000</v>
-      </c>
-      <c r="BN3">
-        <v>25000</v>
-      </c>
-      <c r="BO3">
-        <v>11000</v>
-      </c>
-      <c r="BP3">
-        <v>22000</v>
-      </c>
-      <c r="BQ3">
-        <v>200000</v>
-      </c>
-      <c r="BR3">
-        <v>0.9</v>
-      </c>
-      <c r="BS3">
-        <v>0.8</v>
-      </c>
-      <c r="BT3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>188</v>
-      </c>
-      <c r="BW3">
-        <v>0.05</v>
-      </c>
-      <c r="BX3">
-        <v>0.5</v>
-      </c>
-      <c r="BY3">
-        <v>0.8</v>
-      </c>
-      <c r="BZ3">
-        <v>8</v>
-      </c>
       <c r="CA3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CB3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE3" t="s">
-        <v>190</v>
-      </c>
-      <c r="CF3">
-        <v>6800</v>
-      </c>
-      <c r="CG3">
-        <v>14000</v>
-      </c>
-      <c r="CH3">
-        <v>0.95</v>
-      </c>
-      <c r="CI3">
-        <v>0.1</v>
-      </c>
-      <c r="CJ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="b">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="CL3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CN3">
         <v>96</v>
       </c>
       <c r="CO3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CP3">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="CQ3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="CR3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="CS3">
         <v>0</v>
@@ -11491,13 +11353,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F4" t="s">
         <v>244</v>
       </c>
       <c r="G4">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="H4">
         <v>96</v>
@@ -11515,7 +11377,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15360000</v>
+        <v>14610000</v>
       </c>
       <c r="N4" t="s">
         <v>246</v>
@@ -11557,16 +11419,31 @@
         <v>163</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="b">
         <v>1</v>
       </c>
+      <c r="AF4">
+        <v>6650000</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>40</v>
+      </c>
+      <c r="AJ4" t="b">
+        <v>1</v>
+      </c>
       <c r="AK4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL4">
         <v>2</v>
@@ -11575,41 +11452,41 @@
         <v>9</v>
       </c>
       <c r="AN4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV4">
+        <v>2</v>
+      </c>
+      <c r="AW4">
+        <v>9</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE4" t="s">
         <v>177</v>
       </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV4">
-        <v>2</v>
-      </c>
-      <c r="AW4">
-        <v>9</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>176</v>
-      </c>
       <c r="BF4">
         <v>2</v>
       </c>
@@ -11617,52 +11494,115 @@
         <v>9</v>
       </c>
       <c r="BH4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK4" t="b">
         <v>1</v>
       </c>
+      <c r="BL4" t="s">
+        <v>230</v>
+      </c>
+      <c r="BM4">
+        <v>50000</v>
+      </c>
+      <c r="BN4">
+        <v>20000</v>
+      </c>
+      <c r="BO4">
+        <v>7200</v>
+      </c>
+      <c r="BP4">
+        <v>11000</v>
+      </c>
+      <c r="BQ4">
+        <v>100000</v>
+      </c>
+      <c r="BR4">
+        <v>0.9</v>
+      </c>
+      <c r="BS4">
+        <v>0.8</v>
+      </c>
+      <c r="BT4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>247</v>
+      </c>
+      <c r="BW4">
+        <v>0.05</v>
+      </c>
+      <c r="BX4">
+        <v>0.5</v>
+      </c>
+      <c r="BY4">
+        <v>0.8</v>
+      </c>
+      <c r="BZ4">
+        <v>8</v>
+      </c>
       <c r="CA4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CB4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE4" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="CF4">
+        <v>14600</v>
+      </c>
+      <c r="CG4">
+        <v>15000</v>
+      </c>
+      <c r="CH4">
+        <v>0.95</v>
+      </c>
+      <c r="CI4">
+        <v>0.1</v>
+      </c>
+      <c r="CJ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="b">
+        <v>0</v>
       </c>
       <c r="CL4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CN4">
         <v>96</v>
       </c>
       <c r="CO4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CP4">
         <v>12</v>
       </c>
       <c r="CQ4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="CR4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="CS4">
         <v>0</v>
@@ -11679,13 +11619,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" t="s">
         <v>243</v>
       </c>
-      <c r="F5" t="s">
-        <v>245</v>
-      </c>
       <c r="G5">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="H5">
         <v>96</v>
@@ -11703,10 +11643,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7730000</v>
+        <v>8800000</v>
       </c>
       <c r="N5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O5" t="s">
         <v>162</v>
@@ -11730,7 +11670,7 @@
         <v>1</v>
       </c>
       <c r="W5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y5" t="s">
         <v>162</v>
@@ -11745,31 +11685,16 @@
         <v>163</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>1</v>
       </c>
-      <c r="AF5">
-        <v>4380000</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH5">
-        <v>-20</v>
-      </c>
-      <c r="AI5">
-        <v>50</v>
-      </c>
-      <c r="AJ5" t="b">
-        <v>1</v>
-      </c>
       <c r="AK5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL5">
         <v>2</v>
@@ -11778,41 +11703,41 @@
         <v>9</v>
       </c>
       <c r="AN5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV5">
+        <v>2</v>
+      </c>
+      <c r="AW5">
+        <v>9</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE5" t="s">
         <v>177</v>
       </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV5">
-        <v>2</v>
-      </c>
-      <c r="AW5">
-        <v>9</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>176</v>
-      </c>
       <c r="BF5">
         <v>2</v>
       </c>
@@ -11820,7 +11745,7 @@
         <v>9</v>
       </c>
       <c r="BH5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BI5">
         <v>0</v>
@@ -11832,58 +11757,40 @@
         <v>1</v>
       </c>
       <c r="CA5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CB5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="s">
-        <v>190</v>
-      </c>
-      <c r="CF5">
-        <v>7700</v>
-      </c>
-      <c r="CG5">
-        <v>15000</v>
-      </c>
-      <c r="CH5">
-        <v>0.95</v>
-      </c>
-      <c r="CI5">
-        <v>0.1</v>
-      </c>
-      <c r="CJ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CK5" t="b">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="CL5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CN5">
         <v>96</v>
       </c>
       <c r="CO5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CP5">
         <v>36</v>
       </c>
       <c r="CQ5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="CR5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CS5">
         <v>0</v>
@@ -11922,13 +11829,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -12239,13 +12146,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G2">
-        <v>2135</v>
+        <v>5397</v>
       </c>
       <c r="H2">
         <v>96</v>
@@ -12263,10 +12170,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1002000000</v>
+        <v>1241500000</v>
       </c>
       <c r="N2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O2" t="s">
         <v>162</v>
@@ -12290,7 +12197,7 @@
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y2" t="s">
         <v>162</v>
@@ -12305,31 +12212,16 @@
         <v>163</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>1</v>
       </c>
-      <c r="AF2">
-        <v>1229000000</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH2">
-        <v>-20</v>
-      </c>
-      <c r="AI2">
-        <v>50</v>
-      </c>
-      <c r="AJ2" t="b">
-        <v>1</v>
-      </c>
       <c r="AK2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL2">
         <v>2</v>
@@ -12338,50 +12230,41 @@
         <v>9</v>
       </c>
       <c r="AN2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV2">
+        <v>2</v>
+      </c>
+      <c r="AW2">
+        <v>9</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="s">
         <v>177</v>
       </c>
-      <c r="AO2">
-        <v>1</v>
-      </c>
-      <c r="AP2">
-        <v>1</v>
-      </c>
-      <c r="AQ2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR2">
-        <v>104300000</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AT2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV2">
-        <v>2</v>
-      </c>
-      <c r="AW2">
-        <v>9</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>176</v>
-      </c>
       <c r="BF2">
         <v>2</v>
       </c>
@@ -12389,97 +12272,22 @@
         <v>9</v>
       </c>
       <c r="BH2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="b">
         <v>1</v>
       </c>
-      <c r="BL2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BM2">
-        <v>750000</v>
-      </c>
-      <c r="BN2">
-        <v>25000</v>
-      </c>
-      <c r="BO2">
-        <v>11000</v>
-      </c>
-      <c r="BP2">
-        <v>22000</v>
-      </c>
-      <c r="BQ2">
-        <v>200000</v>
-      </c>
-      <c r="BR2">
-        <v>0.9</v>
-      </c>
-      <c r="BS2">
-        <v>0.8</v>
-      </c>
-      <c r="BT2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>186</v>
-      </c>
-      <c r="BW2">
-        <v>750000</v>
-      </c>
-      <c r="BX2">
-        <v>25000</v>
-      </c>
-      <c r="BY2">
-        <v>11000</v>
-      </c>
-      <c r="BZ2">
-        <v>22000</v>
-      </c>
-      <c r="CA2">
-        <v>200000</v>
-      </c>
-      <c r="CB2">
-        <v>0.9</v>
-      </c>
-      <c r="CC2">
-        <v>0.8</v>
-      </c>
-      <c r="CD2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CE2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>188</v>
-      </c>
-      <c r="CG2">
-        <v>0.05</v>
-      </c>
-      <c r="CH2">
-        <v>0.5</v>
-      </c>
-      <c r="CI2">
-        <v>0.8</v>
-      </c>
-      <c r="CJ2">
-        <v>8</v>
-      </c>
       <c r="CK2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CL2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM2">
         <v>0</v>
@@ -12488,25 +12296,25 @@
         <v>0</v>
       </c>
       <c r="CO2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CV2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CW2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CX2">
         <v>96</v>
       </c>
       <c r="CY2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CZ2">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="DA2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="DB2">
         <v>30</v>
@@ -12526,13 +12334,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G3">
-        <v>4819</v>
+        <v>1969</v>
       </c>
       <c r="H3">
         <v>96</v>
@@ -12550,10 +12358,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1211000000</v>
+        <v>757600000</v>
       </c>
       <c r="N3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O3" t="s">
         <v>162</v>
@@ -12577,7 +12385,7 @@
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y3" t="s">
         <v>162</v>
@@ -12601,7 +12409,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL3">
         <v>2</v>
@@ -12610,41 +12418,41 @@
         <v>9</v>
       </c>
       <c r="AN3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV3">
+        <v>2</v>
+      </c>
+      <c r="AW3">
+        <v>9</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE3" t="s">
         <v>177</v>
       </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV3">
-        <v>2</v>
-      </c>
-      <c r="AW3">
-        <v>9</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>176</v>
-      </c>
       <c r="BF3">
         <v>2</v>
       </c>
@@ -12652,34 +12460,34 @@
         <v>9</v>
       </c>
       <c r="BH3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BI3">
         <v>1</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK3" t="b">
         <v>1</v>
       </c>
       <c r="BL3" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="BM3">
-        <v>500000</v>
+        <v>750000</v>
       </c>
       <c r="BN3">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="BO3">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="BP3">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="BQ3">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="BR3">
         <v>0.9</v>
@@ -12693,8 +12501,38 @@
       <c r="BU3" t="b">
         <v>0</v>
       </c>
+      <c r="BV3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BW3">
+        <v>750000</v>
+      </c>
+      <c r="BX3">
+        <v>25000</v>
+      </c>
+      <c r="BY3">
+        <v>11000</v>
+      </c>
+      <c r="BZ3">
+        <v>22000</v>
+      </c>
+      <c r="CA3">
+        <v>200000</v>
+      </c>
+      <c r="CB3">
+        <v>0.9</v>
+      </c>
+      <c r="CC3">
+        <v>0.8</v>
+      </c>
+      <c r="CD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="b">
+        <v>0</v>
+      </c>
       <c r="CF3" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="CG3">
         <v>0.05</v>
@@ -12709,10 +12547,10 @@
         <v>8</v>
       </c>
       <c r="CK3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CL3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM3">
         <v>0</v>
@@ -12721,28 +12559,28 @@
         <v>0</v>
       </c>
       <c r="CO3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CV3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CW3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CX3">
         <v>96</v>
       </c>
       <c r="CY3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CZ3">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="DA3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="DB3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="DC3">
         <v>0</v>
@@ -12781,7 +12619,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -12939,7 +12777,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F2">
         <v>96</v>
@@ -12957,22 +12795,22 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>32100000</v>
+        <v>63700000</v>
       </c>
       <c r="L2" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="M2">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -12981,7 +12819,7 @@
         <v>9</v>
       </c>
       <c r="S2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN2">
         <v>1</v>
@@ -12993,10 +12831,10 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>16050000</v>
+        <v>31850000</v>
       </c>
       <c r="AR2">
-        <v>32100000</v>
+        <v>63700000</v>
       </c>
       <c r="AS2">
         <v>0.95</v>
@@ -13011,19 +12849,19 @@
         <v>1</v>
       </c>
       <c r="AW2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AX2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AY2">
         <v>96</v>
       </c>
       <c r="AZ2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BA2">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="BB2">
         <v>0</v>
@@ -13040,7 +12878,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F3">
         <v>96</v>
@@ -13058,10 +12896,10 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>14000000</v>
+        <v>11400000</v>
       </c>
       <c r="L3" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -13073,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -13082,7 +12920,7 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -13094,10 +12932,10 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>7000000</v>
+        <v>5700000</v>
       </c>
       <c r="AR3">
-        <v>14000000</v>
+        <v>11400000</v>
       </c>
       <c r="AS3">
         <v>0.95</v>
@@ -13112,16 +12950,16 @@
         <v>1</v>
       </c>
       <c r="AW3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AX3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AY3">
         <v>96</v>
       </c>
       <c r="AZ3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BA3">
         <v>48</v>
@@ -13141,7 +12979,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F4">
         <v>96</v>
@@ -13159,22 +12997,22 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>59800000</v>
+        <v>32100000</v>
       </c>
       <c r="L4" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="M4">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="N4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -13183,7 +13021,7 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN4">
         <v>1</v>
@@ -13195,10 +13033,10 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>29900000</v>
+        <v>16050000</v>
       </c>
       <c r="AR4">
-        <v>59800000</v>
+        <v>32100000</v>
       </c>
       <c r="AS4">
         <v>0.95</v>
@@ -13213,19 +13051,19 @@
         <v>1</v>
       </c>
       <c r="AW4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AX4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AY4">
         <v>96</v>
       </c>
       <c r="AZ4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BA4">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="BB4">
         <v>0</v>
@@ -13242,7 +13080,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F5">
         <v>96</v>
@@ -13260,10 +13098,10 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>15500000</v>
+        <v>19000000</v>
       </c>
       <c r="L5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -13275,7 +13113,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -13284,7 +13122,7 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN5">
         <v>1</v>
@@ -13296,10 +13134,10 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>7750000</v>
+        <v>9500000</v>
       </c>
       <c r="AR5">
-        <v>15500000</v>
+        <v>19000000</v>
       </c>
       <c r="AS5">
         <v>0.95</v>
@@ -13314,19 +13152,19 @@
         <v>1</v>
       </c>
       <c r="AW5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AX5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AY5">
         <v>96</v>
       </c>
       <c r="AZ5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BA5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -13343,7 +13181,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F6">
         <v>96</v>
@@ -13364,13 +13202,13 @@
         <v>20000</v>
       </c>
       <c r="AH6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI6" t="b">
         <v>1</v>
       </c>
       <c r="AJ6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK6">
         <v>2</v>
@@ -13379,31 +13217,49 @@
         <v>9</v>
       </c>
       <c r="AM6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" t="b">
         <v>1</v>
       </c>
+      <c r="AQ6">
+        <v>6000</v>
+      </c>
+      <c r="AR6">
+        <v>20000</v>
+      </c>
+      <c r="AS6">
+        <v>0.95</v>
+      </c>
+      <c r="AT6">
+        <v>0.1</v>
+      </c>
+      <c r="AU6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="b">
+        <v>1</v>
+      </c>
       <c r="AW6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AY6">
         <v>96</v>
       </c>
       <c r="AZ6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BA6">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -13420,7 +13276,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F7">
         <v>96</v>
@@ -13438,16 +13294,16 @@
         <v>1</v>
       </c>
       <c r="AG7">
-        <v>38100</v>
+        <v>39600</v>
       </c>
       <c r="AH7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI7" t="b">
         <v>1</v>
       </c>
       <c r="AJ7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK7">
         <v>2</v>
@@ -13456,7 +13312,7 @@
         <v>9</v>
       </c>
       <c r="AM7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN7">
         <v>0</v>
@@ -13468,19 +13324,19 @@
         <v>1</v>
       </c>
       <c r="AW7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AY7">
         <v>96</v>
       </c>
       <c r="AZ7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BA7">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="BB7">
         <v>0</v>
@@ -13519,7 +13375,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -13659,10 +13515,10 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>852000</v>
+        <v>1100000</v>
       </c>
       <c r="L2">
-        <v>5380000</v>
+        <v>4160000</v>
       </c>
       <c r="M2">
         <v>0.95</v>
@@ -13677,16 +13533,16 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM2">
         <v>96</v>
       </c>
       <c r="AN2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO2">
         <v>24</v>
@@ -13724,10 +13580,10 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1056000</v>
+        <v>1070000</v>
       </c>
       <c r="L3">
-        <v>4310000</v>
+        <v>4810000</v>
       </c>
       <c r="M3">
         <v>0.95</v>
@@ -13742,19 +13598,19 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM3">
         <v>96</v>
       </c>
       <c r="AN3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -13789,10 +13645,10 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1875000</v>
+        <v>1940000</v>
       </c>
       <c r="L4">
-        <v>8240000</v>
+        <v>7530000</v>
       </c>
       <c r="M4">
         <v>0.95</v>
@@ -13807,19 +13663,19 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM4">
         <v>96</v>
       </c>
       <c r="AN4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO4">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -13854,10 +13710,10 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <v>2150000000</v>
+        <v>1857000000</v>
       </c>
       <c r="V5">
-        <v>9790000000</v>
+        <v>7890000000</v>
       </c>
       <c r="W5">
         <v>0.95</v>
@@ -13872,19 +13728,19 @@
         <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM5">
         <v>96</v>
       </c>
       <c r="AN5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO5">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -13919,10 +13775,10 @@
         <v>1</v>
       </c>
       <c r="U6">
-        <v>1150000000</v>
+        <v>1065000000</v>
       </c>
       <c r="V6">
-        <v>5090000000</v>
+        <v>5400000000</v>
       </c>
       <c r="W6">
         <v>0.95</v>
@@ -13937,19 +13793,19 @@
         <v>1</v>
       </c>
       <c r="AA6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM6">
         <v>96</v>
       </c>
       <c r="AN6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO6">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -13984,10 +13840,10 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>1160000000</v>
+        <v>870000000</v>
       </c>
       <c r="V7">
-        <v>4320000000</v>
+        <v>5110000000</v>
       </c>
       <c r="W7">
         <v>0.95</v>
@@ -14002,19 +13858,19 @@
         <v>1</v>
       </c>
       <c r="AA7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM7">
         <v>96</v>
       </c>
       <c r="AN7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO7">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -14049,10 +13905,10 @@
         <v>1</v>
       </c>
       <c r="AE8">
-        <v>201100000</v>
+        <v>108000000</v>
       </c>
       <c r="AF8">
-        <v>668000000</v>
+        <v>553000000</v>
       </c>
       <c r="AG8">
         <v>0.95</v>
@@ -14067,19 +13923,19 @@
         <v>1</v>
       </c>
       <c r="AK8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM8">
         <v>96</v>
       </c>
       <c r="AN8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO8">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AP8">
         <v>0</v>
@@ -14114,10 +13970,10 @@
         <v>1</v>
       </c>
       <c r="AE9">
-        <v>90500000</v>
+        <v>102000000</v>
       </c>
       <c r="AF9">
-        <v>476000000</v>
+        <v>562000000</v>
       </c>
       <c r="AG9">
         <v>0.95</v>
@@ -14132,19 +13988,19 @@
         <v>1</v>
       </c>
       <c r="AK9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM9">
         <v>96</v>
       </c>
       <c r="AN9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -14179,10 +14035,10 @@
         <v>1</v>
       </c>
       <c r="AE10">
-        <v>94300000</v>
+        <v>182000000</v>
       </c>
       <c r="AF10">
-        <v>561000000</v>
+        <v>736000000</v>
       </c>
       <c r="AG10">
         <v>0.95</v>
@@ -14197,19 +14053,19 @@
         <v>1</v>
       </c>
       <c r="AK10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM10">
         <v>96</v>
       </c>
       <c r="AN10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="AP10">
         <v>0</v>
